--- a/data/fppe_data_combined.xlsx
+++ b/data/fppe_data_combined.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10606"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akshay/Workspace/MLC/FPPE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akshay/Workspace/MLC/FPPE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501F2741-6570-A14A-9811-5E1C1323AA98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAF952A-6859-9149-8374-5591A6DDBB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15760" xr2:uid="{259E7114-D380-BD40-B813-EE9B97F880CA}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="109">
-  <si>
-    <t>Family Planning Use in India 2019-21 and 2015-16</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="65">
   <si>
     <t>Prevalence</t>
   </si>
@@ -59,9 +56,6 @@
     <t>Performance</t>
   </si>
   <si>
-    <t>State/Union Territory/Districts</t>
-  </si>
-  <si>
     <t>All methods</t>
   </si>
   <si>
@@ -123,132 +117,6 @@
   </si>
   <si>
     <t>2019-21</t>
-  </si>
-  <si>
-    <t>v1_1</t>
-  </si>
-  <si>
-    <t>v1_2</t>
-  </si>
-  <si>
-    <t>v2_1</t>
-  </si>
-  <si>
-    <t>v2_2</t>
-  </si>
-  <si>
-    <t>v3_1</t>
-  </si>
-  <si>
-    <t>v3_2</t>
-  </si>
-  <si>
-    <t>v4_1</t>
-  </si>
-  <si>
-    <t>v4_2</t>
-  </si>
-  <si>
-    <t>v5_1</t>
-  </si>
-  <si>
-    <t>v5_2</t>
-  </si>
-  <si>
-    <t>v_61</t>
-  </si>
-  <si>
-    <t>v6_2</t>
-  </si>
-  <si>
-    <t>v7_1</t>
-  </si>
-  <si>
-    <t>v7_2</t>
-  </si>
-  <si>
-    <t>v8_1</t>
-  </si>
-  <si>
-    <t>v8_2</t>
-  </si>
-  <si>
-    <t>v9_1</t>
-  </si>
-  <si>
-    <t>v9_2</t>
-  </si>
-  <si>
-    <t>v10_1</t>
-  </si>
-  <si>
-    <t>v10_2</t>
-  </si>
-  <si>
-    <t>v11_1</t>
-  </si>
-  <si>
-    <t>v11_2</t>
-  </si>
-  <si>
-    <t>v12_1</t>
-  </si>
-  <si>
-    <t>v12_2</t>
-  </si>
-  <si>
-    <t>v13_1</t>
-  </si>
-  <si>
-    <t>v13_2</t>
-  </si>
-  <si>
-    <t>v14_1</t>
-  </si>
-  <si>
-    <t>v14_2</t>
-  </si>
-  <si>
-    <t>v15_1</t>
-  </si>
-  <si>
-    <t>v15_2</t>
-  </si>
-  <si>
-    <t>v16_1</t>
-  </si>
-  <si>
-    <t>v16_2</t>
-  </si>
-  <si>
-    <t>v17_1</t>
-  </si>
-  <si>
-    <t>v17_2</t>
-  </si>
-  <si>
-    <t>v18_1</t>
-  </si>
-  <si>
-    <t>v18_2</t>
-  </si>
-  <si>
-    <t>v19_1</t>
-  </si>
-  <si>
-    <t>v19_2</t>
-  </si>
-  <si>
-    <t>v20_1</t>
-  </si>
-  <si>
-    <t>v20_2</t>
-  </si>
-  <si>
-    <t>v21_1</t>
-  </si>
-  <si>
-    <t>v21_2</t>
   </si>
   <si>
     <t>IN</t>
@@ -416,9 +284,11 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -737,3458 +607,3454 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EACAF9F-44F9-2E4F-8C3D-2AA5D583F083}">
-  <dimension ref="A1:AQ41"/>
+  <dimension ref="A1:AQ40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:Q2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="2"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-      <c r="AP1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AQ1" s="2"/>
+      <c r="AQ1" s="3"/>
     </row>
     <row r="2" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O2" s="4"/>
       <c r="P2" s="4" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="S2" s="4"/>
       <c r="T2" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="U2" s="4"/>
       <c r="V2" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="W2" s="4"/>
       <c r="X2" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y2" s="4"/>
       <c r="Z2" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AA2" s="4"/>
       <c r="AB2" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC2" s="4"/>
       <c r="AD2" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AE2" s="4"/>
       <c r="AF2" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG2" s="4"/>
       <c r="AH2" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI2" s="4"/>
       <c r="AJ2" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK2" s="4"/>
       <c r="AL2" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AM2" s="4"/>
       <c r="AN2" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AO2" s="4"/>
       <c r="AP2" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AQ2" s="4"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1">
+        <v>53.5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>66.7</v>
+      </c>
+      <c r="D4" s="1">
+        <v>47.8</v>
+      </c>
+      <c r="E4" s="1">
+        <v>56.5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="G4" s="1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H4" s="1">
         <v>36</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AP4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ4" s="1" t="s">
-        <v>70</v>
+      <c r="I4" s="1">
+        <v>37.9</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="M4" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="N4" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="O4" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="P4" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="U4" s="1">
+        <v>1</v>
+      </c>
+      <c r="V4" s="1">
+        <v>78.75</v>
+      </c>
+      <c r="W4" s="1">
+        <v>85.74</v>
+      </c>
+      <c r="X4" s="1">
+        <v>83.45</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>87.61</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>66.86</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>82.06</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>12.9</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>9.4</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>63.72</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>67.08</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>17.7</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>23.9</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>46.6</v>
+      </c>
+      <c r="AO4" s="1">
+        <v>62.4</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1">
-        <v>53.5</v>
+        <v>50.8</v>
       </c>
       <c r="C5" s="1">
-        <v>66.7</v>
+        <v>65.8</v>
       </c>
       <c r="D5" s="1">
-        <v>47.8</v>
+        <v>48.3</v>
       </c>
       <c r="E5" s="1">
-        <v>56.5</v>
+        <v>57.7</v>
       </c>
       <c r="F5" s="1">
-        <v>5.7</v>
+        <v>2.5</v>
       </c>
       <c r="G5" s="1">
-        <v>10.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="H5" s="1">
-        <v>36</v>
+        <v>39.9</v>
       </c>
       <c r="I5" s="1">
-        <v>37.9</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L5" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="N5" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O5" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="P5" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
         <v>0.3</v>
       </c>
-      <c r="K5" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="L5" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="M5" s="1">
-        <v>2.1</v>
-      </c>
-      <c r="N5" s="1">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="O5" s="1">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="P5" s="1">
-        <v>5.6</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>9.5</v>
-      </c>
-      <c r="R5" s="1">
+      <c r="T5" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="V5" s="1">
+        <v>75.709999999999994</v>
+      </c>
+      <c r="W5" s="1">
+        <v>81.040000000000006</v>
+      </c>
+      <c r="X5" s="1">
+        <v>84.36</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>84.19</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>50.91</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>75</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>15.5</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>69.150000000000006</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>67.94</v>
+      </c>
+      <c r="AJ5" s="1">
         <v>0.2</v>
       </c>
-      <c r="S5" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="T5" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="U5" s="1">
-        <v>1</v>
-      </c>
-      <c r="V5" s="1">
-        <v>78.75</v>
-      </c>
-      <c r="W5" s="1">
-        <v>85.74</v>
-      </c>
-      <c r="X5" s="1">
-        <v>83.45</v>
-      </c>
-      <c r="Y5" s="1">
-        <v>87.61</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>66.86</v>
-      </c>
-      <c r="AA5" s="1">
-        <v>82.06</v>
-      </c>
-      <c r="AB5" s="1">
-        <v>12.9</v>
-      </c>
-      <c r="AC5" s="1">
-        <v>9.4</v>
-      </c>
-      <c r="AD5" s="1">
-        <v>7.2</v>
-      </c>
-      <c r="AE5" s="1">
-        <v>5.4</v>
-      </c>
-      <c r="AF5" s="1">
-        <v>5.7</v>
-      </c>
-      <c r="AG5" s="1">
-        <v>4</v>
-      </c>
-      <c r="AH5" s="1">
-        <v>63.72</v>
-      </c>
-      <c r="AI5" s="1">
-        <v>67.08</v>
-      </c>
-      <c r="AJ5" s="1">
-        <v>0.28000000000000003</v>
-      </c>
       <c r="AK5" s="1">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="AL5" s="1">
-        <v>17.7</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="AM5" s="1">
-        <v>23.9</v>
+        <v>30.6</v>
       </c>
       <c r="AN5" s="1">
-        <v>46.6</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="AO5" s="1">
-        <v>62.4</v>
+        <v>83.4</v>
       </c>
       <c r="AP5" s="1">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ5" s="1">
-        <v>0.56999999999999995</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1">
-        <v>50.8</v>
+        <v>69.5</v>
       </c>
       <c r="C6" s="1">
-        <v>65.8</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="D6" s="1">
-        <v>48.3</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="E6" s="1">
-        <v>57.7</v>
+        <v>70.8</v>
       </c>
       <c r="F6" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="G6" s="1">
-        <v>8.1</v>
+        <v>0.3</v>
       </c>
       <c r="H6" s="1">
-        <v>39.9</v>
+        <v>68.3</v>
       </c>
       <c r="I6" s="1">
-        <v>39.200000000000003</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="K6" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="L6" s="1">
         <v>0.2</v>
       </c>
-      <c r="L6" s="1">
-        <v>2.1</v>
-      </c>
       <c r="M6" s="1">
-        <v>3.9</v>
+        <v>0.2</v>
       </c>
       <c r="N6" s="1">
-        <v>2.2000000000000002</v>
+        <v>0.2</v>
       </c>
       <c r="O6" s="1">
-        <v>3.6</v>
+        <v>0.1</v>
       </c>
       <c r="P6" s="1">
-        <v>4.2</v>
+        <v>0.2</v>
       </c>
       <c r="Q6" s="1">
-        <v>9.8000000000000007</v>
+        <v>0.5</v>
       </c>
       <c r="R6" s="1">
         <v>0</v>
       </c>
       <c r="S6" s="1">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="T6" s="1">
         <v>-0.1</v>
       </c>
       <c r="U6" s="1">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="V6" s="1">
-        <v>75.709999999999994</v>
+        <v>93.66</v>
       </c>
       <c r="W6" s="1">
-        <v>81.040000000000006</v>
+        <v>93.77</v>
       </c>
       <c r="X6" s="1">
-        <v>84.36</v>
+        <v>97.73</v>
       </c>
       <c r="Y6" s="1">
-        <v>84.19</v>
+        <v>97.09</v>
       </c>
       <c r="Z6" s="1">
-        <v>50.91</v>
+        <v>13.89</v>
       </c>
       <c r="AA6" s="1">
-        <v>75</v>
+        <v>23.53</v>
       </c>
       <c r="AB6" s="1">
-        <v>15.5</v>
+        <v>4.7</v>
       </c>
       <c r="AC6" s="1">
-        <v>13.5</v>
+        <v>4.7</v>
       </c>
       <c r="AD6" s="1">
-        <v>7.4</v>
+        <v>1.6</v>
       </c>
       <c r="AE6" s="1">
-        <v>7.4</v>
+        <v>2.1</v>
       </c>
       <c r="AF6" s="1">
-        <v>8.1</v>
+        <v>3.1</v>
       </c>
       <c r="AG6" s="1">
-        <v>6.1</v>
+        <v>2.6</v>
       </c>
       <c r="AH6" s="1">
-        <v>69.150000000000006</v>
+        <v>96.47</v>
       </c>
       <c r="AI6" s="1">
-        <v>67.94</v>
+        <v>98.31</v>
       </c>
       <c r="AJ6" s="1">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="AK6" s="1">
-        <v>0.36</v>
+        <v>0.02</v>
       </c>
       <c r="AL6" s="1">
-        <v>37.200000000000003</v>
+        <v>19.7</v>
       </c>
       <c r="AM6" s="1">
-        <v>30.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="AN6" s="1">
-        <v>66.400000000000006</v>
+        <v>25</v>
       </c>
       <c r="AO6" s="1">
-        <v>83.4</v>
+        <v>28.9</v>
       </c>
       <c r="AP6" s="1">
-        <v>0.44</v>
+        <v>0.18</v>
       </c>
       <c r="AQ6" s="1">
-        <v>0.56000000000000005</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1">
-        <v>69.5</v>
+        <v>31.7</v>
       </c>
       <c r="C7" s="1">
-        <v>71.099999999999994</v>
+        <v>59.1</v>
       </c>
       <c r="D7" s="1">
-        <v>69.400000000000006</v>
+        <v>26.6</v>
       </c>
       <c r="E7" s="1">
-        <v>70.8</v>
+        <v>47.2</v>
       </c>
       <c r="F7" s="1">
-        <v>0.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G7" s="1">
-        <v>0.3</v>
+        <v>11.9</v>
       </c>
       <c r="H7" s="1">
-        <v>68.3</v>
+        <v>11.2</v>
       </c>
       <c r="I7" s="1">
-        <v>69.599999999999994</v>
+        <v>18.2</v>
       </c>
       <c r="J7" s="1">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="L7" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="M7" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="N7" s="1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="O7" s="1">
+        <v>15.5</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="R7" s="1">
         <v>0.2</v>
       </c>
-      <c r="M7" s="1">
+      <c r="S7" s="1">
+        <v>1</v>
+      </c>
+      <c r="T7" s="1">
         <v>0.2</v>
       </c>
-      <c r="N7" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="O7" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="P7" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="R7" s="1">
-        <v>0</v>
-      </c>
-      <c r="S7" s="1">
-        <v>0</v>
-      </c>
-      <c r="T7" s="1">
-        <v>-0.1</v>
-      </c>
       <c r="U7" s="1">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="V7" s="1">
-        <v>93.66</v>
+        <v>55.3</v>
       </c>
       <c r="W7" s="1">
-        <v>93.77</v>
+        <v>79.06</v>
       </c>
       <c r="X7" s="1">
-        <v>97.73</v>
+        <v>56</v>
       </c>
       <c r="Y7" s="1">
-        <v>97.09</v>
+        <v>76.790000000000006</v>
       </c>
       <c r="Z7" s="1">
-        <v>13.89</v>
+        <v>54.8</v>
       </c>
       <c r="AA7" s="1">
-        <v>23.53</v>
+        <v>80.56</v>
       </c>
       <c r="AB7" s="1">
-        <v>4.7</v>
+        <v>21.5</v>
       </c>
       <c r="AC7" s="1">
-        <v>4.7</v>
+        <v>12.5</v>
       </c>
       <c r="AD7" s="1">
-        <v>1.6</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AE7" s="1">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="AF7" s="1">
-        <v>3.1</v>
+        <v>12.7</v>
       </c>
       <c r="AG7" s="1">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="AH7" s="1">
-        <v>96.47</v>
+        <v>23.73</v>
       </c>
       <c r="AI7" s="1">
-        <v>98.31</v>
+        <v>38.56</v>
       </c>
       <c r="AJ7" s="1">
-        <v>0.02</v>
+        <v>0.52</v>
       </c>
       <c r="AK7" s="1">
-        <v>0.02</v>
+        <v>0.59</v>
       </c>
       <c r="AL7" s="1">
-        <v>19.7</v>
+        <v>12.3</v>
       </c>
       <c r="AM7" s="1">
-        <v>18.600000000000001</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="AN7" s="1">
-        <v>25</v>
+        <v>51.2</v>
       </c>
       <c r="AO7" s="1">
-        <v>28.9</v>
+        <v>73.7</v>
       </c>
       <c r="AP7" s="1">
-        <v>0.18</v>
+        <v>0.51</v>
       </c>
       <c r="AQ7" s="1">
-        <v>0.22</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1">
-        <v>31.7</v>
+        <v>52.4</v>
       </c>
       <c r="C8" s="1">
-        <v>59.1</v>
+        <v>60.8</v>
       </c>
       <c r="D8" s="1">
-        <v>26.6</v>
+        <v>37</v>
       </c>
       <c r="E8" s="1">
-        <v>47.2</v>
+        <v>45.3</v>
       </c>
       <c r="F8" s="1">
-        <v>5.0999999999999996</v>
+        <v>15.4</v>
       </c>
       <c r="G8" s="1">
-        <v>11.9</v>
+        <v>15.5</v>
       </c>
       <c r="H8" s="1">
-        <v>11.2</v>
+        <v>9.5</v>
       </c>
       <c r="I8" s="1">
-        <v>18.2</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L8" s="1">
-        <v>3.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="M8" s="1">
-        <v>6.2</v>
+        <v>2.9</v>
       </c>
       <c r="N8" s="1">
-        <v>10.199999999999999</v>
+        <v>22</v>
       </c>
       <c r="O8" s="1">
-        <v>15.5</v>
+        <v>27.5</v>
       </c>
       <c r="P8" s="1">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="Q8" s="1">
-        <v>4.7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="R8" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="S8" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="T8" s="1">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="U8" s="1">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="V8" s="1">
+        <v>72.27</v>
+      </c>
+      <c r="W8" s="1">
+        <v>80.459999999999994</v>
+      </c>
+      <c r="X8" s="1">
+        <v>53.33</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>56.88</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>82.53</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>89.83</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>14.2</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>11</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>48.57</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>60.71</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="AK8" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>17.2</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>21.4</v>
+      </c>
+      <c r="AN8" s="1">
         <v>55.3</v>
       </c>
-      <c r="W8" s="1">
-        <v>79.06</v>
-      </c>
-      <c r="X8" s="1">
-        <v>56</v>
-      </c>
-      <c r="Y8" s="1">
-        <v>76.790000000000006</v>
-      </c>
-      <c r="Z8" s="1">
-        <v>54.8</v>
-      </c>
-      <c r="AA8" s="1">
-        <v>80.56</v>
-      </c>
-      <c r="AB8" s="1">
-        <v>21.5</v>
-      </c>
-      <c r="AC8" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="AD8" s="1">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="AE8" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="AF8" s="1">
-        <v>12.7</v>
-      </c>
-      <c r="AG8" s="1">
-        <v>7</v>
-      </c>
-      <c r="AH8" s="1">
-        <v>23.73</v>
-      </c>
-      <c r="AI8" s="1">
-        <v>38.56</v>
-      </c>
-      <c r="AJ8" s="1">
-        <v>0.52</v>
-      </c>
-      <c r="AK8" s="1">
-        <v>0.59</v>
-      </c>
-      <c r="AL8" s="1">
-        <v>12.3</v>
-      </c>
-      <c r="AM8" s="1">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="AN8" s="1">
-        <v>51.2</v>
-      </c>
       <c r="AO8" s="1">
-        <v>73.7</v>
+        <v>70</v>
       </c>
       <c r="AP8" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="AQ8" s="1">
-        <v>0.65</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1">
-        <v>52.4</v>
+        <v>24.1</v>
       </c>
       <c r="C9" s="1">
-        <v>60.8</v>
+        <v>55.8</v>
       </c>
       <c r="D9" s="1">
-        <v>37</v>
+        <v>23.3</v>
       </c>
       <c r="E9" s="1">
-        <v>45.3</v>
+        <v>44.4</v>
       </c>
       <c r="F9" s="1">
-        <v>15.4</v>
+        <v>0.8</v>
       </c>
       <c r="G9" s="1">
-        <v>15.5</v>
+        <v>11.4</v>
       </c>
       <c r="H9" s="1">
-        <v>9.5</v>
+        <v>20.7</v>
       </c>
       <c r="I9" s="1">
-        <v>9</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="J9" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>0.1</v>
       </c>
       <c r="L9" s="1">
-        <v>2.2000000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="M9" s="1">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="N9" s="1">
-        <v>22</v>
+        <v>0.8</v>
       </c>
       <c r="O9" s="1">
-        <v>27.5</v>
+        <v>2</v>
       </c>
       <c r="P9" s="1">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="1">
-        <v>4.9000000000000004</v>
+        <v>4</v>
       </c>
       <c r="R9" s="1">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="S9" s="1">
-        <v>0.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="V9" s="1">
-        <v>72.27</v>
+        <v>52.36</v>
       </c>
       <c r="W9" s="1">
-        <v>80.459999999999994</v>
+        <v>76.55</v>
       </c>
       <c r="X9" s="1">
-        <v>53.33</v>
+        <v>63.69</v>
       </c>
       <c r="Y9" s="1">
-        <v>56.88</v>
+        <v>82.31</v>
       </c>
       <c r="Z9" s="1">
-        <v>82.53</v>
+        <v>21.67</v>
       </c>
       <c r="AA9" s="1">
-        <v>89.83</v>
+        <v>60.9</v>
       </c>
       <c r="AB9" s="1">
-        <v>14.2</v>
+        <v>21.2</v>
       </c>
       <c r="AC9" s="1">
-        <v>11</v>
+        <v>13.6</v>
       </c>
       <c r="AD9" s="1">
-        <v>8.4</v>
+        <v>11.8</v>
       </c>
       <c r="AE9" s="1">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="AF9" s="1">
-        <v>5.8</v>
+        <v>9.4</v>
       </c>
       <c r="AG9" s="1">
-        <v>4.0999999999999996</v>
+        <v>6.1</v>
       </c>
       <c r="AH9" s="1">
-        <v>48.57</v>
+        <v>46.62</v>
       </c>
       <c r="AI9" s="1">
-        <v>60.71</v>
+        <v>78.38</v>
       </c>
       <c r="AJ9" s="1">
-        <v>0.42</v>
+        <v>0.13</v>
       </c>
       <c r="AK9" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>12</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>20.2</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>34.4</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>49.9</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="AQ9" s="1">
         <v>0.43</v>
-      </c>
-      <c r="AL9" s="1">
-        <v>17.2</v>
-      </c>
-      <c r="AM9" s="1">
-        <v>21.4</v>
-      </c>
-      <c r="AN9" s="1">
-        <v>55.3</v>
-      </c>
-      <c r="AO9" s="1">
-        <v>70</v>
-      </c>
-      <c r="AP9" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AQ9" s="1">
-        <v>0.54</v>
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1">
-        <v>24.1</v>
+        <v>74</v>
       </c>
       <c r="C10" s="1">
-        <v>55.8</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="D10" s="1">
-        <v>23.3</v>
+        <v>58.2</v>
       </c>
       <c r="E10" s="1">
-        <v>44.4</v>
+        <v>55.6</v>
       </c>
       <c r="F10" s="1">
-        <v>0.8</v>
+        <v>15.8</v>
       </c>
       <c r="G10" s="1">
-        <v>11.4</v>
+        <v>21.8</v>
       </c>
       <c r="H10" s="1">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="I10" s="1">
-        <v>34.799999999999997</v>
+        <v>19</v>
       </c>
       <c r="J10" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="L10" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="M10" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="N10" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P10" s="1">
+        <v>27.3</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>31.1</v>
+      </c>
+      <c r="R10" s="1">
         <v>0</v>
       </c>
-      <c r="K10" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="L10" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="M10" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="N10" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="O10" s="1">
-        <v>2</v>
-      </c>
-      <c r="P10" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>4</v>
-      </c>
-      <c r="R10" s="1">
-        <v>0.3</v>
-      </c>
       <c r="S10" s="1">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="T10" s="1">
         <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="V10" s="1">
-        <v>52.36</v>
+        <v>90.23</v>
       </c>
       <c r="W10" s="1">
-        <v>76.55</v>
+        <v>88.96</v>
       </c>
       <c r="X10" s="1">
-        <v>63.69</v>
+        <v>82.95</v>
       </c>
       <c r="Y10" s="1">
-        <v>82.31</v>
+        <v>81.430000000000007</v>
       </c>
       <c r="Z10" s="1">
-        <v>21.67</v>
+        <v>95.28</v>
       </c>
       <c r="AA10" s="1">
-        <v>60.9</v>
+        <v>93.56</v>
       </c>
       <c r="AB10" s="1">
-        <v>21.2</v>
+        <v>6.3</v>
       </c>
       <c r="AC10" s="1">
-        <v>13.6</v>
+        <v>6.9</v>
       </c>
       <c r="AD10" s="1">
-        <v>11.8</v>
+        <v>4.5</v>
       </c>
       <c r="AE10" s="1">
-        <v>7.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AF10" s="1">
-        <v>9.4</v>
+        <v>1.8</v>
       </c>
       <c r="AG10" s="1">
-        <v>6.1</v>
+        <v>2.5</v>
       </c>
       <c r="AH10" s="1">
-        <v>46.62</v>
+        <v>49.1</v>
       </c>
       <c r="AI10" s="1">
-        <v>78.38</v>
+        <v>55.94</v>
       </c>
       <c r="AJ10" s="1">
-        <v>0.13</v>
+        <v>0.5</v>
       </c>
       <c r="AK10" s="1">
-        <v>0.25</v>
+        <v>0.42</v>
       </c>
       <c r="AL10" s="1">
-        <v>12</v>
+        <v>25.1</v>
       </c>
       <c r="AM10" s="1">
-        <v>20.2</v>
+        <v>34</v>
       </c>
       <c r="AN10" s="1">
-        <v>34.4</v>
+        <v>62.6</v>
       </c>
       <c r="AO10" s="1">
-        <v>49.9</v>
+        <v>91.7</v>
       </c>
       <c r="AP10" s="1">
-        <v>0.27</v>
+        <v>0.66</v>
       </c>
       <c r="AQ10" s="1">
-        <v>0.43</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1">
-        <v>74</v>
+        <v>57.7</v>
       </c>
       <c r="C11" s="1">
-        <v>77.400000000000006</v>
+        <v>67.8</v>
       </c>
       <c r="D11" s="1">
-        <v>58.2</v>
+        <v>54.5</v>
       </c>
       <c r="E11" s="1">
-        <v>55.6</v>
+        <v>61.7</v>
       </c>
       <c r="F11" s="1">
-        <v>15.8</v>
+        <v>3.2</v>
       </c>
       <c r="G11" s="1">
-        <v>21.8</v>
+        <v>6.1</v>
       </c>
       <c r="H11" s="1">
-        <v>20.6</v>
+        <v>46.2</v>
       </c>
       <c r="I11" s="1">
-        <v>19</v>
+        <v>47.5</v>
       </c>
       <c r="J11" s="1">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="K11" s="1">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="L11" s="1">
-        <v>5.4</v>
+        <v>1.6</v>
       </c>
       <c r="M11" s="1">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="N11" s="1">
-        <v>3.6</v>
+        <v>1.7</v>
       </c>
       <c r="O11" s="1">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="P11" s="1">
-        <v>27.3</v>
+        <v>3.9</v>
       </c>
       <c r="Q11" s="1">
-        <v>31.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="R11" s="1">
         <v>0</v>
       </c>
       <c r="S11" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="T11" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="U11" s="1">
-        <v>0.5</v>
+        <v>3.7</v>
       </c>
       <c r="V11" s="1">
-        <v>90.23</v>
+        <v>83.08</v>
       </c>
       <c r="W11" s="1">
-        <v>88.96</v>
+        <v>88.14</v>
       </c>
       <c r="X11" s="1">
-        <v>82.95</v>
+        <v>88.99</v>
       </c>
       <c r="Y11" s="1">
-        <v>81.430000000000007</v>
+        <v>90.79</v>
       </c>
       <c r="Z11" s="1">
-        <v>95.28</v>
+        <v>58.91</v>
       </c>
       <c r="AA11" s="1">
-        <v>93.56</v>
+        <v>79.760000000000005</v>
       </c>
       <c r="AB11" s="1">
-        <v>6.3</v>
+        <v>11.1</v>
       </c>
       <c r="AC11" s="1">
-        <v>6.9</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="AD11" s="1">
-        <v>4.5</v>
+        <v>5.8</v>
       </c>
       <c r="AE11" s="1">
-        <v>4.4000000000000004</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AF11" s="1">
-        <v>1.8</v>
+        <v>5.3</v>
       </c>
       <c r="AG11" s="1">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="AH11" s="1">
-        <v>49.1</v>
+        <v>74.88</v>
       </c>
       <c r="AI11" s="1">
-        <v>55.94</v>
+        <v>76.989999999999995</v>
       </c>
       <c r="AJ11" s="1">
-        <v>0.5</v>
+        <v>0.18</v>
       </c>
       <c r="AK11" s="1">
-        <v>0.42</v>
+        <v>0.27</v>
       </c>
       <c r="AL11" s="1">
-        <v>25.1</v>
+        <v>28.5</v>
       </c>
       <c r="AM11" s="1">
-        <v>34</v>
+        <v>30.1</v>
       </c>
       <c r="AN11" s="1">
-        <v>62.6</v>
+        <v>54.7</v>
       </c>
       <c r="AO11" s="1">
-        <v>91.7</v>
+        <v>83.4</v>
       </c>
       <c r="AP11" s="1">
-        <v>0.66</v>
+        <v>0.44</v>
       </c>
       <c r="AQ11" s="1">
-        <v>0.59</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1">
+        <v>54.9</v>
+      </c>
+      <c r="C12" s="1">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="D12" s="1">
+        <v>48.6</v>
+      </c>
+      <c r="E12" s="1">
         <v>57.7</v>
       </c>
-      <c r="C12" s="1">
-        <v>67.8</v>
-      </c>
-      <c r="D12" s="1">
-        <v>54.5</v>
-      </c>
-      <c r="E12" s="1">
-        <v>61.7</v>
-      </c>
       <c r="F12" s="1">
-        <v>3.2</v>
+        <v>6.3</v>
       </c>
       <c r="G12" s="1">
-        <v>6.1</v>
+        <v>18.7</v>
       </c>
       <c r="H12" s="1">
-        <v>46.2</v>
+        <v>19.8</v>
       </c>
       <c r="I12" s="1">
-        <v>47.5</v>
+        <v>18</v>
       </c>
       <c r="J12" s="1">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="K12" s="1">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="L12" s="1">
-        <v>1.6</v>
+        <v>5.4</v>
       </c>
       <c r="M12" s="1">
-        <v>2.8</v>
+        <v>6.7</v>
       </c>
       <c r="N12" s="1">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="O12" s="1">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="P12" s="1">
-        <v>3.9</v>
+        <v>20</v>
       </c>
       <c r="Q12" s="1">
-        <v>4.0999999999999996</v>
+        <v>28.3</v>
       </c>
       <c r="R12" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S12" s="1">
         <v>0.4</v>
       </c>
       <c r="T12" s="1">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="U12" s="1">
-        <v>3.7</v>
+        <v>1.4</v>
       </c>
       <c r="V12" s="1">
-        <v>83.08</v>
+        <v>76.42</v>
       </c>
       <c r="W12" s="1">
-        <v>88.14</v>
+        <v>90.44</v>
       </c>
       <c r="X12" s="1">
-        <v>88.99</v>
+        <v>65.569999999999993</v>
       </c>
       <c r="Y12" s="1">
-        <v>90.79</v>
+        <v>81.61</v>
       </c>
       <c r="Z12" s="1">
-        <v>58.91</v>
+        <v>86.4</v>
       </c>
       <c r="AA12" s="1">
-        <v>79.760000000000005</v>
+        <v>95.18</v>
       </c>
       <c r="AB12" s="1">
-        <v>11.1</v>
+        <v>15</v>
       </c>
       <c r="AC12" s="1">
-        <v>8.3000000000000007</v>
+        <v>6.1</v>
       </c>
       <c r="AD12" s="1">
-        <v>5.8</v>
+        <v>10.5</v>
       </c>
       <c r="AE12" s="1">
-        <v>4.9000000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AF12" s="1">
-        <v>5.3</v>
+        <v>4.5</v>
       </c>
       <c r="AG12" s="1">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="AH12" s="1">
-        <v>74.88</v>
+        <v>34.659999999999997</v>
       </c>
       <c r="AI12" s="1">
-        <v>76.989999999999995</v>
+        <v>49.05</v>
       </c>
       <c r="AJ12" s="1">
-        <v>0.18</v>
+        <v>0.51</v>
       </c>
       <c r="AK12" s="1">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AL12" s="1">
-        <v>28.5</v>
+        <v>12.1</v>
       </c>
       <c r="AM12" s="1">
-        <v>30.1</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="AN12" s="1">
-        <v>54.7</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="AO12" s="1">
-        <v>83.4</v>
+        <v>70.8</v>
       </c>
       <c r="AP12" s="1">
-        <v>0.44</v>
+        <v>0.62</v>
       </c>
       <c r="AQ12" s="1">
-        <v>0.54</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="B13" s="1">
-        <v>54.9</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="C13" s="1">
-        <v>76.400000000000006</v>
+        <v>68</v>
       </c>
       <c r="D13" s="1">
-        <v>48.6</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="E13" s="1">
-        <v>57.7</v>
+        <v>59.8</v>
       </c>
       <c r="F13" s="1">
-        <v>6.3</v>
+        <v>0.4</v>
       </c>
       <c r="G13" s="1">
-        <v>18.7</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="H13" s="1">
-        <v>19.8</v>
+        <v>29.7</v>
       </c>
       <c r="I13" s="1">
-        <v>18</v>
+        <v>41.6</v>
       </c>
       <c r="J13" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>0.2</v>
       </c>
       <c r="L13" s="1">
-        <v>5.4</v>
+        <v>1.7</v>
       </c>
       <c r="M13" s="1">
-        <v>6.7</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N13" s="1">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="O13" s="1">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="P13" s="1">
-        <v>20</v>
+        <v>3.2</v>
       </c>
       <c r="Q13" s="1">
-        <v>28.3</v>
+        <v>11.7</v>
       </c>
       <c r="R13" s="1">
+        <v>0</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1">
         <v>0.1</v>
       </c>
-      <c r="S13" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="T13" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="U13" s="1">
-        <v>1.4</v>
-      </c>
       <c r="V13" s="1">
-        <v>76.42</v>
+        <v>64.739999999999995</v>
       </c>
       <c r="W13" s="1">
-        <v>90.44</v>
+        <v>83.4</v>
       </c>
       <c r="X13" s="1">
-        <v>65.569999999999993</v>
+        <v>77.14</v>
       </c>
       <c r="Y13" s="1">
-        <v>81.61</v>
+        <v>86.36</v>
       </c>
       <c r="Z13" s="1">
-        <v>86.4</v>
+        <v>36.31</v>
       </c>
       <c r="AA13" s="1">
-        <v>95.18</v>
+        <v>77.25</v>
       </c>
       <c r="AB13" s="1">
-        <v>15</v>
+        <v>19.5</v>
       </c>
       <c r="AC13" s="1">
-        <v>6.1</v>
+        <v>11.9</v>
       </c>
       <c r="AD13" s="1">
-        <v>10.5</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AE13" s="1">
-        <v>4.0999999999999996</v>
+        <v>6.6</v>
       </c>
       <c r="AF13" s="1">
-        <v>4.5</v>
+        <v>10.7</v>
       </c>
       <c r="AG13" s="1">
-        <v>2</v>
+        <v>5.3</v>
       </c>
       <c r="AH13" s="1">
-        <v>34.659999999999997</v>
+        <v>49.67</v>
       </c>
       <c r="AI13" s="1">
-        <v>49.05</v>
+        <v>69.569999999999993</v>
       </c>
       <c r="AJ13" s="1">
-        <v>0.51</v>
+        <v>0.19</v>
       </c>
       <c r="AK13" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AL13" s="1">
-        <v>12.1</v>
+        <v>15.5</v>
       </c>
       <c r="AM13" s="1">
-        <v>16.899999999999999</v>
+        <v>25.3</v>
       </c>
       <c r="AN13" s="1">
-        <v>40.799999999999997</v>
+        <v>43.4</v>
       </c>
       <c r="AO13" s="1">
-        <v>70.8</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="AP13" s="1">
-        <v>0.62</v>
+        <v>0.39</v>
       </c>
       <c r="AQ13" s="1">
-        <v>0.65</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="B14" s="1">
-        <v>36.200000000000003</v>
+        <v>26.3</v>
       </c>
       <c r="C14" s="1">
-        <v>68</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="D14" s="1">
-        <v>35.799999999999997</v>
+        <v>24.8</v>
       </c>
       <c r="E14" s="1">
-        <v>59.8</v>
+        <v>60.1</v>
       </c>
       <c r="F14" s="1">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="G14" s="1">
-        <v>8.1999999999999993</v>
+        <v>7.8</v>
       </c>
       <c r="H14" s="1">
-        <v>29.7</v>
+        <v>16.3</v>
       </c>
       <c r="I14" s="1">
-        <v>41.6</v>
+        <v>29.9</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L14" s="1">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="M14" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="N14" s="1">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="O14" s="1">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="P14" s="1">
-        <v>3.2</v>
+        <v>7.1</v>
       </c>
       <c r="Q14" s="1">
-        <v>11.7</v>
+        <v>23.2</v>
       </c>
       <c r="R14" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="S14" s="1">
         <v>0</v>
       </c>
-      <c r="S14" s="1">
-        <v>0.9</v>
-      </c>
       <c r="T14" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="U14" s="1">
-        <v>0.1</v>
+        <v>1.9</v>
       </c>
       <c r="V14" s="1">
-        <v>64.739999999999995</v>
+        <v>58.63</v>
       </c>
       <c r="W14" s="1">
-        <v>83.4</v>
+        <v>87.74</v>
       </c>
       <c r="X14" s="1">
-        <v>77.14</v>
+        <v>63.92</v>
       </c>
       <c r="Y14" s="1">
-        <v>86.36</v>
+        <v>87.17</v>
       </c>
       <c r="Z14" s="1">
-        <v>36.31</v>
+        <v>50.6</v>
       </c>
       <c r="AA14" s="1">
-        <v>77.25</v>
+        <v>88.3</v>
       </c>
       <c r="AB14" s="1">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC14" s="1">
-        <v>11.9</v>
+        <v>8.4</v>
       </c>
       <c r="AD14" s="1">
-        <v>8.8000000000000007</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="AE14" s="1">
-        <v>6.6</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AF14" s="1">
-        <v>10.7</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="AG14" s="1">
-        <v>5.3</v>
+        <v>4</v>
       </c>
       <c r="AH14" s="1">
-        <v>49.67</v>
+        <v>27.12</v>
       </c>
       <c r="AI14" s="1">
-        <v>69.569999999999993</v>
+        <v>49.75</v>
       </c>
       <c r="AJ14" s="1">
-        <v>0.19</v>
+        <v>0.34</v>
       </c>
       <c r="AK14" s="1">
-        <v>0.33</v>
+        <v>0.45</v>
       </c>
       <c r="AL14" s="1">
-        <v>15.5</v>
+        <v>44.2</v>
       </c>
       <c r="AM14" s="1">
-        <v>25.3</v>
+        <v>27.7</v>
       </c>
       <c r="AN14" s="1">
-        <v>43.4</v>
+        <v>76</v>
       </c>
       <c r="AO14" s="1">
-        <v>69.900000000000006</v>
+        <v>85.5</v>
       </c>
       <c r="AP14" s="1">
-        <v>0.39</v>
+        <v>0.47</v>
       </c>
       <c r="AQ14" s="1">
-        <v>0.56000000000000005</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="B15" s="1">
-        <v>26.3</v>
+        <v>46.9</v>
       </c>
       <c r="C15" s="1">
-        <v>67.900000000000006</v>
+        <v>65.3</v>
       </c>
       <c r="D15" s="1">
-        <v>24.8</v>
+        <v>43.1</v>
       </c>
       <c r="E15" s="1">
-        <v>60.1</v>
+        <v>53.6</v>
       </c>
       <c r="F15" s="1">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="G15" s="1">
-        <v>7.8</v>
+        <v>11.7</v>
       </c>
       <c r="H15" s="1">
-        <v>16.3</v>
+        <v>33.6</v>
       </c>
       <c r="I15" s="1">
-        <v>29.9</v>
+        <v>35.9</v>
       </c>
       <c r="J15" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L15" s="1">
+        <v>3</v>
+      </c>
+      <c r="M15" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="N15" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="O15" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="P15" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>11.4</v>
+      </c>
+      <c r="R15" s="1">
         <v>0</v>
       </c>
-      <c r="K15" s="1">
-        <v>0</v>
-      </c>
-      <c r="L15" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="M15" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="N15" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="O15" s="1">
-        <v>2.7</v>
-      </c>
-      <c r="P15" s="1">
-        <v>7.1</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>23.2</v>
-      </c>
-      <c r="R15" s="1">
+      <c r="S15" s="1">
         <v>0.1</v>
-      </c>
-      <c r="S15" s="1">
-        <v>0</v>
       </c>
       <c r="T15" s="1">
         <v>0.1</v>
       </c>
       <c r="U15" s="1">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="V15" s="1">
-        <v>58.63</v>
+        <v>71.709999999999994</v>
       </c>
       <c r="W15" s="1">
-        <v>87.74</v>
+        <v>83.88</v>
       </c>
       <c r="X15" s="1">
-        <v>63.92</v>
+        <v>76.59</v>
       </c>
       <c r="Y15" s="1">
-        <v>87.17</v>
+        <v>86.16</v>
       </c>
       <c r="Z15" s="1">
-        <v>50.6</v>
+        <v>58.39</v>
       </c>
       <c r="AA15" s="1">
-        <v>88.3</v>
+        <v>79.55</v>
       </c>
       <c r="AB15" s="1">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC15" s="1">
-        <v>8.4</v>
+        <v>10.3</v>
       </c>
       <c r="AD15" s="1">
-        <v>9.1999999999999993</v>
+        <v>10.3</v>
       </c>
       <c r="AE15" s="1">
-        <v>4.4000000000000004</v>
+        <v>5.8</v>
       </c>
       <c r="AF15" s="1">
-        <v>8.3000000000000007</v>
+        <v>6.7</v>
       </c>
       <c r="AG15" s="1">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AH15" s="1">
-        <v>27.12</v>
+        <v>62.69</v>
       </c>
       <c r="AI15" s="1">
-        <v>49.75</v>
+        <v>66.98</v>
       </c>
       <c r="AJ15" s="1">
-        <v>0.34</v>
+        <v>0.25</v>
       </c>
       <c r="AK15" s="1">
-        <v>0.45</v>
+        <v>0.36</v>
       </c>
       <c r="AL15" s="1">
-        <v>44.2</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="AM15" s="1">
-        <v>27.7</v>
+        <v>29.8</v>
       </c>
       <c r="AN15" s="1">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="AO15" s="1">
-        <v>85.5</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="AP15" s="1">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="AQ15" s="1">
-        <v>0.66</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="B16" s="1">
-        <v>46.9</v>
+        <v>63.7</v>
       </c>
       <c r="C16" s="1">
-        <v>65.3</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="D16" s="1">
-        <v>43.1</v>
+        <v>59.4</v>
       </c>
       <c r="E16" s="1">
-        <v>53.6</v>
+        <v>60.5</v>
       </c>
       <c r="F16" s="1">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="G16" s="1">
-        <v>11.7</v>
+        <v>12.6</v>
       </c>
       <c r="H16" s="1">
-        <v>33.6</v>
+        <v>38.1</v>
       </c>
       <c r="I16" s="1">
-        <v>35.9</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="J16" s="1">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="K16" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="L16" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="M16" s="1">
+        <v>5</v>
+      </c>
+      <c r="N16" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="O16" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="P16" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="R16" s="1">
         <v>0.2</v>
       </c>
-      <c r="L16" s="1">
-        <v>3</v>
-      </c>
-      <c r="M16" s="1">
-        <v>3.1</v>
-      </c>
-      <c r="N16" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="O16" s="1">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="P16" s="1">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>11.4</v>
-      </c>
-      <c r="R16" s="1">
-        <v>0</v>
-      </c>
       <c r="S16" s="1">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="T16" s="1">
         <v>0.1</v>
       </c>
       <c r="U16" s="1">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="V16" s="1">
-        <v>71.709999999999994</v>
+        <v>86.46</v>
       </c>
       <c r="W16" s="1">
-        <v>83.88</v>
+        <v>88.84</v>
       </c>
       <c r="X16" s="1">
-        <v>76.59</v>
+        <v>87.56</v>
       </c>
       <c r="Y16" s="1">
-        <v>86.16</v>
+        <v>88.53</v>
       </c>
       <c r="Z16" s="1">
-        <v>58.39</v>
+        <v>84.49</v>
       </c>
       <c r="AA16" s="1">
-        <v>79.55</v>
+        <v>89.22</v>
       </c>
       <c r="AB16" s="1">
-        <v>17</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="AC16" s="1">
-        <v>10.3</v>
+        <v>7.6</v>
       </c>
       <c r="AD16" s="1">
-        <v>10.3</v>
+        <v>5.5</v>
       </c>
       <c r="AE16" s="1">
-        <v>5.8</v>
+        <v>4.3</v>
       </c>
       <c r="AF16" s="1">
-        <v>6.7</v>
+        <v>3.8</v>
       </c>
       <c r="AG16" s="1">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="AH16" s="1">
-        <v>62.69</v>
+        <v>62.98</v>
       </c>
       <c r="AI16" s="1">
-        <v>66.98</v>
+        <v>53.39</v>
       </c>
       <c r="AJ16" s="1">
-        <v>0.25</v>
+        <v>0.39</v>
       </c>
       <c r="AK16" s="1">
-        <v>0.36</v>
+        <v>0.47</v>
       </c>
       <c r="AL16" s="1">
-        <v>18.899999999999999</v>
+        <v>23</v>
       </c>
       <c r="AM16" s="1">
-        <v>29.8</v>
+        <v>24.9</v>
       </c>
       <c r="AN16" s="1">
-        <v>47</v>
+        <v>63.5</v>
       </c>
       <c r="AO16" s="1">
-        <v>74.099999999999994</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="AP16" s="1">
-        <v>0.46</v>
+        <v>0.63</v>
       </c>
       <c r="AQ16" s="1">
-        <v>0.55000000000000004</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="B17" s="1">
-        <v>63.7</v>
+        <v>57</v>
       </c>
       <c r="C17" s="1">
-        <v>73.099999999999994</v>
+        <v>74.2</v>
       </c>
       <c r="D17" s="1">
-        <v>59.4</v>
+        <v>52.1</v>
       </c>
       <c r="E17" s="1">
-        <v>60.5</v>
+        <v>63.4</v>
       </c>
       <c r="F17" s="1">
-        <v>4.3</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G17" s="1">
-        <v>12.6</v>
+        <v>10.8</v>
       </c>
       <c r="H17" s="1">
-        <v>38.1</v>
+        <v>34.5</v>
       </c>
       <c r="I17" s="1">
-        <v>32.299999999999997</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="J17" s="1">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="K17" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="L17" s="1">
         <v>0.9</v>
       </c>
-      <c r="L17" s="1">
-        <v>5.7</v>
-      </c>
       <c r="M17" s="1">
-        <v>5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N17" s="1">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="O17" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="P17" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>19.2</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="V17" s="1">
+        <v>76.84</v>
+      </c>
+      <c r="W17" s="1">
+        <v>88.92</v>
+      </c>
+      <c r="X17" s="1">
+        <v>77.2</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>88.94</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>76</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>88.89</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>15.7</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>10.9</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="AG17" s="1">
         <v>2.8</v>
       </c>
-      <c r="P17" s="1">
-        <v>12</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="R17" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="S17" s="1">
+      <c r="AH17" s="1">
+        <v>54.42</v>
+      </c>
+      <c r="AI17" s="1">
+        <v>59.46</v>
+      </c>
+      <c r="AJ17" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="AK17" s="1">
         <v>0.4</v>
       </c>
-      <c r="T17" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="U17" s="1">
-        <v>1</v>
-      </c>
-      <c r="V17" s="1">
-        <v>86.46</v>
-      </c>
-      <c r="W17" s="1">
-        <v>88.84</v>
-      </c>
-      <c r="X17" s="1">
-        <v>87.56</v>
-      </c>
-      <c r="Y17" s="1">
-        <v>88.53</v>
-      </c>
-      <c r="Z17" s="1">
-        <v>84.49</v>
-      </c>
-      <c r="AA17" s="1">
-        <v>89.22</v>
-      </c>
-      <c r="AB17" s="1">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="AC17" s="1">
-        <v>7.6</v>
-      </c>
-      <c r="AD17" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="AE17" s="1">
-        <v>4.3</v>
-      </c>
-      <c r="AF17" s="1">
-        <v>3.8</v>
-      </c>
-      <c r="AG17" s="1">
-        <v>3.3</v>
-      </c>
-      <c r="AH17" s="1">
-        <v>62.98</v>
-      </c>
-      <c r="AI17" s="1">
-        <v>53.39</v>
-      </c>
-      <c r="AJ17" s="1">
-        <v>0.39</v>
-      </c>
-      <c r="AK17" s="1">
-        <v>0.47</v>
-      </c>
       <c r="AL17" s="1">
-        <v>23</v>
+        <v>15.8</v>
       </c>
       <c r="AM17" s="1">
-        <v>24.9</v>
+        <v>19.3</v>
       </c>
       <c r="AN17" s="1">
-        <v>63.5</v>
+        <v>40.1</v>
       </c>
       <c r="AO17" s="1">
-        <v>69.099999999999994</v>
+        <v>58.1</v>
       </c>
       <c r="AP17" s="1">
-        <v>0.63</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="AQ17" s="1">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="B18" s="1">
-        <v>57</v>
+        <v>57.1</v>
       </c>
       <c r="C18" s="1">
-        <v>74.2</v>
+        <v>59.8</v>
       </c>
       <c r="D18" s="1">
-        <v>52.1</v>
+        <v>45.8</v>
       </c>
       <c r="E18" s="1">
-        <v>63.4</v>
+        <v>52.5</v>
       </c>
       <c r="F18" s="1">
-        <v>4.9000000000000004</v>
+        <v>11.3</v>
       </c>
       <c r="G18" s="1">
-        <v>10.8</v>
+        <v>7.3</v>
       </c>
       <c r="H18" s="1">
-        <v>34.5</v>
+        <v>24.4</v>
       </c>
       <c r="I18" s="1">
-        <v>37.700000000000003</v>
+        <v>21.1</v>
       </c>
       <c r="J18" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="L18" s="1">
         <v>2.4</v>
       </c>
-      <c r="K18" s="1">
-        <v>3.3</v>
-      </c>
-      <c r="L18" s="1">
+      <c r="M18" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="N18" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="O18" s="1">
+        <v>9</v>
+      </c>
+      <c r="P18" s="1">
+        <v>11.3</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>11.7</v>
+      </c>
+      <c r="R18" s="1">
         <v>0.9</v>
       </c>
-      <c r="M18" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N18" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="O18" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="P18" s="1">
-        <v>12.7</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>19.2</v>
-      </c>
-      <c r="R18" s="1">
+      <c r="S18" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="T18" s="1">
         <v>0.1</v>
       </c>
-      <c r="S18" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="T18" s="1">
-        <v>0</v>
-      </c>
       <c r="U18" s="1">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="V18" s="1">
-        <v>76.84</v>
+        <v>78.69</v>
       </c>
       <c r="W18" s="1">
-        <v>88.92</v>
+        <v>87.06</v>
       </c>
       <c r="X18" s="1">
-        <v>77.2</v>
+        <v>78.98</v>
       </c>
       <c r="Y18" s="1">
-        <v>88.94</v>
+        <v>84.58</v>
       </c>
       <c r="Z18" s="1">
-        <v>76</v>
+        <v>78.36</v>
       </c>
       <c r="AA18" s="1">
-        <v>88.89</v>
+        <v>88.86</v>
       </c>
       <c r="AB18" s="1">
-        <v>15.7</v>
+        <v>12.4</v>
       </c>
       <c r="AC18" s="1">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AD18" s="1">
-        <v>10.9</v>
+        <v>6.6</v>
       </c>
       <c r="AE18" s="1">
-        <v>5.0999999999999996</v>
+        <v>3.9</v>
       </c>
       <c r="AF18" s="1">
-        <v>4.8</v>
+        <v>5.8</v>
       </c>
       <c r="AG18" s="1">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="AH18" s="1">
-        <v>54.42</v>
+        <v>46.48</v>
       </c>
       <c r="AI18" s="1">
-        <v>59.46</v>
+        <v>40.19</v>
       </c>
       <c r="AJ18" s="1">
-        <v>0.35</v>
+        <v>0.49</v>
       </c>
       <c r="AK18" s="1">
-        <v>0.4</v>
+        <v>0.63</v>
       </c>
       <c r="AL18" s="1">
-        <v>15.8</v>
+        <v>9.6</v>
       </c>
       <c r="AM18" s="1">
-        <v>19.3</v>
+        <v>11.1</v>
       </c>
       <c r="AN18" s="1">
-        <v>40.1</v>
+        <v>38.5</v>
       </c>
       <c r="AO18" s="1">
-        <v>58.1</v>
+        <v>64</v>
       </c>
       <c r="AP18" s="1">
-        <v>0.56000000000000005</v>
+        <v>0.6</v>
       </c>
       <c r="AQ18" s="1">
-        <v>0.61</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="B19" s="1">
-        <v>57.1</v>
+        <v>40.4</v>
       </c>
       <c r="C19" s="1">
-        <v>59.8</v>
+        <v>61.7</v>
       </c>
       <c r="D19" s="1">
-        <v>45.8</v>
+        <v>37.5</v>
       </c>
       <c r="E19" s="1">
-        <v>52.5</v>
+        <v>49.5</v>
       </c>
       <c r="F19" s="1">
-        <v>11.3</v>
+        <v>2.9</v>
       </c>
       <c r="G19" s="1">
-        <v>7.3</v>
+        <v>12.2</v>
       </c>
       <c r="H19" s="1">
-        <v>24.4</v>
+        <v>31.1</v>
       </c>
       <c r="I19" s="1">
-        <v>21.1</v>
+        <v>37.4</v>
       </c>
       <c r="J19" s="1">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="K19" s="1">
         <v>0.3</v>
       </c>
       <c r="L19" s="1">
+        <v>1</v>
+      </c>
+      <c r="M19" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="N19" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="O19" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="P19" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="S19" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="U19" s="1">
         <v>2.4</v>
       </c>
-      <c r="M19" s="1">
-        <v>5.9</v>
-      </c>
-      <c r="N19" s="1">
-        <v>6.3</v>
-      </c>
-      <c r="O19" s="1">
+      <c r="V19" s="1">
+        <v>67.08</v>
+      </c>
+      <c r="W19" s="1">
+        <v>81.150000000000006</v>
+      </c>
+      <c r="X19" s="1">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>84.91</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>40.79</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>71.08</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>9.4</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="AF19" s="1">
         <v>9</v>
       </c>
-      <c r="P19" s="1">
-        <v>11.3</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>11.7</v>
-      </c>
-      <c r="R19" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="S19" s="1">
-        <v>3.6</v>
-      </c>
-      <c r="T19" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="U19" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="V19" s="1">
-        <v>78.69</v>
-      </c>
-      <c r="W19" s="1">
-        <v>87.06</v>
-      </c>
-      <c r="X19" s="1">
-        <v>78.98</v>
-      </c>
-      <c r="Y19" s="1">
-        <v>84.58</v>
-      </c>
-      <c r="Z19" s="1">
-        <v>78.36</v>
-      </c>
-      <c r="AA19" s="1">
-        <v>88.86</v>
-      </c>
-      <c r="AB19" s="1">
-        <v>12.4</v>
-      </c>
-      <c r="AC19" s="1">
-        <v>7.8</v>
-      </c>
-      <c r="AD19" s="1">
-        <v>6.6</v>
-      </c>
-      <c r="AE19" s="1">
-        <v>3.9</v>
-      </c>
-      <c r="AF19" s="1">
-        <v>5.8</v>
-      </c>
       <c r="AG19" s="1">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="AH19" s="1">
-        <v>46.48</v>
+        <v>62.83</v>
       </c>
       <c r="AI19" s="1">
-        <v>40.19</v>
+        <v>75.56</v>
       </c>
       <c r="AJ19" s="1">
-        <v>0.49</v>
+        <v>0.2</v>
       </c>
       <c r="AK19" s="1">
-        <v>0.63</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AL19" s="1">
-        <v>9.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="AM19" s="1">
-        <v>11.1</v>
+        <v>29.1</v>
       </c>
       <c r="AN19" s="1">
-        <v>38.5</v>
+        <v>39.4</v>
       </c>
       <c r="AO19" s="1">
-        <v>64</v>
+        <v>51.1</v>
       </c>
       <c r="AP19" s="1">
-        <v>0.6</v>
+        <v>0.39</v>
       </c>
       <c r="AQ19" s="1">
-        <v>0.73</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="B20" s="1">
-        <v>40.4</v>
+        <v>51.8</v>
       </c>
       <c r="C20" s="1">
-        <v>61.7</v>
+        <v>68.7</v>
       </c>
       <c r="D20" s="1">
-        <v>37.5</v>
+        <v>51.3</v>
       </c>
       <c r="E20" s="1">
-        <v>49.5</v>
+        <v>68.2</v>
       </c>
       <c r="F20" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H20" s="1">
+        <v>48.6</v>
+      </c>
+      <c r="I20" s="1">
+        <v>57.4</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="M20" s="1">
         <v>2.9</v>
       </c>
-      <c r="G20" s="1">
-        <v>12.2</v>
-      </c>
-      <c r="H20" s="1">
-        <v>31.1</v>
-      </c>
-      <c r="I20" s="1">
-        <v>37.4</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="L20" s="1">
-        <v>1</v>
-      </c>
-      <c r="M20" s="1">
-        <v>1.7</v>
-      </c>
       <c r="N20" s="1">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
       <c r="O20" s="1">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="P20" s="1">
-        <v>2.2000000000000002</v>
+        <v>1.3</v>
       </c>
       <c r="Q20" s="1">
         <v>4.0999999999999996</v>
       </c>
       <c r="R20" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="S20" s="1">
         <v>0.5</v>
       </c>
       <c r="T20" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="U20" s="1">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="V20" s="1">
-        <v>67.08</v>
+        <v>83.14</v>
       </c>
       <c r="W20" s="1">
-        <v>81.150000000000006</v>
+        <v>91.3</v>
       </c>
       <c r="X20" s="1">
-        <v>76.900000000000006</v>
+        <v>91.71</v>
       </c>
       <c r="Y20" s="1">
-        <v>84.91</v>
+        <v>95.51</v>
       </c>
       <c r="Z20" s="1">
-        <v>40.79</v>
+        <v>30.23</v>
       </c>
       <c r="AA20" s="1">
-        <v>71.08</v>
+        <v>73.97</v>
       </c>
       <c r="AB20" s="1">
-        <v>18.399999999999999</v>
+        <v>10.4</v>
       </c>
       <c r="AC20" s="1">
-        <v>11.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD20" s="1">
-        <v>9.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AE20" s="1">
-        <v>6.7</v>
+        <v>2.7</v>
       </c>
       <c r="AF20" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AG20" s="1">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="AH20" s="1">
-        <v>62.83</v>
+        <v>71.260000000000005</v>
       </c>
       <c r="AI20" s="1">
-        <v>75.56</v>
+        <v>84.16</v>
       </c>
       <c r="AJ20" s="1">
-        <v>0.2</v>
+        <v>0.06</v>
       </c>
       <c r="AK20" s="1">
-        <v>0.28000000000000003</v>
+        <v>0.18</v>
       </c>
       <c r="AL20" s="1">
-        <v>19.600000000000001</v>
+        <v>19.8</v>
       </c>
       <c r="AM20" s="1">
-        <v>29.1</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="AN20" s="1">
-        <v>39.4</v>
+        <v>41.6</v>
       </c>
       <c r="AO20" s="1">
-        <v>51.1</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="AP20" s="1">
-        <v>0.39</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="AQ20" s="1">
-        <v>0.47</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="B21" s="1">
-        <v>51.8</v>
+        <v>53.1</v>
       </c>
       <c r="C21" s="1">
-        <v>68.7</v>
+        <v>60.7</v>
       </c>
       <c r="D21" s="1">
-        <v>51.3</v>
+        <v>50.3</v>
       </c>
       <c r="E21" s="1">
-        <v>68.2</v>
+        <v>52.8</v>
       </c>
       <c r="F21" s="1">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="G21" s="1">
-        <v>0.5</v>
+        <v>7.9</v>
       </c>
       <c r="H21" s="1">
-        <v>48.6</v>
+        <v>45.8</v>
       </c>
       <c r="I21" s="1">
-        <v>57.4</v>
+        <v>46.6</v>
       </c>
       <c r="J21" s="1">
         <v>0.1</v>
       </c>
       <c r="K21" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L21" s="1">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="M21" s="1">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="N21" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="O21" s="1">
         <v>0.4</v>
       </c>
-      <c r="O21" s="1">
-        <v>2.1</v>
-      </c>
       <c r="P21" s="1">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="Q21" s="1">
-        <v>4.0999999999999996</v>
+        <v>3.4</v>
       </c>
       <c r="R21" s="1">
         <v>0</v>
       </c>
       <c r="S21" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T21" s="1">
+        <v>0</v>
+      </c>
+      <c r="U21" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="V21" s="1">
+        <v>78.59</v>
+      </c>
+      <c r="W21" s="1">
+        <v>80.86</v>
+      </c>
+      <c r="X21" s="1">
+        <v>89.47</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>89.46</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>34.65</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>46.56</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>13.7</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>7</v>
+      </c>
+      <c r="AH21" s="1">
+        <v>86.74</v>
+      </c>
+      <c r="AI21" s="1">
+        <v>88.26</v>
+      </c>
+      <c r="AJ21" s="1">
         <v>0.1</v>
       </c>
-      <c r="U21" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="V21" s="1">
-        <v>83.14</v>
-      </c>
-      <c r="W21" s="1">
-        <v>91.3</v>
-      </c>
-      <c r="X21" s="1">
-        <v>91.71</v>
-      </c>
-      <c r="Y21" s="1">
-        <v>95.51</v>
-      </c>
-      <c r="Z21" s="1">
-        <v>30.23</v>
-      </c>
-      <c r="AA21" s="1">
-        <v>73.97</v>
-      </c>
-      <c r="AB21" s="1">
-        <v>10.4</v>
-      </c>
-      <c r="AC21" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="AD21" s="1">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AE21" s="1">
-        <v>2.7</v>
-      </c>
-      <c r="AF21" s="1">
-        <v>6</v>
-      </c>
-      <c r="AG21" s="1">
-        <v>3.8</v>
-      </c>
-      <c r="AH21" s="1">
-        <v>71.260000000000005</v>
-      </c>
-      <c r="AI21" s="1">
-        <v>84.16</v>
-      </c>
-      <c r="AJ21" s="1">
-        <v>0.06</v>
-      </c>
       <c r="AK21" s="1">
-        <v>0.18</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>19.8</v>
+        <v>17</v>
       </c>
       <c r="AM21" s="1">
-        <v>35.799999999999997</v>
+        <v>15</v>
       </c>
       <c r="AN21" s="1">
-        <v>41.6</v>
+        <v>55.6</v>
       </c>
       <c r="AO21" s="1">
-        <v>72.900000000000006</v>
+        <v>62.2</v>
       </c>
       <c r="AP21" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.33</v>
       </c>
       <c r="AQ21" s="1">
-        <v>0.54</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="B22" s="1">
-        <v>53.1</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="C22" s="1">
-        <v>60.7</v>
+        <v>51.3</v>
       </c>
       <c r="D22" s="1">
-        <v>50.3</v>
+        <v>64.7</v>
       </c>
       <c r="E22" s="1">
-        <v>52.8</v>
+        <v>48</v>
       </c>
       <c r="F22" s="1">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="G22" s="1">
-        <v>7.9</v>
+        <v>3.3</v>
       </c>
       <c r="H22" s="1">
-        <v>45.8</v>
+        <v>21.8</v>
       </c>
       <c r="I22" s="1">
-        <v>46.6</v>
+        <v>16.7</v>
       </c>
       <c r="J22" s="1">
         <v>0.1</v>
       </c>
       <c r="K22" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="L22" s="1">
+        <v>30.1</v>
+      </c>
+      <c r="M22" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="N22" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="O22" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="P22" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>9</v>
+      </c>
+      <c r="R22" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="S22" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="T22" s="1">
         <v>0.1</v>
       </c>
-      <c r="L22" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="M22" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="N22" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="O22" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="P22" s="1">
-        <v>2.6</v>
-      </c>
-      <c r="Q22" s="1">
-        <v>3.4</v>
-      </c>
-      <c r="R22" s="1">
-        <v>0</v>
-      </c>
-      <c r="S22" s="1">
-        <v>0</v>
-      </c>
-      <c r="T22" s="1">
-        <v>0</v>
-      </c>
       <c r="U22" s="1">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="V22" s="1">
-        <v>78.59</v>
+        <v>87.08</v>
       </c>
       <c r="W22" s="1">
-        <v>80.86</v>
+        <v>85.87</v>
       </c>
       <c r="X22" s="1">
-        <v>89.47</v>
+        <v>85.55</v>
       </c>
       <c r="Y22" s="1">
-        <v>89.46</v>
+        <v>81.430000000000007</v>
       </c>
       <c r="Z22" s="1">
-        <v>34.65</v>
+        <v>87.89</v>
       </c>
       <c r="AA22" s="1">
-        <v>46.56</v>
+        <v>88.54</v>
       </c>
       <c r="AB22" s="1">
-        <v>13.7</v>
+        <v>9.6</v>
       </c>
       <c r="AC22" s="1">
-        <v>12.5</v>
+        <v>7.9</v>
       </c>
       <c r="AD22" s="1">
-        <v>5.4</v>
+        <v>3.7</v>
       </c>
       <c r="AE22" s="1">
-        <v>5.5</v>
+        <v>3.9</v>
       </c>
       <c r="AF22" s="1">
-        <v>8.3000000000000007</v>
+        <v>5.9</v>
       </c>
       <c r="AG22" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AH22" s="1">
-        <v>86.74</v>
+        <v>62.71</v>
       </c>
       <c r="AI22" s="1">
-        <v>88.26</v>
+        <v>34.79</v>
       </c>
       <c r="AJ22" s="1">
-        <v>0.1</v>
+        <v>0.51</v>
       </c>
       <c r="AK22" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="AL22" s="1">
-        <v>17</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AM22" s="1">
-        <v>15</v>
+        <v>12.2</v>
       </c>
       <c r="AN22" s="1">
-        <v>55.6</v>
+        <v>28.1</v>
       </c>
       <c r="AO22" s="1">
-        <v>62.2</v>
+        <v>59.4</v>
       </c>
       <c r="AP22" s="1">
-        <v>0.33</v>
+        <v>0.72</v>
       </c>
       <c r="AQ22" s="1">
-        <v>0.35</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="B23" s="1">
-        <v>66.599999999999994</v>
+        <v>29.7</v>
       </c>
       <c r="C23" s="1">
-        <v>51.3</v>
+        <v>52.6</v>
       </c>
       <c r="D23" s="1">
-        <v>64.7</v>
+        <v>15.7</v>
       </c>
       <c r="E23" s="1">
-        <v>48</v>
+        <v>30.1</v>
       </c>
       <c r="F23" s="1">
-        <v>1.9</v>
+        <v>14</v>
       </c>
       <c r="G23" s="1">
-        <v>3.3</v>
+        <v>22.5</v>
       </c>
       <c r="H23" s="1">
-        <v>21.8</v>
+        <v>10.7</v>
       </c>
       <c r="I23" s="1">
-        <v>16.7</v>
+        <v>20.7</v>
       </c>
       <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="M23" s="1">
+        <v>1</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="P23" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="R23" s="1">
         <v>0.1</v>
       </c>
-      <c r="K23" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="L23" s="1">
-        <v>30.1</v>
-      </c>
-      <c r="M23" s="1">
-        <v>7.9</v>
-      </c>
-      <c r="N23" s="1">
-        <v>3.4</v>
-      </c>
-      <c r="O23" s="1">
-        <v>6.6</v>
-      </c>
-      <c r="P23" s="1">
-        <v>7.4</v>
-      </c>
-      <c r="Q23" s="1">
-        <v>9</v>
-      </c>
-      <c r="R23" s="1">
-        <v>1.8</v>
-      </c>
       <c r="S23" s="1">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="T23" s="1">
         <v>0.1</v>
       </c>
       <c r="U23" s="1">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="V23" s="1">
-        <v>87.08</v>
+        <v>48.16</v>
       </c>
       <c r="W23" s="1">
-        <v>85.87</v>
+        <v>70.989999999999995</v>
       </c>
       <c r="X23" s="1">
-        <v>85.55</v>
+        <v>71.81</v>
       </c>
       <c r="Y23" s="1">
-        <v>81.430000000000007</v>
+        <v>82.8</v>
       </c>
       <c r="Z23" s="1">
-        <v>87.89</v>
+        <v>28.25</v>
       </c>
       <c r="AA23" s="1">
-        <v>88.54</v>
+        <v>54.02</v>
       </c>
       <c r="AB23" s="1">
-        <v>9.6</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="AC23" s="1">
-        <v>7.9</v>
+        <v>12.3</v>
       </c>
       <c r="AD23" s="1">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="AE23" s="1">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="AF23" s="1">
-        <v>5.9</v>
+        <v>12.7</v>
       </c>
       <c r="AG23" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AH23" s="1">
-        <v>62.71</v>
+        <v>35.549999999999997</v>
       </c>
       <c r="AI23" s="1">
-        <v>34.79</v>
+        <v>68.77</v>
       </c>
       <c r="AJ23" s="1">
-        <v>0.51</v>
+        <v>0.32</v>
       </c>
       <c r="AK23" s="1">
-        <v>0.7</v>
+        <v>0.35</v>
       </c>
       <c r="AL23" s="1">
-        <v>8.8000000000000007</v>
+        <v>23.8</v>
       </c>
       <c r="AM23" s="1">
-        <v>12.2</v>
-      </c>
-      <c r="AN23" s="1">
-        <v>28.1</v>
-      </c>
+        <v>14.8</v>
+      </c>
+      <c r="AN23" s="1"/>
       <c r="AO23" s="1">
-        <v>59.4</v>
+        <v>85</v>
       </c>
       <c r="AP23" s="1">
-        <v>0.72</v>
+        <v>0.35</v>
       </c>
       <c r="AQ23" s="1">
-        <v>0.77</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="B24" s="1">
-        <v>29.7</v>
+        <v>51.4</v>
       </c>
       <c r="C24" s="1">
-        <v>52.6</v>
+        <v>71.7</v>
       </c>
       <c r="D24" s="1">
-        <v>15.7</v>
+        <v>49.6</v>
       </c>
       <c r="E24" s="1">
-        <v>30.1</v>
+        <v>65.5</v>
       </c>
       <c r="F24" s="1">
-        <v>14</v>
+        <v>1.8</v>
       </c>
       <c r="G24" s="1">
-        <v>22.5</v>
+        <v>6.2</v>
       </c>
       <c r="H24" s="1">
-        <v>10.7</v>
+        <v>42.2</v>
       </c>
       <c r="I24" s="1">
-        <v>20.7</v>
+        <v>51.9</v>
       </c>
       <c r="J24" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K24" s="1">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="L24" s="1">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="M24" s="1">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N24" s="1">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="O24" s="1">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="P24" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="Q24" s="1">
-        <v>4.0999999999999996</v>
+        <v>8.1</v>
       </c>
       <c r="R24" s="1">
         <v>0.1</v>
       </c>
       <c r="S24" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="T24" s="1">
         <v>0.1</v>
       </c>
       <c r="U24" s="1">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="V24" s="1">
-        <v>48.16</v>
+        <v>80.39</v>
       </c>
       <c r="W24" s="1">
-        <v>70.989999999999995</v>
+        <v>89.48</v>
       </c>
       <c r="X24" s="1">
-        <v>71.81</v>
+        <v>86.97</v>
       </c>
       <c r="Y24" s="1">
-        <v>82.8</v>
+        <v>93.26</v>
       </c>
       <c r="Z24" s="1">
-        <v>28.25</v>
+        <v>54.76</v>
       </c>
       <c r="AA24" s="1">
-        <v>54.02</v>
+        <v>76.790000000000006</v>
       </c>
       <c r="AB24" s="1">
-        <v>16.899999999999999</v>
+        <v>12.1</v>
       </c>
       <c r="AC24" s="1">
-        <v>12.3</v>
+        <v>7.7</v>
       </c>
       <c r="AD24" s="1">
-        <v>4.2</v>
+        <v>6.4</v>
       </c>
       <c r="AE24" s="1">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="AF24" s="1">
-        <v>12.7</v>
+        <v>5.7</v>
       </c>
       <c r="AG24" s="1">
-        <v>8</v>
+        <v>3.9</v>
       </c>
       <c r="AH24" s="1">
-        <v>35.549999999999997</v>
+        <v>64.430000000000007</v>
       </c>
       <c r="AI24" s="1">
-        <v>68.77</v>
+        <v>79.239999999999995</v>
       </c>
       <c r="AJ24" s="1">
-        <v>0.32</v>
+        <v>0.17</v>
       </c>
       <c r="AK24" s="1">
-        <v>0.35</v>
+        <v>0.23</v>
       </c>
       <c r="AL24" s="1">
-        <v>23.8</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="AM24" s="1">
-        <v>14.8</v>
-      </c>
-      <c r="AN24" s="1"/>
+        <v>28.2</v>
+      </c>
+      <c r="AN24" s="1">
+        <v>39.299999999999997</v>
+      </c>
       <c r="AO24" s="1">
-        <v>85</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="AP24" s="1">
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
       <c r="AQ24" s="1">
-        <v>0.42</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="B25" s="1">
-        <v>51.4</v>
+        <v>64.8</v>
       </c>
       <c r="C25" s="1">
-        <v>71.7</v>
+        <v>66.2</v>
       </c>
       <c r="D25" s="1">
-        <v>49.6</v>
+        <v>62.6</v>
       </c>
       <c r="E25" s="1">
-        <v>65.5</v>
+        <v>63.8</v>
       </c>
       <c r="F25" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G25" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="H25" s="1">
+        <v>50.7</v>
+      </c>
+      <c r="I25" s="1">
+        <v>49.1</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="L25" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="M25" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="N25" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="O25" s="1">
         <v>1.8</v>
       </c>
-      <c r="G25" s="1">
-        <v>6.2</v>
-      </c>
-      <c r="H25" s="1">
-        <v>42.2</v>
-      </c>
-      <c r="I25" s="1">
-        <v>51.9</v>
-      </c>
-      <c r="J25" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="K25" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="L25" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="M25" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N25" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="O25" s="1">
-        <v>1.9</v>
-      </c>
       <c r="P25" s="1">
-        <v>4.9000000000000004</v>
+        <v>7.1</v>
       </c>
       <c r="Q25" s="1">
-        <v>8.1</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="S25" s="1">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="T25" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="U25" s="1">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="V25" s="1">
-        <v>80.39</v>
+        <v>86.58</v>
       </c>
       <c r="W25" s="1">
-        <v>89.48</v>
+        <v>86.92</v>
       </c>
       <c r="X25" s="1">
-        <v>86.97</v>
+        <v>90.44</v>
       </c>
       <c r="Y25" s="1">
-        <v>93.26</v>
+        <v>89.67</v>
       </c>
       <c r="Z25" s="1">
-        <v>54.76</v>
+        <v>72.78</v>
       </c>
       <c r="AA25" s="1">
-        <v>76.790000000000006</v>
+        <v>78.569999999999993</v>
       </c>
       <c r="AB25" s="1">
-        <v>12.1</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="AC25" s="1">
-        <v>7.7</v>
+        <v>9.6</v>
       </c>
       <c r="AD25" s="1">
-        <v>6.4</v>
+        <v>5.4</v>
       </c>
       <c r="AE25" s="1">
-        <v>3.8</v>
+        <v>5.7</v>
       </c>
       <c r="AF25" s="1">
-        <v>5.7</v>
+        <v>4.3</v>
       </c>
       <c r="AG25" s="1">
         <v>3.9</v>
       </c>
       <c r="AH25" s="1">
-        <v>64.430000000000007</v>
+        <v>79.47</v>
       </c>
       <c r="AI25" s="1">
-        <v>79.239999999999995</v>
+        <v>76.959999999999994</v>
       </c>
       <c r="AJ25" s="1">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="AK25" s="1">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="AL25" s="1">
-        <v>20.399999999999999</v>
+        <v>18.5</v>
       </c>
       <c r="AM25" s="1">
-        <v>28.2</v>
+        <v>21.9</v>
       </c>
       <c r="AN25" s="1">
-        <v>39.299999999999997</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="AO25" s="1">
-        <v>69.900000000000006</v>
+        <v>52.1</v>
       </c>
       <c r="AP25" s="1">
-        <v>0.44</v>
+        <v>0.52</v>
       </c>
       <c r="AQ25" s="1">
-        <v>0.52</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="B26" s="1">
-        <v>64.8</v>
+        <v>23.6</v>
       </c>
       <c r="C26" s="1">
-        <v>66.2</v>
+        <v>61.3</v>
       </c>
       <c r="D26" s="1">
-        <v>62.6</v>
+        <v>12.7</v>
       </c>
       <c r="E26" s="1">
-        <v>63.8</v>
+        <v>18.2</v>
       </c>
       <c r="F26" s="1">
-        <v>2.2000000000000002</v>
+        <v>10.9</v>
       </c>
       <c r="G26" s="1">
-        <v>2.4</v>
+        <v>43.1</v>
       </c>
       <c r="H26" s="1">
-        <v>50.7</v>
+        <v>3.1</v>
       </c>
       <c r="I26" s="1">
-        <v>49.1</v>
+        <v>3.7</v>
       </c>
       <c r="J26" s="1">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="K26" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="L26" s="1">
-        <v>1.6</v>
+        <v>3.7</v>
       </c>
       <c r="M26" s="1">
-        <v>1.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="N26" s="1">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="O26" s="1">
-        <v>1.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="P26" s="1">
-        <v>7.1</v>
+        <v>1.3</v>
       </c>
       <c r="Q26" s="1">
-        <v>10.199999999999999</v>
+        <v>4.8</v>
       </c>
       <c r="R26" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="S26" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="T26" s="1">
         <v>0.2</v>
       </c>
       <c r="U26" s="1">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V26" s="1">
-        <v>86.58</v>
+        <v>29.67</v>
       </c>
       <c r="W26" s="1">
-        <v>86.92</v>
+        <v>59.87</v>
       </c>
       <c r="X26" s="1">
-        <v>90.44</v>
+        <v>15.53</v>
       </c>
       <c r="Y26" s="1">
-        <v>89.67</v>
+        <v>33.04</v>
       </c>
       <c r="Z26" s="1">
-        <v>72.78</v>
+        <v>42.79</v>
       </c>
       <c r="AA26" s="1">
-        <v>78.569999999999993</v>
+        <v>75.52</v>
       </c>
       <c r="AB26" s="1">
-        <v>9.6999999999999993</v>
+        <v>30.1</v>
       </c>
       <c r="AC26" s="1">
-        <v>9.6</v>
+        <v>12.2</v>
       </c>
       <c r="AD26" s="1">
-        <v>5.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="AE26" s="1">
-        <v>5.7</v>
+        <v>7.5</v>
       </c>
       <c r="AF26" s="1">
-        <v>4.3</v>
+        <v>12.7</v>
       </c>
       <c r="AG26" s="1">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="AH26" s="1">
-        <v>79.47</v>
+        <v>23.08</v>
       </c>
       <c r="AI26" s="1">
-        <v>76.959999999999994</v>
+        <v>26.92</v>
       </c>
       <c r="AJ26" s="1">
-        <v>0.22</v>
+        <v>0.62</v>
       </c>
       <c r="AK26" s="1">
-        <v>0.25</v>
+        <v>0.66</v>
       </c>
       <c r="AL26" s="1">
-        <v>18.5</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="AM26" s="1">
-        <v>21.9</v>
+        <v>6</v>
       </c>
       <c r="AN26" s="1">
-        <v>36.299999999999997</v>
+        <v>46.7</v>
       </c>
       <c r="AO26" s="1">
-        <v>52.1</v>
+        <v>45.4</v>
       </c>
       <c r="AP26" s="1">
-        <v>0.52</v>
+        <v>0.32</v>
       </c>
       <c r="AQ26" s="1">
-        <v>0.56000000000000005</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="B27" s="1">
-        <v>23.6</v>
+        <v>24.3</v>
       </c>
       <c r="C27" s="1">
-        <v>61.3</v>
+        <v>27.4</v>
       </c>
       <c r="D27" s="1">
-        <v>12.7</v>
+        <v>21.9</v>
       </c>
       <c r="E27" s="1">
-        <v>18.2</v>
+        <v>22.5</v>
       </c>
       <c r="F27" s="1">
-        <v>10.9</v>
+        <v>2.4</v>
       </c>
       <c r="G27" s="1">
-        <v>43.1</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H27" s="1">
-        <v>3.1</v>
+        <v>6.2</v>
       </c>
       <c r="I27" s="1">
-        <v>3.7</v>
+        <v>5.6</v>
       </c>
       <c r="J27" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K27" s="1">
         <v>0</v>
       </c>
       <c r="L27" s="1">
-        <v>3.7</v>
+        <v>2.1</v>
       </c>
       <c r="M27" s="1">
-        <v>4.9000000000000004</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="N27" s="1">
-        <v>4.2</v>
+        <v>11.7</v>
       </c>
       <c r="O27" s="1">
-        <v>4.4000000000000004</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="P27" s="1">
         <v>1.3</v>
       </c>
       <c r="Q27" s="1">
-        <v>4.8</v>
+        <v>2.7</v>
       </c>
       <c r="R27" s="1">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="S27" s="1">
-        <v>0.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="T27" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="U27" s="1">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="V27" s="1">
-        <v>29.67</v>
+        <v>50.81</v>
       </c>
       <c r="W27" s="1">
-        <v>59.87</v>
+        <v>45.55</v>
       </c>
       <c r="X27" s="1">
-        <v>15.53</v>
+        <v>51.24</v>
       </c>
       <c r="Y27" s="1">
-        <v>33.04</v>
+        <v>39.44</v>
       </c>
       <c r="Z27" s="1">
-        <v>42.79</v>
+        <v>50.65</v>
       </c>
       <c r="AA27" s="1">
-        <v>75.52</v>
+        <v>48.01</v>
       </c>
       <c r="AB27" s="1">
-        <v>30.1</v>
+        <v>21.2</v>
       </c>
       <c r="AC27" s="1">
-        <v>12.2</v>
+        <v>26.9</v>
       </c>
       <c r="AD27" s="1">
-        <v>17.399999999999999</v>
+        <v>5.9</v>
       </c>
       <c r="AE27" s="1">
-        <v>7.5</v>
+        <v>8.6</v>
       </c>
       <c r="AF27" s="1">
-        <v>12.7</v>
+        <v>15.3</v>
       </c>
       <c r="AG27" s="1">
-        <v>4.7</v>
+        <v>18.3</v>
       </c>
       <c r="AH27" s="1">
-        <v>23.08</v>
+        <v>52</v>
       </c>
       <c r="AI27" s="1">
-        <v>26.92</v>
+        <v>36.89</v>
       </c>
       <c r="AJ27" s="1">
-        <v>0.62</v>
+        <v>0.48</v>
       </c>
       <c r="AK27" s="1">
-        <v>0.66</v>
+        <v>0.64</v>
       </c>
       <c r="AL27" s="1">
-        <v>8.6999999999999993</v>
+        <v>24.2</v>
       </c>
       <c r="AM27" s="1">
-        <v>6</v>
+        <v>27.4</v>
       </c>
       <c r="AN27" s="1">
-        <v>46.7</v>
+        <v>61.3</v>
       </c>
       <c r="AO27" s="1">
-        <v>45.4</v>
+        <v>67.2</v>
       </c>
       <c r="AP27" s="1">
-        <v>0.32</v>
+        <v>0.49</v>
       </c>
       <c r="AQ27" s="1">
-        <v>0.38</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="B28" s="1">
-        <v>24.3</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="C28" s="1">
-        <v>27.4</v>
+        <v>31.2</v>
       </c>
       <c r="D28" s="1">
-        <v>21.9</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="E28" s="1">
-        <v>22.5</v>
+        <v>30.8</v>
       </c>
       <c r="F28" s="1">
-        <v>2.4</v>
+        <v>0.1</v>
       </c>
       <c r="G28" s="1">
-        <v>4.9000000000000004</v>
+        <v>0.4</v>
       </c>
       <c r="H28" s="1">
-        <v>6.2</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="I28" s="1">
-        <v>5.6</v>
+        <v>13</v>
       </c>
       <c r="J28" s="1">
         <v>0</v>
@@ -4197,129 +4063,129 @@
         <v>0</v>
       </c>
       <c r="L28" s="1">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="M28" s="1">
-        <v>4.4000000000000004</v>
+        <v>2.8</v>
       </c>
       <c r="N28" s="1">
-        <v>11.7</v>
+        <v>13.2</v>
       </c>
       <c r="O28" s="1">
-        <v>8.3000000000000007</v>
+        <v>12.9</v>
       </c>
       <c r="P28" s="1">
         <v>1.3</v>
       </c>
       <c r="Q28" s="1">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="R28" s="1">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="S28" s="1">
-        <v>1.1000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="T28" s="1">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="U28" s="1">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="V28" s="1">
-        <v>50.81</v>
+        <v>63.77</v>
       </c>
       <c r="W28" s="1">
-        <v>45.55</v>
+        <v>61.97</v>
       </c>
       <c r="X28" s="1">
-        <v>51.24</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="Y28" s="1">
-        <v>39.44</v>
+        <v>68.06</v>
       </c>
       <c r="Z28" s="1">
-        <v>50.65</v>
+        <v>58.94</v>
       </c>
       <c r="AA28" s="1">
-        <v>48.01</v>
+        <v>58.17</v>
       </c>
       <c r="AB28" s="1">
-        <v>21.2</v>
+        <v>20</v>
       </c>
       <c r="AC28" s="1">
-        <v>26.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="AD28" s="1">
-        <v>5.9</v>
+        <v>7.6</v>
       </c>
       <c r="AE28" s="1">
-        <v>8.6</v>
+        <v>6.1</v>
       </c>
       <c r="AF28" s="1">
-        <v>15.3</v>
+        <v>12.4</v>
       </c>
       <c r="AG28" s="1">
-        <v>18.3</v>
+        <v>12.8</v>
       </c>
       <c r="AH28" s="1">
-        <v>52</v>
+        <v>56.49</v>
       </c>
       <c r="AI28" s="1">
-        <v>36.89</v>
+        <v>42.21</v>
       </c>
       <c r="AJ28" s="1">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="AK28" s="1">
-        <v>0.64</v>
+        <v>0.49</v>
       </c>
       <c r="AL28" s="1">
-        <v>24.2</v>
+        <v>14.2</v>
       </c>
       <c r="AM28" s="1">
-        <v>27.4</v>
+        <v>14.5</v>
       </c>
       <c r="AN28" s="1">
-        <v>61.3</v>
+        <v>52.8</v>
       </c>
       <c r="AO28" s="1">
-        <v>67.2</v>
+        <v>58.4</v>
       </c>
       <c r="AP28" s="1">
-        <v>0.49</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="AQ28" s="1">
-        <v>0.48</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="B29" s="1">
-        <v>35.299999999999997</v>
+        <v>26.5</v>
       </c>
       <c r="C29" s="1">
-        <v>31.2</v>
+        <v>57.4</v>
       </c>
       <c r="D29" s="1">
-        <v>35.200000000000003</v>
+        <v>21.3</v>
       </c>
       <c r="E29" s="1">
-        <v>30.8</v>
+        <v>45.3</v>
       </c>
       <c r="F29" s="1">
-        <v>0.1</v>
+        <v>5.2</v>
       </c>
       <c r="G29" s="1">
-        <v>0.4</v>
+        <v>12.1</v>
       </c>
       <c r="H29" s="1">
-        <v>17.399999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="I29" s="1">
-        <v>13</v>
+        <v>14.4</v>
       </c>
       <c r="J29" s="1">
         <v>0</v>
@@ -4328,1676 +4194,1545 @@
         <v>0</v>
       </c>
       <c r="L29" s="1">
-        <v>3.4</v>
+        <v>6.7</v>
       </c>
       <c r="M29" s="1">
-        <v>2.8</v>
+        <v>19.8</v>
       </c>
       <c r="N29" s="1">
-        <v>13.2</v>
+        <v>4</v>
       </c>
       <c r="O29" s="1">
-        <v>12.9</v>
+        <v>6.4</v>
       </c>
       <c r="P29" s="1">
         <v>1.3</v>
       </c>
       <c r="Q29" s="1">
-        <v>1.9</v>
+        <v>3.3</v>
       </c>
       <c r="R29" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S29" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="T29" s="1">
         <v>0.1</v>
       </c>
-      <c r="T29" s="1">
-        <v>-0.1</v>
-      </c>
       <c r="U29" s="1">
-        <v>0.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="V29" s="1">
-        <v>63.77</v>
+        <v>48.85</v>
       </c>
       <c r="W29" s="1">
-        <v>61.97</v>
+        <v>83.27</v>
       </c>
       <c r="X29" s="1">
-        <v>69.599999999999994</v>
+        <v>45.27</v>
       </c>
       <c r="Y29" s="1">
-        <v>68.06</v>
+        <v>75.790000000000006</v>
       </c>
       <c r="Z29" s="1">
-        <v>58.94</v>
+        <v>51.91</v>
       </c>
       <c r="AA29" s="1">
-        <v>58.17</v>
+        <v>87.29</v>
       </c>
       <c r="AB29" s="1">
-        <v>20</v>
+        <v>22.3</v>
       </c>
       <c r="AC29" s="1">
-        <v>18.899999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="AD29" s="1">
-        <v>7.6</v>
+        <v>11</v>
       </c>
       <c r="AE29" s="1">
-        <v>6.1</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AF29" s="1">
-        <v>12.4</v>
+        <v>11.3</v>
       </c>
       <c r="AG29" s="1">
-        <v>12.8</v>
+        <v>4.5</v>
       </c>
       <c r="AH29" s="1">
-        <v>56.49</v>
+        <v>20.09</v>
       </c>
       <c r="AI29" s="1">
-        <v>42.21</v>
+        <v>43.71</v>
       </c>
       <c r="AJ29" s="1">
-        <v>0.46</v>
+        <v>0.54</v>
       </c>
       <c r="AK29" s="1">
-        <v>0.49</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AL29" s="1">
-        <v>14.2</v>
+        <v>6.4</v>
       </c>
       <c r="AM29" s="1">
-        <v>14.5</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="AN29" s="1">
-        <v>52.8</v>
+        <v>32</v>
       </c>
       <c r="AO29" s="1">
-        <v>58.4</v>
+        <v>60.2</v>
       </c>
       <c r="AP29" s="1">
-        <v>0.56999999999999995</v>
+        <v>0.47</v>
       </c>
       <c r="AQ29" s="1">
-        <v>0.57999999999999996</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="B30" s="1">
-        <v>26.5</v>
+        <v>57.3</v>
       </c>
       <c r="C30" s="1">
-        <v>57.4</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="D30" s="1">
-        <v>21.3</v>
+        <v>45.4</v>
       </c>
       <c r="E30" s="1">
-        <v>45.3</v>
+        <v>48.8</v>
       </c>
       <c r="F30" s="1">
-        <v>5.2</v>
+        <v>11.9</v>
       </c>
       <c r="G30" s="1">
-        <v>12.1</v>
+        <v>25.3</v>
       </c>
       <c r="H30" s="1">
-        <v>9.1</v>
+        <v>28.2</v>
       </c>
       <c r="I30" s="1">
-        <v>14.4</v>
+        <v>28</v>
       </c>
       <c r="J30" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K30" s="1">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L30" s="1">
-        <v>6.7</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M30" s="1">
-        <v>19.8</v>
+        <v>2.6</v>
       </c>
       <c r="N30" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="O30" s="1">
-        <v>6.4</v>
+        <v>10.8</v>
       </c>
       <c r="P30" s="1">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q30" s="1">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="R30" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="S30" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="T30" s="1">
         <v>0.3</v>
       </c>
-      <c r="T30" s="1">
-        <v>0.1</v>
-      </c>
       <c r="U30" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="V30" s="1">
-        <v>48.85</v>
+        <v>76.95</v>
       </c>
       <c r="W30" s="1">
-        <v>83.27</v>
+        <v>87.14</v>
       </c>
       <c r="X30" s="1">
-        <v>45.27</v>
+        <v>76.14</v>
       </c>
       <c r="Y30" s="1">
-        <v>75.790000000000006</v>
+        <v>85.76</v>
       </c>
       <c r="Z30" s="1">
-        <v>51.91</v>
+        <v>78.34</v>
       </c>
       <c r="AA30" s="1">
-        <v>87.29</v>
+        <v>89.13</v>
       </c>
       <c r="AB30" s="1">
-        <v>22.3</v>
+        <v>13.6</v>
       </c>
       <c r="AC30" s="1">
-        <v>9.1</v>
+        <v>7.2</v>
       </c>
       <c r="AD30" s="1">
-        <v>11</v>
+        <v>8.9</v>
       </c>
       <c r="AE30" s="1">
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="AF30" s="1">
-        <v>11.3</v>
+        <v>4.7</v>
       </c>
       <c r="AG30" s="1">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="AH30" s="1">
-        <v>20.09</v>
+        <v>57.79</v>
       </c>
       <c r="AI30" s="1">
-        <v>43.71</v>
+        <v>57.38</v>
       </c>
       <c r="AJ30" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="AK30" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="AL30" s="1">
+        <v>23</v>
+      </c>
+      <c r="AM30" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="AN30" s="1">
+        <v>61.6</v>
+      </c>
+      <c r="AO30" s="1">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="AP30" s="1">
         <v>0.54</v>
       </c>
-      <c r="AK30" s="1">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="AL30" s="1">
-        <v>6.4</v>
-      </c>
-      <c r="AM30" s="1">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="AN30" s="1">
-        <v>32</v>
-      </c>
-      <c r="AO30" s="1">
-        <v>60.2</v>
-      </c>
-      <c r="AP30" s="1">
-        <v>0.47</v>
-      </c>
       <c r="AQ30" s="1">
-        <v>0.65</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="B31" s="1">
-        <v>57.3</v>
+        <v>61.9</v>
       </c>
       <c r="C31" s="1">
-        <v>74.099999999999994</v>
+        <v>66</v>
       </c>
       <c r="D31" s="1">
-        <v>45.4</v>
+        <v>61.2</v>
       </c>
       <c r="E31" s="1">
-        <v>48.8</v>
+        <v>62.1</v>
       </c>
       <c r="F31" s="1">
-        <v>11.9</v>
+        <v>0.7</v>
       </c>
       <c r="G31" s="1">
-        <v>25.3</v>
+        <v>3.9</v>
       </c>
       <c r="H31" s="1">
-        <v>28.2</v>
+        <v>57.4</v>
       </c>
       <c r="I31" s="1">
-        <v>28</v>
+        <v>53.8</v>
       </c>
       <c r="J31" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K31" s="1">
         <v>0.3</v>
       </c>
       <c r="L31" s="1">
-        <v>1.1000000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="M31" s="1">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="N31" s="1">
-        <v>12</v>
+        <v>0.4</v>
       </c>
       <c r="O31" s="1">
-        <v>10.8</v>
+        <v>0.5</v>
       </c>
       <c r="P31" s="1">
-        <v>3.4</v>
+        <v>0.8</v>
       </c>
       <c r="Q31" s="1">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="R31" s="1">
+        <v>0</v>
+      </c>
+      <c r="S31" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="T31" s="1">
+        <v>0</v>
+      </c>
+      <c r="U31" s="1">
         <v>0.2</v>
       </c>
-      <c r="S31" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="T31" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="U31" s="1">
-        <v>1.4</v>
-      </c>
       <c r="V31" s="1">
-        <v>76.95</v>
+        <v>88.06</v>
       </c>
       <c r="W31" s="1">
-        <v>87.14</v>
+        <v>85.54</v>
       </c>
       <c r="X31" s="1">
-        <v>76.14</v>
+        <v>94.25</v>
       </c>
       <c r="Y31" s="1">
-        <v>85.76</v>
+        <v>88.11</v>
       </c>
       <c r="Z31" s="1">
-        <v>78.34</v>
+        <v>44.19</v>
       </c>
       <c r="AA31" s="1">
-        <v>89.13</v>
+        <v>71.430000000000007</v>
       </c>
       <c r="AB31" s="1">
-        <v>13.6</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="AC31" s="1">
-        <v>7.2</v>
+        <v>10.5</v>
       </c>
       <c r="AD31" s="1">
-        <v>8.9</v>
+        <v>3.5</v>
       </c>
       <c r="AE31" s="1">
-        <v>4.7</v>
+        <v>7.3</v>
       </c>
       <c r="AF31" s="1">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AG31" s="1">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="AH31" s="1">
-        <v>57.79</v>
+        <v>92.43</v>
       </c>
       <c r="AI31" s="1">
-        <v>57.38</v>
+        <v>86.63</v>
       </c>
       <c r="AJ31" s="1">
-        <v>0.39</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AK31" s="1">
-        <v>0.46</v>
+        <v>0.15</v>
       </c>
       <c r="AL31" s="1">
-        <v>23</v>
+        <v>35.9</v>
       </c>
       <c r="AM31" s="1">
-        <v>25.5</v>
+        <v>25.7</v>
       </c>
       <c r="AN31" s="1">
-        <v>61.6</v>
+        <v>70.5</v>
       </c>
       <c r="AO31" s="1">
-        <v>73.099999999999994</v>
+        <v>63</v>
       </c>
       <c r="AP31" s="1">
-        <v>0.54</v>
+        <v>0.35</v>
       </c>
       <c r="AQ31" s="1">
-        <v>0.56000000000000005</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="B32" s="1">
-        <v>61.9</v>
+        <v>75.8</v>
       </c>
       <c r="C32" s="1">
-        <v>66</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="D32" s="1">
-        <v>61.2</v>
+        <v>66.3</v>
       </c>
       <c r="E32" s="1">
-        <v>62.1</v>
+        <v>50.5</v>
       </c>
       <c r="F32" s="1">
-        <v>0.7</v>
+        <v>9.5</v>
       </c>
       <c r="G32" s="1">
-        <v>3.9</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="H32" s="1">
-        <v>57.4</v>
+        <v>37.5</v>
       </c>
       <c r="I32" s="1">
-        <v>53.8</v>
+        <v>22.8</v>
       </c>
       <c r="J32" s="1">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="K32" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L32" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="M32" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="N32" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="O32" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="P32" s="1">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>22.2</v>
+      </c>
+      <c r="R32" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="S32" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="T32" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="U32" s="1">
         <v>0.3</v>
       </c>
-      <c r="L32" s="1">
-        <v>2.6</v>
-      </c>
-      <c r="M32" s="1">
-        <v>1.9</v>
-      </c>
-      <c r="N32" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="O32" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="P32" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="Q32" s="1">
-        <v>5</v>
-      </c>
-      <c r="R32" s="1">
-        <v>0</v>
-      </c>
-      <c r="S32" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="T32" s="1">
-        <v>0</v>
-      </c>
-      <c r="U32" s="1">
-        <v>0.2</v>
-      </c>
       <c r="V32" s="1">
-        <v>88.06</v>
+        <v>91.45</v>
       </c>
       <c r="W32" s="1">
-        <v>85.54</v>
+        <v>83.61</v>
       </c>
       <c r="X32" s="1">
-        <v>94.25</v>
+        <v>90.93</v>
       </c>
       <c r="Y32" s="1">
-        <v>88.11</v>
+        <v>78.98</v>
       </c>
       <c r="Z32" s="1">
-        <v>44.19</v>
+        <v>92.16</v>
       </c>
       <c r="AA32" s="1">
-        <v>71.430000000000007</v>
+        <v>88.03</v>
       </c>
       <c r="AB32" s="1">
-        <v>8.3000000000000007</v>
+        <v>6.2</v>
       </c>
       <c r="AC32" s="1">
-        <v>10.5</v>
+        <v>9.9</v>
       </c>
       <c r="AD32" s="1">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="AE32" s="1">
-        <v>7.3</v>
+        <v>6.2</v>
       </c>
       <c r="AF32" s="1">
-        <v>4.8</v>
+        <v>2.4</v>
       </c>
       <c r="AG32" s="1">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="AH32" s="1">
-        <v>92.43</v>
+        <v>74.260000000000005</v>
       </c>
       <c r="AI32" s="1">
-        <v>86.63</v>
+        <v>45.15</v>
       </c>
       <c r="AJ32" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.44</v>
       </c>
       <c r="AK32" s="1">
-        <v>0.15</v>
+        <v>0.45</v>
       </c>
       <c r="AL32" s="1">
-        <v>35.9</v>
+        <v>29.4</v>
       </c>
       <c r="AM32" s="1">
-        <v>25.7</v>
+        <v>21.7</v>
       </c>
       <c r="AN32" s="1">
-        <v>70.5</v>
+        <v>79.2</v>
       </c>
       <c r="AO32" s="1">
-        <v>63</v>
+        <v>78.2</v>
       </c>
       <c r="AP32" s="1">
-        <v>0.35</v>
+        <v>0.66</v>
       </c>
       <c r="AQ32" s="1">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="33" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="B33" s="1">
-        <v>75.8</v>
+        <v>59.7</v>
       </c>
       <c r="C33" s="1">
-        <v>66.599999999999994</v>
+        <v>72.3</v>
       </c>
       <c r="D33" s="1">
-        <v>66.3</v>
+        <v>53.5</v>
       </c>
       <c r="E33" s="1">
-        <v>50.5</v>
+        <v>62.1</v>
       </c>
       <c r="F33" s="1">
-        <v>9.5</v>
+        <v>6.2</v>
       </c>
       <c r="G33" s="1">
-        <v>16.100000000000001</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="H33" s="1">
-        <v>37.5</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="I33" s="1">
-        <v>22.8</v>
+        <v>42.4</v>
       </c>
       <c r="J33" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="L33" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="M33" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="N33" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="O33" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="P33" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>13.7</v>
+      </c>
+      <c r="R33" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="S33" s="1">
         <v>0.6</v>
       </c>
-      <c r="K33" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="L33" s="1">
-        <v>6.8</v>
-      </c>
-      <c r="M33" s="1">
-        <v>3.1</v>
-      </c>
-      <c r="N33" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="O33" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="P33" s="1">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="Q33" s="1">
-        <v>22.2</v>
-      </c>
-      <c r="R33" s="1">
+      <c r="T33" s="1">
         <v>0.1</v>
       </c>
-      <c r="S33" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="T33" s="1">
-        <v>-0.1</v>
-      </c>
       <c r="U33" s="1">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="V33" s="1">
-        <v>91.45</v>
+        <v>81.31</v>
       </c>
       <c r="W33" s="1">
-        <v>83.61</v>
+        <v>89.1</v>
       </c>
       <c r="X33" s="1">
-        <v>90.93</v>
+        <v>86.11</v>
       </c>
       <c r="Y33" s="1">
-        <v>78.98</v>
+        <v>91.63</v>
       </c>
       <c r="Z33" s="1">
-        <v>92.16</v>
+        <v>68.849999999999994</v>
       </c>
       <c r="AA33" s="1">
-        <v>88.03</v>
+        <v>83.98</v>
       </c>
       <c r="AB33" s="1">
-        <v>6.2</v>
+        <v>12.3</v>
       </c>
       <c r="AC33" s="1">
-        <v>9.9</v>
+        <v>7.6</v>
       </c>
       <c r="AD33" s="1">
-        <v>3.8</v>
+        <v>6.6</v>
       </c>
       <c r="AE33" s="1">
-        <v>6.2</v>
+        <v>3.9</v>
       </c>
       <c r="AF33" s="1">
-        <v>2.4</v>
+        <v>5.7</v>
       </c>
       <c r="AG33" s="1">
         <v>3.7</v>
       </c>
       <c r="AH33" s="1">
-        <v>74.260000000000005</v>
+        <v>65.540000000000006</v>
       </c>
       <c r="AI33" s="1">
-        <v>45.15</v>
+        <v>68.28</v>
       </c>
       <c r="AJ33" s="1">
-        <v>0.44</v>
+        <v>0.26</v>
       </c>
       <c r="AK33" s="1">
-        <v>0.45</v>
+        <v>0.34</v>
       </c>
       <c r="AL33" s="1">
-        <v>29.4</v>
+        <v>17.5</v>
       </c>
       <c r="AM33" s="1">
-        <v>21.7</v>
+        <v>24.1</v>
       </c>
       <c r="AN33" s="1">
-        <v>79.2</v>
+        <v>43.5</v>
       </c>
       <c r="AO33" s="1">
-        <v>78.2</v>
+        <v>61</v>
       </c>
       <c r="AP33" s="1">
-        <v>0.66</v>
+        <v>0.5</v>
       </c>
       <c r="AQ33" s="1">
-        <v>0.59</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="34" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="B34" s="1">
-        <v>59.7</v>
+        <v>46.7</v>
       </c>
       <c r="C34" s="1">
-        <v>72.3</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="D34" s="1">
-        <v>53.5</v>
+        <v>45.9</v>
       </c>
       <c r="E34" s="1">
-        <v>62.1</v>
+        <v>54.9</v>
       </c>
       <c r="F34" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G34" s="1">
+        <v>14.2</v>
+      </c>
+      <c r="H34" s="1">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="I34" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="J34" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="K34" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="L34" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="M34" s="1">
         <v>6.2</v>
       </c>
-      <c r="G34" s="1">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="H34" s="1">
-        <v>40.700000000000003</v>
-      </c>
-      <c r="I34" s="1">
-        <v>42.4</v>
-      </c>
-      <c r="J34" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="K34" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="L34" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="M34" s="1">
-        <v>1.4</v>
-      </c>
       <c r="N34" s="1">
-        <v>2.4</v>
+        <v>11.6</v>
       </c>
       <c r="O34" s="1">
-        <v>3.1</v>
+        <v>18.2</v>
       </c>
       <c r="P34" s="1">
-        <v>8.6999999999999993</v>
+        <v>5.2</v>
       </c>
       <c r="Q34" s="1">
-        <v>13.7</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="R34" s="1">
-        <v>0.2</v>
+        <v>1.9</v>
       </c>
       <c r="S34" s="1">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="T34" s="1">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
       <c r="U34" s="1">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="V34" s="1">
-        <v>81.31</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="W34" s="1">
-        <v>89.1</v>
+        <v>82.19</v>
       </c>
       <c r="X34" s="1">
-        <v>86.11</v>
+        <v>62.13</v>
       </c>
       <c r="Y34" s="1">
-        <v>91.63</v>
+        <v>69.83</v>
       </c>
       <c r="Z34" s="1">
-        <v>68.849999999999994</v>
+        <v>73.67</v>
       </c>
       <c r="AA34" s="1">
-        <v>83.98</v>
+        <v>88.76</v>
       </c>
       <c r="AB34" s="1">
-        <v>12.3</v>
+        <v>21.7</v>
       </c>
       <c r="AC34" s="1">
-        <v>7.6</v>
+        <v>11.9</v>
       </c>
       <c r="AD34" s="1">
-        <v>6.6</v>
+        <v>12.8</v>
       </c>
       <c r="AE34" s="1">
-        <v>3.9</v>
+        <v>7</v>
       </c>
       <c r="AF34" s="1">
-        <v>5.7</v>
+        <v>8.9</v>
       </c>
       <c r="AG34" s="1">
-        <v>3.7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AH34" s="1">
-        <v>65.540000000000006</v>
+        <v>32.06</v>
       </c>
       <c r="AI34" s="1">
-        <v>68.28</v>
+        <v>33.15</v>
       </c>
       <c r="AJ34" s="1">
-        <v>0.26</v>
+        <v>0.65</v>
       </c>
       <c r="AK34" s="1">
-        <v>0.34</v>
+        <v>0.69</v>
       </c>
       <c r="AL34" s="1">
-        <v>17.5</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="AM34" s="1">
-        <v>24.1</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="AN34" s="1">
-        <v>43.5</v>
+        <v>57.9</v>
       </c>
       <c r="AO34" s="1">
-        <v>61</v>
+        <v>60.8</v>
       </c>
       <c r="AP34" s="1">
-        <v>0.5</v>
+        <v>0.66</v>
       </c>
       <c r="AQ34" s="1">
-        <v>0.57999999999999996</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="B35" s="1">
-        <v>46.7</v>
+        <v>53.2</v>
       </c>
       <c r="C35" s="1">
-        <v>69.099999999999994</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="D35" s="1">
-        <v>45.9</v>
+        <v>52.6</v>
       </c>
       <c r="E35" s="1">
-        <v>54.9</v>
+        <v>65.5</v>
       </c>
       <c r="F35" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="G35" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="H35" s="1">
+        <v>49.4</v>
+      </c>
+      <c r="I35" s="1">
+        <v>57.8</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L35" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="M35" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="O35" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="P35" s="1">
         <v>0.8</v>
       </c>
-      <c r="G35" s="1">
-        <v>14.2</v>
-      </c>
-      <c r="H35" s="1">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="I35" s="1">
-        <v>14.5</v>
-      </c>
-      <c r="J35" s="1">
-        <v>3.4</v>
-      </c>
-      <c r="K35" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="L35" s="1">
-        <v>6.3</v>
-      </c>
-      <c r="M35" s="1">
-        <v>6.2</v>
-      </c>
-      <c r="N35" s="1">
-        <v>11.6</v>
-      </c>
-      <c r="O35" s="1">
-        <v>18.2</v>
-      </c>
-      <c r="P35" s="1">
-        <v>5.2</v>
-      </c>
       <c r="Q35" s="1">
-        <v>9.3000000000000007</v>
+        <v>1.8</v>
       </c>
       <c r="R35" s="1">
-        <v>1.9</v>
+        <v>0.1</v>
       </c>
       <c r="S35" s="1">
-        <v>3.5</v>
+        <v>0.2</v>
       </c>
       <c r="T35" s="1">
-        <v>-0.1</v>
+        <v>0.2</v>
       </c>
       <c r="U35" s="1">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="V35" s="1">
-        <v>67.900000000000006</v>
+        <v>83.89</v>
       </c>
       <c r="W35" s="1">
-        <v>82.19</v>
+        <v>89.73</v>
       </c>
       <c r="X35" s="1">
-        <v>62.13</v>
+        <v>90.31</v>
       </c>
       <c r="Y35" s="1">
-        <v>69.83</v>
+        <v>92.79</v>
       </c>
       <c r="Z35" s="1">
-        <v>73.67</v>
+        <v>40</v>
       </c>
       <c r="AA35" s="1">
-        <v>88.76</v>
+        <v>71.7</v>
       </c>
       <c r="AB35" s="1">
-        <v>21.7</v>
+        <v>10.1</v>
       </c>
       <c r="AC35" s="1">
-        <v>11.9</v>
+        <v>7.5</v>
       </c>
       <c r="AD35" s="1">
-        <v>12.8</v>
+        <v>5.3</v>
       </c>
       <c r="AE35" s="1">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="AF35" s="1">
-        <v>8.9</v>
+        <v>4.8</v>
       </c>
       <c r="AG35" s="1">
-        <v>4.9000000000000004</v>
+        <v>3</v>
       </c>
       <c r="AH35" s="1">
-        <v>32.06</v>
+        <v>75.42</v>
       </c>
       <c r="AI35" s="1">
-        <v>33.15</v>
+        <v>88.24</v>
       </c>
       <c r="AJ35" s="1">
-        <v>0.65</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AK35" s="1">
-        <v>0.69</v>
+        <v>0.13</v>
       </c>
       <c r="AL35" s="1">
-        <v>19.600000000000001</v>
+        <v>30.2</v>
       </c>
       <c r="AM35" s="1">
-        <v>18.899999999999999</v>
+        <v>28.5</v>
       </c>
       <c r="AN35" s="1">
-        <v>57.9</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="AO35" s="1">
-        <v>60.8</v>
+        <v>82.6</v>
       </c>
       <c r="AP35" s="1">
-        <v>0.66</v>
+        <v>0.33</v>
       </c>
       <c r="AQ35" s="1">
-        <v>0.68</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="36" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="B36" s="1">
-        <v>53.2</v>
+        <v>57.2</v>
       </c>
       <c r="C36" s="1">
-        <v>68.599999999999994</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="D36" s="1">
-        <v>52.6</v>
+        <v>57</v>
       </c>
       <c r="E36" s="1">
-        <v>65.5</v>
+        <v>66.7</v>
       </c>
       <c r="F36" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="H36" s="1">
+        <v>54.2</v>
+      </c>
+      <c r="I36" s="1">
+        <v>61.9</v>
+      </c>
+      <c r="J36" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="K36" s="1">
+        <v>2</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="O36" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="P36" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="R36" s="1">
+        <v>0</v>
+      </c>
+      <c r="S36" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="T36" s="1">
+        <v>0</v>
+      </c>
+      <c r="U36" s="1">
         <v>0.6</v>
       </c>
-      <c r="G36" s="1">
-        <v>3.1</v>
-      </c>
-      <c r="H36" s="1">
-        <v>49.4</v>
-      </c>
-      <c r="I36" s="1">
-        <v>57.8</v>
-      </c>
-      <c r="J36" s="1">
-        <v>0</v>
-      </c>
-      <c r="K36" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="L36" s="1">
-        <v>1.9</v>
-      </c>
-      <c r="M36" s="1">
-        <v>4.8</v>
-      </c>
-      <c r="N36" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="O36" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="P36" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="Q36" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="R36" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="S36" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="T36" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="U36" s="1">
-        <v>0.5</v>
-      </c>
       <c r="V36" s="1">
-        <v>83.89</v>
+        <v>88.51</v>
       </c>
       <c r="W36" s="1">
-        <v>89.73</v>
+        <v>91.24</v>
       </c>
       <c r="X36" s="1">
-        <v>90.31</v>
+        <v>93.94</v>
       </c>
       <c r="Y36" s="1">
-        <v>92.79</v>
+        <v>94.67</v>
       </c>
       <c r="Z36" s="1">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="AA36" s="1">
-        <v>71.7</v>
+        <v>50</v>
       </c>
       <c r="AB36" s="1">
-        <v>10.1</v>
+        <v>7.4</v>
       </c>
       <c r="AC36" s="1">
-        <v>7.5</v>
+        <v>6.4</v>
       </c>
       <c r="AD36" s="1">
-        <v>5.3</v>
+        <v>3.6</v>
       </c>
       <c r="AE36" s="1">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="AF36" s="1">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="AG36" s="1">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AH36" s="1">
-        <v>75.42</v>
+        <v>81.260000000000005</v>
       </c>
       <c r="AI36" s="1">
-        <v>88.24</v>
+        <v>92.8</v>
       </c>
       <c r="AJ36" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="AK36" s="1">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="AL36" s="1">
-        <v>30.2</v>
+        <v>9.6</v>
       </c>
       <c r="AM36" s="1">
-        <v>28.5</v>
+        <v>17</v>
       </c>
       <c r="AN36" s="1">
-        <v>76.599999999999994</v>
+        <v>25.1</v>
       </c>
       <c r="AO36" s="1">
-        <v>82.6</v>
+        <v>49.2</v>
       </c>
       <c r="AP36" s="1">
-        <v>0.33</v>
+        <v>0.27</v>
       </c>
       <c r="AQ36" s="1">
-        <v>0.45</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="37" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="B37" s="1">
-        <v>57.2</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="C37" s="1">
-        <v>68.099999999999994</v>
+        <v>71.2</v>
       </c>
       <c r="D37" s="1">
-        <v>57</v>
+        <v>42.8</v>
       </c>
       <c r="E37" s="1">
-        <v>66.7</v>
+        <v>49.1</v>
       </c>
       <c r="F37" s="1">
-        <v>0.2</v>
+        <v>21.3</v>
       </c>
       <c r="G37" s="1">
-        <v>1.4</v>
+        <v>22.1</v>
       </c>
       <c r="H37" s="1">
-        <v>54.2</v>
+        <v>13.9</v>
       </c>
       <c r="I37" s="1">
-        <v>61.9</v>
+        <v>10.5</v>
       </c>
       <c r="J37" s="1">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="K37" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L37" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="M37" s="1">
         <v>0.4</v>
       </c>
-      <c r="M37" s="1">
-        <v>0.5</v>
-      </c>
       <c r="N37" s="1">
+        <v>26.3</v>
+      </c>
+      <c r="O37" s="1">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="P37" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="R37" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="S37" s="1">
         <v>0.3</v>
-      </c>
-      <c r="O37" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="P37" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Q37" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="R37" s="1">
-        <v>0</v>
-      </c>
-      <c r="S37" s="1">
-        <v>0.1</v>
       </c>
       <c r="T37" s="1">
         <v>0</v>
       </c>
       <c r="U37" s="1">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="V37" s="1">
-        <v>88.51</v>
+        <v>80</v>
       </c>
       <c r="W37" s="1">
-        <v>91.24</v>
+        <v>85.69</v>
       </c>
       <c r="X37" s="1">
-        <v>93.94</v>
+        <v>67.8</v>
       </c>
       <c r="Y37" s="1">
-        <v>94.67</v>
+        <v>64.81</v>
       </c>
       <c r="Z37" s="1">
-        <v>24</v>
+        <v>87.58</v>
       </c>
       <c r="AA37" s="1">
-        <v>50</v>
+        <v>93.92</v>
       </c>
       <c r="AB37" s="1">
-        <v>7.4</v>
+        <v>10.7</v>
       </c>
       <c r="AC37" s="1">
-        <v>6.4</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AD37" s="1">
-        <v>3.6</v>
+        <v>6.6</v>
       </c>
       <c r="AE37" s="1">
-        <v>3.6</v>
+        <v>5.7</v>
       </c>
       <c r="AF37" s="1">
-        <v>3.8</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AG37" s="1">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="AH37" s="1">
-        <v>81.260000000000005</v>
+        <v>53.56</v>
       </c>
       <c r="AI37" s="1">
-        <v>92.8</v>
+        <v>66.8</v>
       </c>
       <c r="AJ37" s="1">
-        <v>0.06</v>
+        <v>0.37</v>
       </c>
       <c r="AK37" s="1">
-        <v>0.08</v>
+        <v>0.36</v>
       </c>
       <c r="AL37" s="1">
-        <v>9.6</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AM37" s="1">
-        <v>17</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AN37" s="1">
-        <v>25.1</v>
+        <v>39.5</v>
       </c>
       <c r="AO37" s="1">
-        <v>49.2</v>
+        <v>41.9</v>
       </c>
       <c r="AP37" s="1">
-        <v>0.27</v>
+        <v>0.51</v>
       </c>
       <c r="AQ37" s="1">
-        <v>0.36</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="38" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="B38" s="1">
-        <v>64.099999999999994</v>
+        <v>45.5</v>
       </c>
       <c r="C38" s="1">
-        <v>71.2</v>
+        <v>62.4</v>
       </c>
       <c r="D38" s="1">
-        <v>42.8</v>
+        <v>31.7</v>
       </c>
       <c r="E38" s="1">
-        <v>49.1</v>
+        <v>44.5</v>
       </c>
       <c r="F38" s="1">
-        <v>21.3</v>
+        <v>13.8</v>
       </c>
       <c r="G38" s="1">
-        <v>22.1</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="H38" s="1">
-        <v>13.9</v>
+        <v>17.3</v>
       </c>
       <c r="I38" s="1">
-        <v>10.5</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="J38" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K38" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L38" s="1">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="M38" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="N38" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="O38" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="P38" s="1">
+        <v>10.8</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="R38" s="1">
         <v>0.4</v>
       </c>
-      <c r="N38" s="1">
-        <v>26.3</v>
-      </c>
-      <c r="O38" s="1">
-        <v>32.799999999999997</v>
-      </c>
-      <c r="P38" s="1">
-        <v>1.9</v>
-      </c>
-      <c r="Q38" s="1">
-        <v>3.3</v>
-      </c>
-      <c r="R38" s="1">
-        <v>0.1</v>
-      </c>
       <c r="S38" s="1">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="T38" s="1">
         <v>0</v>
       </c>
       <c r="U38" s="1">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="V38" s="1">
-        <v>80</v>
+        <v>63.65</v>
       </c>
       <c r="W38" s="1">
-        <v>85.69</v>
+        <v>77.53</v>
       </c>
       <c r="X38" s="1">
-        <v>67.8</v>
+        <v>60.63</v>
       </c>
       <c r="Y38" s="1">
-        <v>64.81</v>
+        <v>67.73</v>
       </c>
       <c r="Z38" s="1">
-        <v>87.58</v>
+        <v>67.77</v>
       </c>
       <c r="AA38" s="1">
-        <v>93.92</v>
+        <v>85.14</v>
       </c>
       <c r="AB38" s="1">
-        <v>10.7</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="AC38" s="1">
-        <v>8.1999999999999993</v>
+        <v>12.9</v>
       </c>
       <c r="AD38" s="1">
-        <v>6.6</v>
+        <v>11.3</v>
       </c>
       <c r="AE38" s="1">
-        <v>5.7</v>
+        <v>8.1</v>
       </c>
       <c r="AF38" s="1">
-        <v>4.0999999999999996</v>
+        <v>6.8</v>
       </c>
       <c r="AG38" s="1">
-        <v>2.5</v>
+        <v>4.8</v>
       </c>
       <c r="AH38" s="1">
-        <v>53.56</v>
+        <v>38.880000000000003</v>
       </c>
       <c r="AI38" s="1">
-        <v>66.8</v>
+        <v>42.92</v>
       </c>
       <c r="AJ38" s="1">
-        <v>0.37</v>
+        <v>0.43</v>
       </c>
       <c r="AK38" s="1">
-        <v>0.36</v>
+        <v>0.52</v>
       </c>
       <c r="AL38" s="1">
-        <v>8.1999999999999993</v>
+        <v>12.8</v>
       </c>
       <c r="AM38" s="1">
-        <v>10.199999999999999</v>
+        <v>25.1</v>
       </c>
       <c r="AN38" s="1">
-        <v>39.5</v>
+        <v>47.5</v>
       </c>
       <c r="AO38" s="1">
-        <v>41.9</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="AP38" s="1">
-        <v>0.51</v>
+        <v>0.48</v>
       </c>
       <c r="AQ38" s="1">
-        <v>0.53</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="39" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="B39" s="1">
-        <v>45.5</v>
+        <v>53.4</v>
       </c>
       <c r="C39" s="1">
-        <v>62.4</v>
+        <v>70.8</v>
       </c>
       <c r="D39" s="1">
-        <v>31.7</v>
+        <v>49.3</v>
       </c>
       <c r="E39" s="1">
-        <v>44.5</v>
+        <v>57.8</v>
       </c>
       <c r="F39" s="1">
-        <v>13.8</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G39" s="1">
-        <v>17.899999999999999</v>
+        <v>13</v>
       </c>
       <c r="H39" s="1">
-        <v>17.3</v>
+        <v>27.4</v>
       </c>
       <c r="I39" s="1">
-        <v>16.899999999999999</v>
+        <v>26</v>
       </c>
       <c r="J39" s="1">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="K39" s="1">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="L39" s="1">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="M39" s="1">
         <v>1.5</v>
       </c>
       <c r="N39" s="1">
-        <v>1.9</v>
+        <v>3.2</v>
       </c>
       <c r="O39" s="1">
-        <v>4.4000000000000004</v>
+        <v>2.7</v>
       </c>
       <c r="P39" s="1">
-        <v>10.8</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="Q39" s="1">
-        <v>19.100000000000001</v>
+        <v>25.6</v>
       </c>
       <c r="R39" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="S39" s="1">
         <v>0.4</v>
       </c>
-      <c r="S39" s="1">
-        <v>1.2</v>
-      </c>
       <c r="T39" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="U39" s="1">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="V39" s="1">
-        <v>63.65</v>
+        <v>76.08</v>
       </c>
       <c r="W39" s="1">
-        <v>77.53</v>
+        <v>86.79</v>
       </c>
       <c r="X39" s="1">
-        <v>60.63</v>
+        <v>73.180000000000007</v>
       </c>
       <c r="Y39" s="1">
-        <v>67.73</v>
+        <v>82.66</v>
       </c>
       <c r="Z39" s="1">
-        <v>67.77</v>
+        <v>80.3</v>
       </c>
       <c r="AA39" s="1">
-        <v>85.14</v>
+        <v>90.67</v>
       </c>
       <c r="AB39" s="1">
-        <v>18.100000000000001</v>
+        <v>15.5</v>
       </c>
       <c r="AC39" s="1">
-        <v>12.9</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AD39" s="1">
-        <v>11.3</v>
+        <v>10.3</v>
       </c>
       <c r="AE39" s="1">
-        <v>8.1</v>
+        <v>5.6</v>
       </c>
       <c r="AF39" s="1">
-        <v>6.8</v>
+        <v>5.2</v>
       </c>
       <c r="AG39" s="1">
-        <v>4.8</v>
+        <v>3.2</v>
       </c>
       <c r="AH39" s="1">
-        <v>38.880000000000003</v>
+        <v>47.4</v>
       </c>
       <c r="AI39" s="1">
-        <v>42.92</v>
+        <v>44.98</v>
       </c>
       <c r="AJ39" s="1">
         <v>0.43</v>
       </c>
       <c r="AK39" s="1">
-        <v>0.52</v>
+        <v>0.45</v>
       </c>
       <c r="AL39" s="1">
-        <v>12.8</v>
+        <v>15.2</v>
       </c>
       <c r="AM39" s="1">
-        <v>25.1</v>
+        <v>20.2</v>
       </c>
       <c r="AN39" s="1">
-        <v>47.5</v>
+        <v>45.4</v>
       </c>
       <c r="AO39" s="1">
-        <v>70.599999999999994</v>
+        <v>60.7</v>
       </c>
       <c r="AP39" s="1">
-        <v>0.48</v>
+        <v>0.61</v>
       </c>
       <c r="AQ39" s="1">
-        <v>0.57999999999999996</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="40" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="B40" s="1">
-        <v>53.4</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="C40" s="1">
-        <v>70.8</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="D40" s="1">
-        <v>49.3</v>
+        <v>57</v>
       </c>
       <c r="E40" s="1">
-        <v>57.8</v>
+        <v>60.7</v>
       </c>
       <c r="F40" s="1">
-        <v>4.0999999999999996</v>
+        <v>13.9</v>
       </c>
       <c r="G40" s="1">
-        <v>13</v>
+        <v>13.7</v>
       </c>
       <c r="H40" s="1">
-        <v>27.4</v>
+        <v>29.3</v>
       </c>
       <c r="I40" s="1">
-        <v>26</v>
+        <v>29.4</v>
       </c>
       <c r="J40" s="1">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="K40" s="1">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="L40" s="1">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="M40" s="1">
-        <v>1.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N40" s="1">
-        <v>3.2</v>
+        <v>20</v>
       </c>
       <c r="O40" s="1">
-        <v>2.7</v>
+        <v>20.3</v>
       </c>
       <c r="P40" s="1">
-        <v>16.100000000000001</v>
+        <v>5.9</v>
       </c>
       <c r="Q40" s="1">
-        <v>25.6</v>
+        <v>7</v>
       </c>
       <c r="R40" s="1">
         <v>0.2</v>
       </c>
       <c r="S40" s="1">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="T40" s="1">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="U40" s="1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="V40" s="1">
-        <v>76.08</v>
+        <v>88.37</v>
       </c>
       <c r="W40" s="1">
-        <v>86.79</v>
+        <v>89.66</v>
       </c>
       <c r="X40" s="1">
-        <v>73.180000000000007</v>
+        <v>86.73</v>
       </c>
       <c r="Y40" s="1">
-        <v>82.66</v>
+        <v>88.06</v>
       </c>
       <c r="Z40" s="1">
-        <v>80.3</v>
+        <v>90.2</v>
       </c>
       <c r="AA40" s="1">
-        <v>90.67</v>
+        <v>91.23</v>
       </c>
       <c r="AB40" s="1">
-        <v>15.5</v>
+        <v>7.5</v>
       </c>
       <c r="AC40" s="1">
-        <v>8.8000000000000007</v>
+        <v>7</v>
       </c>
       <c r="AD40" s="1">
-        <v>10.3</v>
+        <v>4.5</v>
       </c>
       <c r="AE40" s="1">
-        <v>5.6</v>
+        <v>4</v>
       </c>
       <c r="AF40" s="1">
-        <v>5.2</v>
+        <v>3</v>
       </c>
       <c r="AG40" s="1">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="AH40" s="1">
-        <v>47.4</v>
+        <v>48.27</v>
       </c>
       <c r="AI40" s="1">
-        <v>44.98</v>
+        <v>48.43</v>
       </c>
       <c r="AJ40" s="1">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="AK40" s="1">
-        <v>0.45</v>
+        <v>0.49</v>
       </c>
       <c r="AL40" s="1">
-        <v>15.2</v>
+        <v>12.3</v>
       </c>
       <c r="AM40" s="1">
-        <v>20.2</v>
+        <v>17.5</v>
       </c>
       <c r="AN40" s="1">
-        <v>45.4</v>
+        <v>49.6</v>
       </c>
       <c r="AO40" s="1">
-        <v>60.7</v>
+        <v>53.6</v>
       </c>
       <c r="AP40" s="1">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
       <c r="AQ40" s="1">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B41" s="1">
-        <v>70.900000000000006</v>
-      </c>
-      <c r="C41" s="1">
-        <v>74.400000000000006</v>
-      </c>
-      <c r="D41" s="1">
-        <v>57</v>
-      </c>
-      <c r="E41" s="1">
-        <v>60.7</v>
-      </c>
-      <c r="F41" s="1">
-        <v>13.9</v>
-      </c>
-      <c r="G41" s="1">
-        <v>13.7</v>
-      </c>
-      <c r="H41" s="1">
-        <v>29.3</v>
-      </c>
-      <c r="I41" s="1">
-        <v>29.4</v>
-      </c>
-      <c r="J41" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="K41" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="L41" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="M41" s="1">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="N41" s="1">
-        <v>20</v>
-      </c>
-      <c r="O41" s="1">
-        <v>20.3</v>
-      </c>
-      <c r="P41" s="1">
-        <v>5.9</v>
-      </c>
-      <c r="Q41" s="1">
-        <v>7</v>
-      </c>
-      <c r="R41" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="S41" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="T41" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="U41" s="1">
-        <v>1</v>
-      </c>
-      <c r="V41" s="1">
-        <v>88.37</v>
-      </c>
-      <c r="W41" s="1">
-        <v>89.66</v>
-      </c>
-      <c r="X41" s="1">
-        <v>86.73</v>
-      </c>
-      <c r="Y41" s="1">
-        <v>88.06</v>
-      </c>
-      <c r="Z41" s="1">
-        <v>90.2</v>
-      </c>
-      <c r="AA41" s="1">
-        <v>91.23</v>
-      </c>
-      <c r="AB41" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="AC41" s="1">
-        <v>7</v>
-      </c>
-      <c r="AD41" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="AE41" s="1">
-        <v>4</v>
-      </c>
-      <c r="AF41" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG41" s="1">
-        <v>3</v>
-      </c>
-      <c r="AH41" s="1">
-        <v>48.27</v>
-      </c>
-      <c r="AI41" s="1">
-        <v>48.43</v>
-      </c>
-      <c r="AJ41" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="AK41" s="1">
-        <v>0.49</v>
-      </c>
-      <c r="AL41" s="1">
-        <v>12.3</v>
-      </c>
-      <c r="AM41" s="1">
-        <v>17.5</v>
-      </c>
-      <c r="AN41" s="1">
-        <v>49.6</v>
-      </c>
-      <c r="AO41" s="1">
-        <v>53.6</v>
-      </c>
-      <c r="AP41" s="1">
-        <v>0.63</v>
-      </c>
-      <c r="AQ41" s="1">
         <v>0.66</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="27">
     <mergeCell ref="AJ2:AK2"/>
     <mergeCell ref="AL2:AM2"/>
     <mergeCell ref="AN2:AO2"/>
@@ -6019,6 +5754,12 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:U2"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="B1:U1"/>
+    <mergeCell ref="V1:AA1"/>
+    <mergeCell ref="AB1:AG1"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="AL1:AO1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/fppe_data_combined.xlsx
+++ b/data/fppe_data_combined.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akshay/Workspace/MLC/FPPE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAF952A-6859-9149-8374-5591A6DDBB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D6BBEC-10C3-4C4D-B23D-6829181E95F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15760" xr2:uid="{259E7114-D380-BD40-B813-EE9B97F880CA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{259E7114-D380-BD40-B813-EE9B97F880CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="66">
   <si>
     <t>Prevalence</t>
   </si>
@@ -119,125 +119,128 @@
     <t>2019-21</t>
   </si>
   <si>
-    <t>IN</t>
-  </si>
-  <si>
-    <t>AN</t>
-  </si>
-  <si>
-    <t>AP</t>
-  </si>
-  <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>AS</t>
-  </si>
-  <si>
-    <t>BI</t>
-  </si>
-  <si>
-    <t>CD</t>
-  </si>
-  <si>
-    <t>CH</t>
-  </si>
-  <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t>DN</t>
-  </si>
-  <si>
-    <t>GO</t>
-  </si>
-  <si>
-    <t>GU</t>
-  </si>
-  <si>
-    <t>HA</t>
-  </si>
-  <si>
-    <t>HP</t>
-  </si>
-  <si>
-    <t>JA</t>
-  </si>
-  <si>
-    <t>JH</t>
-  </si>
-  <si>
-    <t>KA</t>
-  </si>
-  <si>
-    <t>KE</t>
-  </si>
-  <si>
-    <t>LA</t>
-  </si>
-  <si>
-    <t>LK</t>
-  </si>
-  <si>
-    <t>MA</t>
-  </si>
-  <si>
-    <t>MH</t>
-  </si>
-  <si>
-    <t>MN</t>
-  </si>
-  <si>
-    <t>MY</t>
-  </si>
-  <si>
-    <t>MZ</t>
-  </si>
-  <si>
-    <t>NG</t>
-  </si>
-  <si>
-    <t>OD</t>
-  </si>
-  <si>
-    <t>PD</t>
-  </si>
-  <si>
-    <t>PU</t>
-  </si>
-  <si>
-    <t>RA</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>TA</t>
-  </si>
-  <si>
-    <t>TE</t>
-  </si>
-  <si>
-    <t>TR</t>
-  </si>
-  <si>
-    <t>UP</t>
-  </si>
-  <si>
-    <t>UT</t>
-  </si>
-  <si>
-    <t>WB</t>
-  </si>
-  <si>
     <t>Condom</t>
+  </si>
+  <si>
+    <t>Combined</t>
+  </si>
+  <si>
+    <t>Andaman &amp; Nicobar Islands</t>
+  </si>
+  <si>
+    <t>Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>Arunachal Pradesh</t>
+  </si>
+  <si>
+    <t>Assam</t>
+  </si>
+  <si>
+    <t>Bihar</t>
+  </si>
+  <si>
+    <t>Chandigarh</t>
+  </si>
+  <si>
+    <t>Chhattisgarh</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Dadra &amp; Nagar Haveli and Daman &amp; Diu</t>
+  </si>
+  <si>
+    <t>Goa</t>
+  </si>
+  <si>
+    <t>Gujarat</t>
+  </si>
+  <si>
+    <t>Himachal Pradesh</t>
+  </si>
+  <si>
+    <t>Jammu &amp; Kashmir</t>
+  </si>
+  <si>
+    <t>Jharkhand</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>Kerala</t>
+  </si>
+  <si>
+    <t>Ladakh</t>
+  </si>
+  <si>
+    <t>Lakshadweep</t>
+  </si>
+  <si>
+    <t>Madhya Pradesh</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>Manipur</t>
+  </si>
+  <si>
+    <t>Meghalaya</t>
+  </si>
+  <si>
+    <t>Mizoram</t>
+  </si>
+  <si>
+    <t>Nagaland</t>
+  </si>
+  <si>
+    <t>Puducherry</t>
+  </si>
+  <si>
+    <t>Punjab</t>
+  </si>
+  <si>
+    <t>Rajasthan</t>
+  </si>
+  <si>
+    <t>Sikkim</t>
+  </si>
+  <si>
+    <t>Tamil Nadu</t>
+  </si>
+  <si>
+    <t>Telangana</t>
+  </si>
+  <si>
+    <t>Tripura</t>
+  </si>
+  <si>
+    <t>Uttar Pradesh</t>
+  </si>
+  <si>
+    <t>Uttarakhand</t>
+  </si>
+  <si>
+    <t>West Bengal</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Odisha</t>
+  </si>
+  <si>
+    <t>Haryana</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -256,6 +259,15 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -281,11 +293,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -607,16 +622,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EACAF9F-44F9-2E4F-8C3D-2AA5D583F083}">
-  <dimension ref="A1:AQ40"/>
+  <dimension ref="A1:AQ41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -637,515 +653,430 @@
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
-      <c r="V1" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="V1" s="3"/>
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
-      <c r="AB1" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
       <c r="AF1" s="3"/>
       <c r="AG1" s="3"/>
-      <c r="AH1" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="AH1" s="3"/>
       <c r="AI1" s="3"/>
       <c r="AJ1" s="3"/>
       <c r="AK1" s="3"/>
-      <c r="AL1" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="AL1" s="3"/>
       <c r="AM1" s="3"/>
       <c r="AN1" s="3"/>
       <c r="AO1" s="3"/>
-      <c r="AP1" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="AP1" s="3"/>
       <c r="AQ1" s="3"/>
     </row>
-    <row r="2" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="H2" s="4"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="L2" s="4"/>
       <c r="M2" s="4"/>
-      <c r="N2" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="N2" s="4"/>
       <c r="O2" s="4"/>
-      <c r="P2" s="4" t="s">
-        <v>64</v>
-      </c>
+      <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
-      <c r="R2" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="R2" s="4"/>
       <c r="S2" s="4"/>
-      <c r="T2" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="T2" s="4"/>
       <c r="U2" s="4"/>
       <c r="V2" s="4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="W2" s="4"/>
-      <c r="X2" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
-      <c r="Z2" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
       <c r="AB2" s="4" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="AC2" s="4"/>
-      <c r="AD2" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="AD2" s="4"/>
       <c r="AE2" s="4"/>
-      <c r="AF2" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="AF2" s="4"/>
       <c r="AG2" s="4"/>
       <c r="AH2" s="4" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="AI2" s="4"/>
-      <c r="AJ2" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="AJ2" s="4"/>
       <c r="AK2" s="4"/>
       <c r="AL2" s="4" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="AM2" s="4"/>
-      <c r="AN2" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="AN2" s="4"/>
       <c r="AO2" s="4"/>
       <c r="AP2" s="4" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="AQ2" s="4"/>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO3" s="5"/>
+      <c r="AP3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AQ3" s="5"/>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="1">
-        <v>53.5</v>
-      </c>
-      <c r="C4" s="1">
-        <v>66.7</v>
-      </c>
-      <c r="D4" s="1">
-        <v>47.8</v>
-      </c>
-      <c r="E4" s="1">
-        <v>56.5</v>
-      </c>
-      <c r="F4" s="1">
-        <v>5.7</v>
-      </c>
-      <c r="G4" s="1">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="H4" s="1">
-        <v>36</v>
-      </c>
-      <c r="I4" s="1">
-        <v>37.9</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="L4" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="M4" s="1">
-        <v>2.1</v>
-      </c>
-      <c r="N4" s="1">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="O4" s="1">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="P4" s="1">
-        <v>5.6</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>9.5</v>
-      </c>
-      <c r="R4" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="S4" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="T4" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="U4" s="1">
-        <v>1</v>
-      </c>
-      <c r="V4" s="1">
-        <v>78.75</v>
-      </c>
-      <c r="W4" s="1">
-        <v>85.74</v>
-      </c>
-      <c r="X4" s="1">
-        <v>83.45</v>
-      </c>
-      <c r="Y4" s="1">
-        <v>87.61</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>66.86</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>82.06</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>12.9</v>
-      </c>
-      <c r="AC4" s="1">
-        <v>9.4</v>
-      </c>
-      <c r="AD4" s="1">
-        <v>7.2</v>
-      </c>
-      <c r="AE4" s="1">
-        <v>5.4</v>
-      </c>
-      <c r="AF4" s="1">
-        <v>5.7</v>
-      </c>
-      <c r="AG4" s="1">
-        <v>4</v>
-      </c>
-      <c r="AH4" s="1">
-        <v>63.72</v>
-      </c>
-      <c r="AI4" s="1">
-        <v>67.08</v>
-      </c>
-      <c r="AJ4" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="AK4" s="1">
-        <v>0.37</v>
-      </c>
-      <c r="AL4" s="1">
-        <v>17.7</v>
-      </c>
-      <c r="AM4" s="1">
-        <v>23.9</v>
-      </c>
-      <c r="AN4" s="1">
-        <v>46.6</v>
-      </c>
-      <c r="AO4" s="1">
-        <v>62.4</v>
-      </c>
-      <c r="AP4" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AQ4" s="1">
-        <v>0.56999999999999995</v>
+      <c r="A4" s="2"/>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="B5" s="1">
-        <v>50.8</v>
+        <v>53.5</v>
       </c>
       <c r="C5" s="1">
-        <v>65.8</v>
+        <v>66.7</v>
       </c>
       <c r="D5" s="1">
-        <v>48.3</v>
+        <v>47.8</v>
       </c>
       <c r="E5" s="1">
-        <v>57.7</v>
+        <v>56.5</v>
       </c>
       <c r="F5" s="1">
-        <v>2.5</v>
+        <v>5.7</v>
       </c>
       <c r="G5" s="1">
-        <v>8.1</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>39.9</v>
+        <v>36</v>
       </c>
       <c r="I5" s="1">
-        <v>39.200000000000003</v>
+        <v>37.9</v>
       </c>
       <c r="J5" s="1">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K5" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="M5" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="O5" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="P5" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="R5" s="1">
         <v>0.2</v>
       </c>
-      <c r="L5" s="1">
-        <v>2.1</v>
-      </c>
-      <c r="M5" s="1">
-        <v>3.9</v>
-      </c>
-      <c r="N5" s="1">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="O5" s="1">
-        <v>3.6</v>
-      </c>
-      <c r="P5" s="1">
-        <v>4.2</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="R5" s="1">
-        <v>0</v>
-      </c>
       <c r="S5" s="1">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="T5" s="1">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="U5" s="1">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="V5" s="1">
-        <v>75.709999999999994</v>
+        <v>78.75</v>
       </c>
       <c r="W5" s="1">
-        <v>81.040000000000006</v>
+        <v>85.74</v>
       </c>
       <c r="X5" s="1">
-        <v>84.36</v>
+        <v>83.45</v>
       </c>
       <c r="Y5" s="1">
-        <v>84.19</v>
+        <v>87.61</v>
       </c>
       <c r="Z5" s="1">
-        <v>50.91</v>
+        <v>66.86</v>
       </c>
       <c r="AA5" s="1">
-        <v>75</v>
+        <v>82.06</v>
       </c>
       <c r="AB5" s="1">
-        <v>15.5</v>
+        <v>12.9</v>
       </c>
       <c r="AC5" s="1">
-        <v>13.5</v>
+        <v>9.4</v>
       </c>
       <c r="AD5" s="1">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AE5" s="1">
-        <v>7.4</v>
+        <v>5.4</v>
       </c>
       <c r="AF5" s="1">
-        <v>8.1</v>
+        <v>5.7</v>
       </c>
       <c r="AG5" s="1">
-        <v>6.1</v>
+        <v>4</v>
       </c>
       <c r="AH5" s="1">
-        <v>69.150000000000006</v>
+        <v>63.72</v>
       </c>
       <c r="AI5" s="1">
-        <v>67.94</v>
+        <v>67.08</v>
       </c>
       <c r="AJ5" s="1">
-        <v>0.2</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AK5" s="1">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="AL5" s="1">
-        <v>37.200000000000003</v>
+        <v>17.7</v>
       </c>
       <c r="AM5" s="1">
-        <v>30.6</v>
+        <v>23.9</v>
       </c>
       <c r="AN5" s="1">
-        <v>66.400000000000006</v>
+        <v>46.6</v>
       </c>
       <c r="AO5" s="1">
-        <v>83.4</v>
+        <v>62.4</v>
       </c>
       <c r="AP5" s="1">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AQ5" s="1">
-        <v>0.56000000000000005</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.2">
@@ -1153,130 +1084,130 @@
         <v>29</v>
       </c>
       <c r="B6" s="1">
-        <v>69.5</v>
+        <v>50.8</v>
       </c>
       <c r="C6" s="1">
-        <v>71.099999999999994</v>
+        <v>65.8</v>
       </c>
       <c r="D6" s="1">
-        <v>69.400000000000006</v>
+        <v>48.3</v>
       </c>
       <c r="E6" s="1">
-        <v>70.8</v>
+        <v>57.7</v>
       </c>
       <c r="F6" s="1">
-        <v>0.1</v>
+        <v>2.5</v>
       </c>
       <c r="G6" s="1">
-        <v>0.3</v>
+        <v>8.1</v>
       </c>
       <c r="H6" s="1">
-        <v>68.3</v>
+        <v>39.9</v>
       </c>
       <c r="I6" s="1">
-        <v>69.599999999999994</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="J6" s="1">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="L6" s="1">
-        <v>0.2</v>
+        <v>2.1</v>
       </c>
       <c r="M6" s="1">
-        <v>0.2</v>
+        <v>3.9</v>
       </c>
       <c r="N6" s="1">
-        <v>0.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="O6" s="1">
-        <v>0.1</v>
+        <v>3.6</v>
       </c>
       <c r="P6" s="1">
-        <v>0.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q6" s="1">
-        <v>0.5</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="R6" s="1">
         <v>0</v>
       </c>
       <c r="S6" s="1">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="T6" s="1">
         <v>-0.1</v>
       </c>
       <c r="U6" s="1">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="V6" s="1">
-        <v>93.66</v>
+        <v>75.709999999999994</v>
       </c>
       <c r="W6" s="1">
-        <v>93.77</v>
+        <v>81.040000000000006</v>
       </c>
       <c r="X6" s="1">
-        <v>97.73</v>
+        <v>84.36</v>
       </c>
       <c r="Y6" s="1">
-        <v>97.09</v>
+        <v>84.19</v>
       </c>
       <c r="Z6" s="1">
-        <v>13.89</v>
+        <v>50.91</v>
       </c>
       <c r="AA6" s="1">
-        <v>23.53</v>
+        <v>75</v>
       </c>
       <c r="AB6" s="1">
-        <v>4.7</v>
+        <v>15.5</v>
       </c>
       <c r="AC6" s="1">
-        <v>4.7</v>
+        <v>13.5</v>
       </c>
       <c r="AD6" s="1">
-        <v>1.6</v>
+        <v>7.4</v>
       </c>
       <c r="AE6" s="1">
-        <v>2.1</v>
+        <v>7.4</v>
       </c>
       <c r="AF6" s="1">
-        <v>3.1</v>
+        <v>8.1</v>
       </c>
       <c r="AG6" s="1">
-        <v>2.6</v>
+        <v>6.1</v>
       </c>
       <c r="AH6" s="1">
-        <v>96.47</v>
+        <v>69.150000000000006</v>
       </c>
       <c r="AI6" s="1">
-        <v>98.31</v>
+        <v>67.94</v>
       </c>
       <c r="AJ6" s="1">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="AK6" s="1">
-        <v>0.02</v>
+        <v>0.36</v>
       </c>
       <c r="AL6" s="1">
-        <v>19.7</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="AM6" s="1">
-        <v>18.600000000000001</v>
+        <v>30.6</v>
       </c>
       <c r="AN6" s="1">
-        <v>25</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="AO6" s="1">
-        <v>28.9</v>
+        <v>83.4</v>
       </c>
       <c r="AP6" s="1">
-        <v>0.18</v>
+        <v>0.44</v>
       </c>
       <c r="AQ6" s="1">
-        <v>0.22</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.2">
@@ -1284,130 +1215,130 @@
         <v>30</v>
       </c>
       <c r="B7" s="1">
-        <v>31.7</v>
+        <v>69.5</v>
       </c>
       <c r="C7" s="1">
-        <v>59.1</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="D7" s="1">
-        <v>26.6</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="E7" s="1">
-        <v>47.2</v>
+        <v>70.8</v>
       </c>
       <c r="F7" s="1">
-        <v>5.0999999999999996</v>
+        <v>0.1</v>
       </c>
       <c r="G7" s="1">
-        <v>11.9</v>
+        <v>0.3</v>
       </c>
       <c r="H7" s="1">
-        <v>11.2</v>
+        <v>68.3</v>
       </c>
       <c r="I7" s="1">
-        <v>18.2</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="J7" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R7" s="1">
         <v>0</v>
       </c>
-      <c r="K7" s="1">
+      <c r="S7" s="1">
         <v>0</v>
       </c>
-      <c r="L7" s="1">
-        <v>3.4</v>
-      </c>
-      <c r="M7" s="1">
-        <v>6.2</v>
-      </c>
-      <c r="N7" s="1">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="O7" s="1">
-        <v>15.5</v>
-      </c>
-      <c r="P7" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="Q7" s="1">
+      <c r="T7" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="U7" s="1">
+        <v>0</v>
+      </c>
+      <c r="V7" s="1">
+        <v>93.66</v>
+      </c>
+      <c r="W7" s="1">
+        <v>93.77</v>
+      </c>
+      <c r="X7" s="1">
+        <v>97.73</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>97.09</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>13.89</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>23.53</v>
+      </c>
+      <c r="AB7" s="1">
         <v>4.7</v>
       </c>
-      <c r="R7" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="S7" s="1">
-        <v>1</v>
-      </c>
-      <c r="T7" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="U7" s="1">
+      <c r="AC7" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="AD7" s="1">
         <v>1.6</v>
       </c>
-      <c r="V7" s="1">
-        <v>55.3</v>
-      </c>
-      <c r="W7" s="1">
-        <v>79.06</v>
-      </c>
-      <c r="X7" s="1">
-        <v>56</v>
-      </c>
-      <c r="Y7" s="1">
-        <v>76.790000000000006</v>
-      </c>
-      <c r="Z7" s="1">
-        <v>54.8</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>80.56</v>
-      </c>
-      <c r="AB7" s="1">
-        <v>21.5</v>
-      </c>
-      <c r="AC7" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="AD7" s="1">
-        <v>8.8000000000000007</v>
-      </c>
       <c r="AE7" s="1">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="AF7" s="1">
-        <v>12.7</v>
+        <v>3.1</v>
       </c>
       <c r="AG7" s="1">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="AH7" s="1">
-        <v>23.73</v>
+        <v>96.47</v>
       </c>
       <c r="AI7" s="1">
-        <v>38.56</v>
+        <v>98.31</v>
       </c>
       <c r="AJ7" s="1">
-        <v>0.52</v>
+        <v>0.02</v>
       </c>
       <c r="AK7" s="1">
-        <v>0.59</v>
+        <v>0.02</v>
       </c>
       <c r="AL7" s="1">
-        <v>12.3</v>
+        <v>19.7</v>
       </c>
       <c r="AM7" s="1">
-        <v>19.399999999999999</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="AN7" s="1">
-        <v>51.2</v>
+        <v>25</v>
       </c>
       <c r="AO7" s="1">
-        <v>73.7</v>
+        <v>28.9</v>
       </c>
       <c r="AP7" s="1">
-        <v>0.51</v>
+        <v>0.18</v>
       </c>
       <c r="AQ7" s="1">
-        <v>0.65</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.2">
@@ -1415,130 +1346,130 @@
         <v>31</v>
       </c>
       <c r="B8" s="1">
-        <v>52.4</v>
+        <v>31.7</v>
       </c>
       <c r="C8" s="1">
-        <v>60.8</v>
+        <v>59.1</v>
       </c>
       <c r="D8" s="1">
-        <v>37</v>
+        <v>26.6</v>
       </c>
       <c r="E8" s="1">
-        <v>45.3</v>
+        <v>47.2</v>
       </c>
       <c r="F8" s="1">
-        <v>15.4</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G8" s="1">
+        <v>11.9</v>
+      </c>
+      <c r="H8" s="1">
+        <v>11.2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>18.2</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="M8" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="N8" s="1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="O8" s="1">
         <v>15.5</v>
       </c>
-      <c r="H8" s="1">
-        <v>9.5</v>
-      </c>
-      <c r="I8" s="1">
-        <v>9</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="L8" s="1">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="M8" s="1">
-        <v>2.9</v>
-      </c>
-      <c r="N8" s="1">
-        <v>22</v>
-      </c>
-      <c r="O8" s="1">
-        <v>27.5</v>
-      </c>
       <c r="P8" s="1">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="Q8" s="1">
-        <v>4.9000000000000004</v>
+        <v>4.7</v>
       </c>
       <c r="R8" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="S8" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T8" s="1">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="U8" s="1">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="V8" s="1">
-        <v>72.27</v>
+        <v>55.3</v>
       </c>
       <c r="W8" s="1">
-        <v>80.459999999999994</v>
+        <v>79.06</v>
       </c>
       <c r="X8" s="1">
-        <v>53.33</v>
+        <v>56</v>
       </c>
       <c r="Y8" s="1">
-        <v>56.88</v>
+        <v>76.790000000000006</v>
       </c>
       <c r="Z8" s="1">
-        <v>82.53</v>
+        <v>54.8</v>
       </c>
       <c r="AA8" s="1">
-        <v>89.83</v>
+        <v>80.56</v>
       </c>
       <c r="AB8" s="1">
-        <v>14.2</v>
+        <v>21.5</v>
       </c>
       <c r="AC8" s="1">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AD8" s="1">
-        <v>8.4</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AE8" s="1">
-        <v>6.9</v>
+        <v>5.5</v>
       </c>
       <c r="AF8" s="1">
-        <v>5.8</v>
+        <v>12.7</v>
       </c>
       <c r="AG8" s="1">
-        <v>4.0999999999999996</v>
+        <v>7</v>
       </c>
       <c r="AH8" s="1">
-        <v>48.57</v>
+        <v>23.73</v>
       </c>
       <c r="AI8" s="1">
-        <v>60.71</v>
+        <v>38.56</v>
       </c>
       <c r="AJ8" s="1">
-        <v>0.42</v>
+        <v>0.52</v>
       </c>
       <c r="AK8" s="1">
-        <v>0.43</v>
+        <v>0.59</v>
       </c>
       <c r="AL8" s="1">
-        <v>17.2</v>
+        <v>12.3</v>
       </c>
       <c r="AM8" s="1">
-        <v>21.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="AN8" s="1">
-        <v>55.3</v>
+        <v>51.2</v>
       </c>
       <c r="AO8" s="1">
-        <v>70</v>
+        <v>73.7</v>
       </c>
       <c r="AP8" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="AQ8" s="1">
-        <v>0.54</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.2">
@@ -1546,130 +1477,130 @@
         <v>32</v>
       </c>
       <c r="B9" s="1">
-        <v>24.1</v>
+        <v>52.4</v>
       </c>
       <c r="C9" s="1">
-        <v>55.8</v>
+        <v>60.8</v>
       </c>
       <c r="D9" s="1">
-        <v>23.3</v>
+        <v>37</v>
       </c>
       <c r="E9" s="1">
-        <v>44.4</v>
+        <v>45.3</v>
       </c>
       <c r="F9" s="1">
-        <v>0.8</v>
+        <v>15.4</v>
       </c>
       <c r="G9" s="1">
-        <v>11.4</v>
+        <v>15.5</v>
       </c>
       <c r="H9" s="1">
-        <v>20.7</v>
+        <v>9.5</v>
       </c>
       <c r="I9" s="1">
-        <v>34.799999999999997</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K9" s="1">
         <v>0.1</v>
       </c>
       <c r="L9" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M9" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="N9" s="1">
+        <v>22</v>
+      </c>
+      <c r="O9" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="P9" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="S9" s="1">
         <v>0.5</v>
       </c>
-      <c r="M9" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="N9" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="O9" s="1">
-        <v>2</v>
-      </c>
-      <c r="P9" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>4</v>
-      </c>
-      <c r="R9" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="S9" s="1">
-        <v>1.1000000000000001</v>
-      </c>
       <c r="T9" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="U9" s="1">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="V9" s="1">
-        <v>52.36</v>
+        <v>72.27</v>
       </c>
       <c r="W9" s="1">
-        <v>76.55</v>
+        <v>80.459999999999994</v>
       </c>
       <c r="X9" s="1">
-        <v>63.69</v>
+        <v>53.33</v>
       </c>
       <c r="Y9" s="1">
-        <v>82.31</v>
+        <v>56.88</v>
       </c>
       <c r="Z9" s="1">
-        <v>21.67</v>
+        <v>82.53</v>
       </c>
       <c r="AA9" s="1">
-        <v>60.9</v>
+        <v>89.83</v>
       </c>
       <c r="AB9" s="1">
-        <v>21.2</v>
+        <v>14.2</v>
       </c>
       <c r="AC9" s="1">
-        <v>13.6</v>
+        <v>11</v>
       </c>
       <c r="AD9" s="1">
-        <v>11.8</v>
+        <v>8.4</v>
       </c>
       <c r="AE9" s="1">
-        <v>7.5</v>
+        <v>6.9</v>
       </c>
       <c r="AF9" s="1">
-        <v>9.4</v>
+        <v>5.8</v>
       </c>
       <c r="AG9" s="1">
-        <v>6.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AH9" s="1">
-        <v>46.62</v>
+        <v>48.57</v>
       </c>
       <c r="AI9" s="1">
-        <v>78.38</v>
+        <v>60.71</v>
       </c>
       <c r="AJ9" s="1">
-        <v>0.13</v>
+        <v>0.42</v>
       </c>
       <c r="AK9" s="1">
-        <v>0.25</v>
+        <v>0.43</v>
       </c>
       <c r="AL9" s="1">
-        <v>12</v>
+        <v>17.2</v>
       </c>
       <c r="AM9" s="1">
-        <v>20.2</v>
+        <v>21.4</v>
       </c>
       <c r="AN9" s="1">
-        <v>34.4</v>
+        <v>55.3</v>
       </c>
       <c r="AO9" s="1">
-        <v>49.9</v>
+        <v>70</v>
       </c>
       <c r="AP9" s="1">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AQ9" s="1">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.2">
@@ -1677,130 +1608,130 @@
         <v>33</v>
       </c>
       <c r="B10" s="1">
-        <v>74</v>
+        <v>24.1</v>
       </c>
       <c r="C10" s="1">
-        <v>77.400000000000006</v>
+        <v>55.8</v>
       </c>
       <c r="D10" s="1">
-        <v>58.2</v>
+        <v>23.3</v>
       </c>
       <c r="E10" s="1">
-        <v>55.6</v>
+        <v>44.4</v>
       </c>
       <c r="F10" s="1">
-        <v>15.8</v>
+        <v>0.8</v>
       </c>
       <c r="G10" s="1">
-        <v>21.8</v>
+        <v>11.4</v>
       </c>
       <c r="H10" s="1">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="I10" s="1">
-        <v>19</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="J10" s="1">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="O10" s="1">
+        <v>2</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>4</v>
+      </c>
+      <c r="R10" s="1">
         <v>0.3</v>
       </c>
-      <c r="L10" s="1">
-        <v>5.4</v>
-      </c>
-      <c r="M10" s="1">
-        <v>4.2</v>
-      </c>
-      <c r="N10" s="1">
-        <v>3.6</v>
-      </c>
-      <c r="O10" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="P10" s="1">
-        <v>27.3</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>31.1</v>
-      </c>
-      <c r="R10" s="1">
-        <v>0</v>
-      </c>
       <c r="S10" s="1">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="T10" s="1">
         <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="V10" s="1">
-        <v>90.23</v>
+        <v>52.36</v>
       </c>
       <c r="W10" s="1">
-        <v>88.96</v>
+        <v>76.55</v>
       </c>
       <c r="X10" s="1">
-        <v>82.95</v>
+        <v>63.69</v>
       </c>
       <c r="Y10" s="1">
-        <v>81.430000000000007</v>
+        <v>82.31</v>
       </c>
       <c r="Z10" s="1">
-        <v>95.28</v>
+        <v>21.67</v>
       </c>
       <c r="AA10" s="1">
-        <v>93.56</v>
+        <v>60.9</v>
       </c>
       <c r="AB10" s="1">
-        <v>6.3</v>
+        <v>21.2</v>
       </c>
       <c r="AC10" s="1">
-        <v>6.9</v>
+        <v>13.6</v>
       </c>
       <c r="AD10" s="1">
-        <v>4.5</v>
+        <v>11.8</v>
       </c>
       <c r="AE10" s="1">
-        <v>4.4000000000000004</v>
+        <v>7.5</v>
       </c>
       <c r="AF10" s="1">
-        <v>1.8</v>
+        <v>9.4</v>
       </c>
       <c r="AG10" s="1">
-        <v>2.5</v>
+        <v>6.1</v>
       </c>
       <c r="AH10" s="1">
-        <v>49.1</v>
+        <v>46.62</v>
       </c>
       <c r="AI10" s="1">
-        <v>55.94</v>
+        <v>78.38</v>
       </c>
       <c r="AJ10" s="1">
-        <v>0.5</v>
+        <v>0.13</v>
       </c>
       <c r="AK10" s="1">
-        <v>0.42</v>
+        <v>0.25</v>
       </c>
       <c r="AL10" s="1">
-        <v>25.1</v>
+        <v>12</v>
       </c>
       <c r="AM10" s="1">
-        <v>34</v>
+        <v>20.2</v>
       </c>
       <c r="AN10" s="1">
-        <v>62.6</v>
+        <v>34.4</v>
       </c>
       <c r="AO10" s="1">
-        <v>91.7</v>
+        <v>49.9</v>
       </c>
       <c r="AP10" s="1">
-        <v>0.66</v>
+        <v>0.27</v>
       </c>
       <c r="AQ10" s="1">
-        <v>0.59</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.2">
@@ -1808,130 +1739,130 @@
         <v>34</v>
       </c>
       <c r="B11" s="1">
-        <v>57.7</v>
+        <v>74</v>
       </c>
       <c r="C11" s="1">
-        <v>67.8</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="D11" s="1">
-        <v>54.5</v>
+        <v>58.2</v>
       </c>
       <c r="E11" s="1">
-        <v>61.7</v>
+        <v>55.6</v>
       </c>
       <c r="F11" s="1">
-        <v>3.2</v>
+        <v>15.8</v>
       </c>
       <c r="G11" s="1">
-        <v>6.1</v>
+        <v>21.8</v>
       </c>
       <c r="H11" s="1">
-        <v>46.2</v>
+        <v>20.6</v>
       </c>
       <c r="I11" s="1">
-        <v>47.5</v>
+        <v>19</v>
       </c>
       <c r="J11" s="1">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="K11" s="1">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="L11" s="1">
-        <v>1.6</v>
+        <v>5.4</v>
       </c>
       <c r="M11" s="1">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="N11" s="1">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="O11" s="1">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="P11" s="1">
-        <v>3.9</v>
+        <v>27.3</v>
       </c>
       <c r="Q11" s="1">
-        <v>4.0999999999999996</v>
+        <v>31.1</v>
       </c>
       <c r="R11" s="1">
         <v>0</v>
       </c>
       <c r="S11" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="T11" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>3.7</v>
+        <v>0.5</v>
       </c>
       <c r="V11" s="1">
-        <v>83.08</v>
+        <v>90.23</v>
       </c>
       <c r="W11" s="1">
-        <v>88.14</v>
+        <v>88.96</v>
       </c>
       <c r="X11" s="1">
-        <v>88.99</v>
+        <v>82.95</v>
       </c>
       <c r="Y11" s="1">
-        <v>90.79</v>
+        <v>81.430000000000007</v>
       </c>
       <c r="Z11" s="1">
-        <v>58.91</v>
+        <v>95.28</v>
       </c>
       <c r="AA11" s="1">
-        <v>79.760000000000005</v>
+        <v>93.56</v>
       </c>
       <c r="AB11" s="1">
-        <v>11.1</v>
+        <v>6.3</v>
       </c>
       <c r="AC11" s="1">
-        <v>8.3000000000000007</v>
+        <v>6.9</v>
       </c>
       <c r="AD11" s="1">
-        <v>5.8</v>
+        <v>4.5</v>
       </c>
       <c r="AE11" s="1">
-        <v>4.9000000000000004</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AF11" s="1">
-        <v>5.3</v>
+        <v>1.8</v>
       </c>
       <c r="AG11" s="1">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="AH11" s="1">
-        <v>74.88</v>
+        <v>49.1</v>
       </c>
       <c r="AI11" s="1">
-        <v>76.989999999999995</v>
+        <v>55.94</v>
       </c>
       <c r="AJ11" s="1">
-        <v>0.18</v>
+        <v>0.5</v>
       </c>
       <c r="AK11" s="1">
-        <v>0.27</v>
+        <v>0.42</v>
       </c>
       <c r="AL11" s="1">
-        <v>28.5</v>
+        <v>25.1</v>
       </c>
       <c r="AM11" s="1">
-        <v>30.1</v>
+        <v>34</v>
       </c>
       <c r="AN11" s="1">
-        <v>54.7</v>
+        <v>62.6</v>
       </c>
       <c r="AO11" s="1">
-        <v>83.4</v>
+        <v>91.7</v>
       </c>
       <c r="AP11" s="1">
-        <v>0.44</v>
+        <v>0.66</v>
       </c>
       <c r="AQ11" s="1">
-        <v>0.54</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.2">
@@ -1939,130 +1870,130 @@
         <v>35</v>
       </c>
       <c r="B12" s="1">
-        <v>54.9</v>
+        <v>57.7</v>
       </c>
       <c r="C12" s="1">
-        <v>76.400000000000006</v>
+        <v>67.8</v>
       </c>
       <c r="D12" s="1">
-        <v>48.6</v>
+        <v>54.5</v>
       </c>
       <c r="E12" s="1">
-        <v>57.7</v>
+        <v>61.7</v>
       </c>
       <c r="F12" s="1">
-        <v>6.3</v>
+        <v>3.2</v>
       </c>
       <c r="G12" s="1">
-        <v>18.7</v>
+        <v>6.1</v>
       </c>
       <c r="H12" s="1">
-        <v>19.8</v>
+        <v>46.2</v>
       </c>
       <c r="I12" s="1">
-        <v>18</v>
+        <v>47.5</v>
       </c>
       <c r="J12" s="1">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="K12" s="1">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="L12" s="1">
-        <v>5.4</v>
+        <v>1.6</v>
       </c>
       <c r="M12" s="1">
-        <v>6.7</v>
+        <v>2.8</v>
       </c>
       <c r="N12" s="1">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="O12" s="1">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="P12" s="1">
-        <v>20</v>
+        <v>3.9</v>
       </c>
       <c r="Q12" s="1">
-        <v>28.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="R12" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="S12" s="1">
         <v>0.4</v>
       </c>
       <c r="T12" s="1">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="U12" s="1">
-        <v>1.4</v>
+        <v>3.7</v>
       </c>
       <c r="V12" s="1">
-        <v>76.42</v>
+        <v>83.08</v>
       </c>
       <c r="W12" s="1">
-        <v>90.44</v>
+        <v>88.14</v>
       </c>
       <c r="X12" s="1">
-        <v>65.569999999999993</v>
+        <v>88.99</v>
       </c>
       <c r="Y12" s="1">
-        <v>81.61</v>
+        <v>90.79</v>
       </c>
       <c r="Z12" s="1">
-        <v>86.4</v>
+        <v>58.91</v>
       </c>
       <c r="AA12" s="1">
-        <v>95.18</v>
+        <v>79.760000000000005</v>
       </c>
       <c r="AB12" s="1">
-        <v>15</v>
+        <v>11.1</v>
       </c>
       <c r="AC12" s="1">
-        <v>6.1</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="AD12" s="1">
-        <v>10.5</v>
+        <v>5.8</v>
       </c>
       <c r="AE12" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AF12" s="1">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
       <c r="AG12" s="1">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="AH12" s="1">
-        <v>34.659999999999997</v>
+        <v>74.88</v>
       </c>
       <c r="AI12" s="1">
-        <v>49.05</v>
+        <v>76.989999999999995</v>
       </c>
       <c r="AJ12" s="1">
-        <v>0.51</v>
+        <v>0.18</v>
       </c>
       <c r="AK12" s="1">
-        <v>0.5</v>
+        <v>0.27</v>
       </c>
       <c r="AL12" s="1">
-        <v>12.1</v>
+        <v>28.5</v>
       </c>
       <c r="AM12" s="1">
-        <v>16.899999999999999</v>
+        <v>30.1</v>
       </c>
       <c r="AN12" s="1">
-        <v>40.799999999999997</v>
+        <v>54.7</v>
       </c>
       <c r="AO12" s="1">
-        <v>70.8</v>
+        <v>83.4</v>
       </c>
       <c r="AP12" s="1">
-        <v>0.62</v>
+        <v>0.44</v>
       </c>
       <c r="AQ12" s="1">
-        <v>0.65</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.2">
@@ -2070,130 +2001,130 @@
         <v>36</v>
       </c>
       <c r="B13" s="1">
-        <v>36.200000000000003</v>
+        <v>54.9</v>
       </c>
       <c r="C13" s="1">
-        <v>68</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="D13" s="1">
-        <v>35.799999999999997</v>
+        <v>48.6</v>
       </c>
       <c r="E13" s="1">
-        <v>59.8</v>
+        <v>57.7</v>
       </c>
       <c r="F13" s="1">
-        <v>0.4</v>
+        <v>6.3</v>
       </c>
       <c r="G13" s="1">
-        <v>8.1999999999999993</v>
+        <v>18.7</v>
       </c>
       <c r="H13" s="1">
-        <v>29.7</v>
+        <v>19.8</v>
       </c>
       <c r="I13" s="1">
-        <v>41.6</v>
+        <v>18</v>
       </c>
       <c r="J13" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K13" s="1">
         <v>0.2</v>
       </c>
       <c r="L13" s="1">
-        <v>1.7</v>
+        <v>5.4</v>
       </c>
       <c r="M13" s="1">
-        <v>2.2000000000000002</v>
+        <v>6.7</v>
       </c>
       <c r="N13" s="1">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="O13" s="1">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="P13" s="1">
-        <v>3.2</v>
+        <v>20</v>
       </c>
       <c r="Q13" s="1">
-        <v>11.7</v>
+        <v>28.3</v>
       </c>
       <c r="R13" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S13" s="1">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="T13" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="U13" s="1">
-        <v>0.1</v>
+        <v>1.4</v>
       </c>
       <c r="V13" s="1">
-        <v>64.739999999999995</v>
+        <v>76.42</v>
       </c>
       <c r="W13" s="1">
-        <v>83.4</v>
+        <v>90.44</v>
       </c>
       <c r="X13" s="1">
-        <v>77.14</v>
+        <v>65.569999999999993</v>
       </c>
       <c r="Y13" s="1">
-        <v>86.36</v>
+        <v>81.61</v>
       </c>
       <c r="Z13" s="1">
-        <v>36.31</v>
+        <v>86.4</v>
       </c>
       <c r="AA13" s="1">
-        <v>77.25</v>
+        <v>95.18</v>
       </c>
       <c r="AB13" s="1">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="AC13" s="1">
-        <v>11.9</v>
+        <v>6.1</v>
       </c>
       <c r="AD13" s="1">
-        <v>8.8000000000000007</v>
+        <v>10.5</v>
       </c>
       <c r="AE13" s="1">
-        <v>6.6</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AF13" s="1">
-        <v>10.7</v>
+        <v>4.5</v>
       </c>
       <c r="AG13" s="1">
-        <v>5.3</v>
+        <v>2</v>
       </c>
       <c r="AH13" s="1">
-        <v>49.67</v>
+        <v>34.659999999999997</v>
       </c>
       <c r="AI13" s="1">
-        <v>69.569999999999993</v>
+        <v>49.05</v>
       </c>
       <c r="AJ13" s="1">
-        <v>0.19</v>
+        <v>0.51</v>
       </c>
       <c r="AK13" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AL13" s="1">
-        <v>15.5</v>
+        <v>12.1</v>
       </c>
       <c r="AM13" s="1">
-        <v>25.3</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="AN13" s="1">
-        <v>43.4</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="AO13" s="1">
-        <v>69.900000000000006</v>
+        <v>70.8</v>
       </c>
       <c r="AP13" s="1">
-        <v>0.39</v>
+        <v>0.62</v>
       </c>
       <c r="AQ13" s="1">
-        <v>0.56000000000000005</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.2">
@@ -2201,130 +2132,130 @@
         <v>37</v>
       </c>
       <c r="B14" s="1">
-        <v>26.3</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="C14" s="1">
-        <v>67.900000000000006</v>
+        <v>68</v>
       </c>
       <c r="D14" s="1">
-        <v>24.8</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="E14" s="1">
-        <v>60.1</v>
+        <v>59.8</v>
       </c>
       <c r="F14" s="1">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="G14" s="1">
-        <v>7.8</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="H14" s="1">
-        <v>16.3</v>
+        <v>29.7</v>
       </c>
       <c r="I14" s="1">
-        <v>29.9</v>
+        <v>41.6</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
       </c>
       <c r="K14" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="M14" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="O14" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="P14" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>11.7</v>
+      </c>
+      <c r="R14" s="1">
         <v>0</v>
       </c>
-      <c r="L14" s="1">
+      <c r="S14" s="1">
         <v>0.9</v>
       </c>
-      <c r="M14" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="N14" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="O14" s="1">
-        <v>2.7</v>
-      </c>
-      <c r="P14" s="1">
-        <v>7.1</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>23.2</v>
-      </c>
-      <c r="R14" s="1">
+      <c r="T14" s="1">
+        <v>0</v>
+      </c>
+      <c r="U14" s="1">
         <v>0.1</v>
       </c>
-      <c r="S14" s="1">
-        <v>0</v>
-      </c>
-      <c r="T14" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="U14" s="1">
-        <v>1.9</v>
-      </c>
       <c r="V14" s="1">
-        <v>58.63</v>
+        <v>64.739999999999995</v>
       </c>
       <c r="W14" s="1">
-        <v>87.74</v>
+        <v>83.4</v>
       </c>
       <c r="X14" s="1">
-        <v>63.92</v>
+        <v>77.14</v>
       </c>
       <c r="Y14" s="1">
-        <v>87.17</v>
+        <v>86.36</v>
       </c>
       <c r="Z14" s="1">
-        <v>50.6</v>
+        <v>36.31</v>
       </c>
       <c r="AA14" s="1">
-        <v>88.3</v>
+        <v>77.25</v>
       </c>
       <c r="AB14" s="1">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AC14" s="1">
-        <v>8.4</v>
+        <v>11.9</v>
       </c>
       <c r="AD14" s="1">
-        <v>9.1999999999999993</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AE14" s="1">
-        <v>4.4000000000000004</v>
+        <v>6.6</v>
       </c>
       <c r="AF14" s="1">
-        <v>8.3000000000000007</v>
+        <v>10.7</v>
       </c>
       <c r="AG14" s="1">
-        <v>4</v>
+        <v>5.3</v>
       </c>
       <c r="AH14" s="1">
-        <v>27.12</v>
+        <v>49.67</v>
       </c>
       <c r="AI14" s="1">
-        <v>49.75</v>
+        <v>69.569999999999993</v>
       </c>
       <c r="AJ14" s="1">
-        <v>0.34</v>
+        <v>0.19</v>
       </c>
       <c r="AK14" s="1">
-        <v>0.45</v>
+        <v>0.33</v>
       </c>
       <c r="AL14" s="1">
-        <v>44.2</v>
+        <v>15.5</v>
       </c>
       <c r="AM14" s="1">
-        <v>27.7</v>
+        <v>25.3</v>
       </c>
       <c r="AN14" s="1">
-        <v>76</v>
+        <v>43.4</v>
       </c>
       <c r="AO14" s="1">
-        <v>85.5</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="AP14" s="1">
-        <v>0.47</v>
+        <v>0.39</v>
       </c>
       <c r="AQ14" s="1">
-        <v>0.66</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.2">
@@ -2332,130 +2263,130 @@
         <v>38</v>
       </c>
       <c r="B15" s="1">
-        <v>46.9</v>
+        <v>26.3</v>
       </c>
       <c r="C15" s="1">
-        <v>65.3</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="D15" s="1">
-        <v>43.1</v>
+        <v>24.8</v>
       </c>
       <c r="E15" s="1">
-        <v>53.6</v>
+        <v>60.1</v>
       </c>
       <c r="F15" s="1">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="G15" s="1">
-        <v>11.7</v>
+        <v>7.8</v>
       </c>
       <c r="H15" s="1">
-        <v>33.6</v>
+        <v>16.3</v>
       </c>
       <c r="I15" s="1">
-        <v>35.9</v>
+        <v>29.9</v>
       </c>
       <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="M15" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="O15" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="P15" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>23.2</v>
+      </c>
+      <c r="R15" s="1">
         <v>0.1</v>
       </c>
-      <c r="K15" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="L15" s="1">
-        <v>3</v>
-      </c>
-      <c r="M15" s="1">
-        <v>3.1</v>
-      </c>
-      <c r="N15" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="O15" s="1">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="P15" s="1">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>11.4</v>
-      </c>
-      <c r="R15" s="1">
+      <c r="S15" s="1">
         <v>0</v>
-      </c>
-      <c r="S15" s="1">
-        <v>0.1</v>
       </c>
       <c r="T15" s="1">
         <v>0.1</v>
       </c>
       <c r="U15" s="1">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="V15" s="1">
-        <v>71.709999999999994</v>
+        <v>58.63</v>
       </c>
       <c r="W15" s="1">
-        <v>83.88</v>
+        <v>87.74</v>
       </c>
       <c r="X15" s="1">
-        <v>76.59</v>
+        <v>63.92</v>
       </c>
       <c r="Y15" s="1">
-        <v>86.16</v>
+        <v>87.17</v>
       </c>
       <c r="Z15" s="1">
-        <v>58.39</v>
+        <v>50.6</v>
       </c>
       <c r="AA15" s="1">
-        <v>79.55</v>
+        <v>88.3</v>
       </c>
       <c r="AB15" s="1">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC15" s="1">
-        <v>10.3</v>
+        <v>8.4</v>
       </c>
       <c r="AD15" s="1">
-        <v>10.3</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="AE15" s="1">
-        <v>5.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AF15" s="1">
-        <v>6.7</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="AG15" s="1">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AH15" s="1">
-        <v>62.69</v>
+        <v>27.12</v>
       </c>
       <c r="AI15" s="1">
-        <v>66.98</v>
+        <v>49.75</v>
       </c>
       <c r="AJ15" s="1">
-        <v>0.25</v>
+        <v>0.34</v>
       </c>
       <c r="AK15" s="1">
-        <v>0.36</v>
+        <v>0.45</v>
       </c>
       <c r="AL15" s="1">
-        <v>18.899999999999999</v>
+        <v>44.2</v>
       </c>
       <c r="AM15" s="1">
-        <v>29.8</v>
+        <v>27.7</v>
       </c>
       <c r="AN15" s="1">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="AO15" s="1">
-        <v>74.099999999999994</v>
+        <v>85.5</v>
       </c>
       <c r="AP15" s="1">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="AQ15" s="1">
-        <v>0.55000000000000004</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.2">
@@ -2463,1598 +2394,1598 @@
         <v>39</v>
       </c>
       <c r="B16" s="1">
-        <v>63.7</v>
+        <v>46.9</v>
       </c>
       <c r="C16" s="1">
-        <v>73.099999999999994</v>
+        <v>65.3</v>
       </c>
       <c r="D16" s="1">
-        <v>59.4</v>
+        <v>43.1</v>
       </c>
       <c r="E16" s="1">
-        <v>60.5</v>
+        <v>53.6</v>
       </c>
       <c r="F16" s="1">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="G16" s="1">
-        <v>12.6</v>
+        <v>11.7</v>
       </c>
       <c r="H16" s="1">
-        <v>38.1</v>
+        <v>33.6</v>
       </c>
       <c r="I16" s="1">
-        <v>32.299999999999997</v>
+        <v>35.9</v>
       </c>
       <c r="J16" s="1">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="K16" s="1">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="L16" s="1">
-        <v>5.7</v>
+        <v>3</v>
       </c>
       <c r="M16" s="1">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N16" s="1">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="O16" s="1">
-        <v>2.8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="P16" s="1">
-        <v>12</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="Q16" s="1">
-        <v>18.100000000000001</v>
+        <v>11.4</v>
       </c>
       <c r="R16" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="S16" s="1">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="T16" s="1">
         <v>0.1</v>
       </c>
       <c r="U16" s="1">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="V16" s="1">
-        <v>86.46</v>
+        <v>71.709999999999994</v>
       </c>
       <c r="W16" s="1">
-        <v>88.84</v>
+        <v>83.88</v>
       </c>
       <c r="X16" s="1">
-        <v>87.56</v>
+        <v>76.59</v>
       </c>
       <c r="Y16" s="1">
-        <v>88.53</v>
+        <v>86.16</v>
       </c>
       <c r="Z16" s="1">
-        <v>84.49</v>
+        <v>58.39</v>
       </c>
       <c r="AA16" s="1">
-        <v>89.22</v>
+        <v>79.55</v>
       </c>
       <c r="AB16" s="1">
-        <v>9.3000000000000007</v>
+        <v>17</v>
       </c>
       <c r="AC16" s="1">
-        <v>7.6</v>
+        <v>10.3</v>
       </c>
       <c r="AD16" s="1">
-        <v>5.5</v>
+        <v>10.3</v>
       </c>
       <c r="AE16" s="1">
-        <v>4.3</v>
+        <v>5.8</v>
       </c>
       <c r="AF16" s="1">
-        <v>3.8</v>
+        <v>6.7</v>
       </c>
       <c r="AG16" s="1">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="AH16" s="1">
-        <v>62.98</v>
+        <v>62.69</v>
       </c>
       <c r="AI16" s="1">
-        <v>53.39</v>
+        <v>66.98</v>
       </c>
       <c r="AJ16" s="1">
-        <v>0.39</v>
+        <v>0.25</v>
       </c>
       <c r="AK16" s="1">
-        <v>0.47</v>
+        <v>0.36</v>
       </c>
       <c r="AL16" s="1">
-        <v>23</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="AM16" s="1">
-        <v>24.9</v>
+        <v>29.8</v>
       </c>
       <c r="AN16" s="1">
-        <v>63.5</v>
+        <v>47</v>
       </c>
       <c r="AO16" s="1">
-        <v>69.099999999999994</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="AP16" s="1">
-        <v>0.63</v>
+        <v>0.46</v>
       </c>
       <c r="AQ16" s="1">
-        <v>0.65</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="B17" s="1">
-        <v>57</v>
+        <v>63.7</v>
       </c>
       <c r="C17" s="1">
-        <v>74.2</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="D17" s="1">
-        <v>52.1</v>
+        <v>59.4</v>
       </c>
       <c r="E17" s="1">
-        <v>63.4</v>
+        <v>60.5</v>
       </c>
       <c r="F17" s="1">
-        <v>4.9000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="G17" s="1">
-        <v>10.8</v>
+        <v>12.6</v>
       </c>
       <c r="H17" s="1">
-        <v>34.5</v>
+        <v>38.1</v>
       </c>
       <c r="I17" s="1">
-        <v>37.700000000000003</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="J17" s="1">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="K17" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="L17" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="M17" s="1">
+        <v>5</v>
+      </c>
+      <c r="N17" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="O17" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="P17" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="U17" s="1">
+        <v>1</v>
+      </c>
+      <c r="V17" s="1">
+        <v>86.46</v>
+      </c>
+      <c r="W17" s="1">
+        <v>88.84</v>
+      </c>
+      <c r="X17" s="1">
+        <v>87.56</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>88.53</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>84.49</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>89.22</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="AG17" s="1">
         <v>3.3</v>
       </c>
-      <c r="L17" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="M17" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N17" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="O17" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="P17" s="1">
-        <v>12.7</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>19.2</v>
-      </c>
-      <c r="R17" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="S17" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="T17" s="1">
-        <v>0</v>
-      </c>
-      <c r="U17" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="V17" s="1">
-        <v>76.84</v>
-      </c>
-      <c r="W17" s="1">
-        <v>88.92</v>
-      </c>
-      <c r="X17" s="1">
-        <v>77.2</v>
-      </c>
-      <c r="Y17" s="1">
-        <v>88.94</v>
-      </c>
-      <c r="Z17" s="1">
-        <v>76</v>
-      </c>
-      <c r="AA17" s="1">
-        <v>88.89</v>
-      </c>
-      <c r="AB17" s="1">
-        <v>15.7</v>
-      </c>
-      <c r="AC17" s="1">
-        <v>7.9</v>
-      </c>
-      <c r="AD17" s="1">
-        <v>10.9</v>
-      </c>
-      <c r="AE17" s="1">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="AF17" s="1">
-        <v>4.8</v>
-      </c>
-      <c r="AG17" s="1">
-        <v>2.8</v>
-      </c>
       <c r="AH17" s="1">
-        <v>54.42</v>
+        <v>62.98</v>
       </c>
       <c r="AI17" s="1">
-        <v>59.46</v>
+        <v>53.39</v>
       </c>
       <c r="AJ17" s="1">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="AK17" s="1">
-        <v>0.4</v>
+        <v>0.47</v>
       </c>
       <c r="AL17" s="1">
-        <v>15.8</v>
+        <v>23</v>
       </c>
       <c r="AM17" s="1">
-        <v>19.3</v>
+        <v>24.9</v>
       </c>
       <c r="AN17" s="1">
-        <v>40.1</v>
+        <v>63.5</v>
       </c>
       <c r="AO17" s="1">
-        <v>58.1</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="AP17" s="1">
-        <v>0.56000000000000005</v>
+        <v>0.63</v>
       </c>
       <c r="AQ17" s="1">
-        <v>0.61</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" s="1">
-        <v>57.1</v>
+        <v>57</v>
       </c>
       <c r="C18" s="1">
-        <v>59.8</v>
+        <v>74.2</v>
       </c>
       <c r="D18" s="1">
-        <v>45.8</v>
+        <v>52.1</v>
       </c>
       <c r="E18" s="1">
-        <v>52.5</v>
+        <v>63.4</v>
       </c>
       <c r="F18" s="1">
-        <v>11.3</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G18" s="1">
-        <v>7.3</v>
+        <v>10.8</v>
       </c>
       <c r="H18" s="1">
-        <v>24.4</v>
+        <v>34.5</v>
       </c>
       <c r="I18" s="1">
-        <v>21.1</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="J18" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="K18" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N18" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="O18" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="P18" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>19.2</v>
+      </c>
+      <c r="R18" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="S18" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="T18" s="1">
+        <v>0</v>
+      </c>
+      <c r="U18" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="V18" s="1">
+        <v>76.84</v>
+      </c>
+      <c r="W18" s="1">
+        <v>88.92</v>
+      </c>
+      <c r="X18" s="1">
+        <v>77.2</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>88.94</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>76</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>88.89</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>15.7</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>10.9</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="AH18" s="1">
+        <v>54.42</v>
+      </c>
+      <c r="AI18" s="1">
+        <v>59.46</v>
+      </c>
+      <c r="AJ18" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="AK18" s="1">
         <v>0.4</v>
       </c>
-      <c r="K18" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="L18" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="M18" s="1">
-        <v>5.9</v>
-      </c>
-      <c r="N18" s="1">
-        <v>6.3</v>
-      </c>
-      <c r="O18" s="1">
-        <v>9</v>
-      </c>
-      <c r="P18" s="1">
-        <v>11.3</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>11.7</v>
-      </c>
-      <c r="R18" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="S18" s="1">
-        <v>3.6</v>
-      </c>
-      <c r="T18" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="U18" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="V18" s="1">
-        <v>78.69</v>
-      </c>
-      <c r="W18" s="1">
-        <v>87.06</v>
-      </c>
-      <c r="X18" s="1">
-        <v>78.98</v>
-      </c>
-      <c r="Y18" s="1">
-        <v>84.58</v>
-      </c>
-      <c r="Z18" s="1">
-        <v>78.36</v>
-      </c>
-      <c r="AA18" s="1">
-        <v>88.86</v>
-      </c>
-      <c r="AB18" s="1">
-        <v>12.4</v>
-      </c>
-      <c r="AC18" s="1">
-        <v>7.8</v>
-      </c>
-      <c r="AD18" s="1">
-        <v>6.6</v>
-      </c>
-      <c r="AE18" s="1">
-        <v>3.9</v>
-      </c>
-      <c r="AF18" s="1">
-        <v>5.8</v>
-      </c>
-      <c r="AG18" s="1">
-        <v>3.9</v>
-      </c>
-      <c r="AH18" s="1">
-        <v>46.48</v>
-      </c>
-      <c r="AI18" s="1">
-        <v>40.19</v>
-      </c>
-      <c r="AJ18" s="1">
-        <v>0.49</v>
-      </c>
-      <c r="AK18" s="1">
-        <v>0.63</v>
-      </c>
       <c r="AL18" s="1">
-        <v>9.6</v>
+        <v>15.8</v>
       </c>
       <c r="AM18" s="1">
-        <v>11.1</v>
+        <v>19.3</v>
       </c>
       <c r="AN18" s="1">
-        <v>38.5</v>
+        <v>40.1</v>
       </c>
       <c r="AO18" s="1">
-        <v>64</v>
+        <v>58.1</v>
       </c>
       <c r="AP18" s="1">
-        <v>0.6</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="AQ18" s="1">
-        <v>0.73</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="1">
-        <v>40.4</v>
+        <v>57.1</v>
       </c>
       <c r="C19" s="1">
-        <v>61.7</v>
+        <v>59.8</v>
       </c>
       <c r="D19" s="1">
-        <v>37.5</v>
+        <v>45.8</v>
       </c>
       <c r="E19" s="1">
-        <v>49.5</v>
+        <v>52.5</v>
       </c>
       <c r="F19" s="1">
-        <v>2.9</v>
+        <v>11.3</v>
       </c>
       <c r="G19" s="1">
-        <v>12.2</v>
+        <v>7.3</v>
       </c>
       <c r="H19" s="1">
-        <v>31.1</v>
+        <v>24.4</v>
       </c>
       <c r="I19" s="1">
-        <v>37.4</v>
+        <v>21.1</v>
       </c>
       <c r="J19" s="1">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="K19" s="1">
         <v>0.3</v>
       </c>
       <c r="L19" s="1">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="M19" s="1">
-        <v>1.7</v>
+        <v>5.9</v>
       </c>
       <c r="N19" s="1">
-        <v>2.6</v>
+        <v>6.3</v>
       </c>
       <c r="O19" s="1">
-        <v>3.1</v>
+        <v>9</v>
       </c>
       <c r="P19" s="1">
-        <v>2.2000000000000002</v>
+        <v>11.3</v>
       </c>
       <c r="Q19" s="1">
-        <v>4.0999999999999996</v>
+        <v>11.7</v>
       </c>
       <c r="R19" s="1">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="S19" s="1">
-        <v>0.5</v>
+        <v>3.6</v>
       </c>
       <c r="T19" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="U19" s="1">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="V19" s="1">
-        <v>67.08</v>
+        <v>78.69</v>
       </c>
       <c r="W19" s="1">
-        <v>81.150000000000006</v>
+        <v>87.06</v>
       </c>
       <c r="X19" s="1">
-        <v>76.900000000000006</v>
+        <v>78.98</v>
       </c>
       <c r="Y19" s="1">
-        <v>84.91</v>
+        <v>84.58</v>
       </c>
       <c r="Z19" s="1">
-        <v>40.79</v>
+        <v>78.36</v>
       </c>
       <c r="AA19" s="1">
-        <v>71.08</v>
+        <v>88.86</v>
       </c>
       <c r="AB19" s="1">
-        <v>18.399999999999999</v>
+        <v>12.4</v>
       </c>
       <c r="AC19" s="1">
-        <v>11.5</v>
+        <v>7.8</v>
       </c>
       <c r="AD19" s="1">
-        <v>9.4</v>
+        <v>6.6</v>
       </c>
       <c r="AE19" s="1">
-        <v>6.7</v>
+        <v>3.9</v>
       </c>
       <c r="AF19" s="1">
-        <v>9</v>
+        <v>5.8</v>
       </c>
       <c r="AG19" s="1">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="AH19" s="1">
-        <v>62.83</v>
+        <v>46.48</v>
       </c>
       <c r="AI19" s="1">
-        <v>75.56</v>
+        <v>40.19</v>
       </c>
       <c r="AJ19" s="1">
-        <v>0.2</v>
+        <v>0.49</v>
       </c>
       <c r="AK19" s="1">
-        <v>0.28000000000000003</v>
+        <v>0.63</v>
       </c>
       <c r="AL19" s="1">
-        <v>19.600000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AM19" s="1">
-        <v>29.1</v>
+        <v>11.1</v>
       </c>
       <c r="AN19" s="1">
-        <v>39.4</v>
+        <v>38.5</v>
       </c>
       <c r="AO19" s="1">
-        <v>51.1</v>
+        <v>64</v>
       </c>
       <c r="AP19" s="1">
-        <v>0.39</v>
+        <v>0.6</v>
       </c>
       <c r="AQ19" s="1">
-        <v>0.47</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" s="1">
-        <v>51.8</v>
+        <v>40.4</v>
       </c>
       <c r="C20" s="1">
-        <v>68.7</v>
+        <v>61.7</v>
       </c>
       <c r="D20" s="1">
-        <v>51.3</v>
+        <v>37.5</v>
       </c>
       <c r="E20" s="1">
-        <v>68.2</v>
+        <v>49.5</v>
       </c>
       <c r="F20" s="1">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="G20" s="1">
-        <v>0.5</v>
+        <v>12.2</v>
       </c>
       <c r="H20" s="1">
-        <v>48.6</v>
+        <v>31.1</v>
       </c>
       <c r="I20" s="1">
-        <v>57.4</v>
+        <v>37.4</v>
       </c>
       <c r="J20" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K20" s="1">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L20" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="M20" s="1">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="N20" s="1">
-        <v>0.4</v>
+        <v>2.6</v>
       </c>
       <c r="O20" s="1">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="P20" s="1">
-        <v>1.3</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="Q20" s="1">
         <v>4.0999999999999996</v>
       </c>
       <c r="R20" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="S20" s="1">
         <v>0.5</v>
       </c>
       <c r="T20" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="U20" s="1">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="V20" s="1">
-        <v>83.14</v>
+        <v>67.08</v>
       </c>
       <c r="W20" s="1">
-        <v>91.3</v>
+        <v>81.150000000000006</v>
       </c>
       <c r="X20" s="1">
-        <v>91.71</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="Y20" s="1">
-        <v>95.51</v>
+        <v>84.91</v>
       </c>
       <c r="Z20" s="1">
-        <v>30.23</v>
+        <v>40.79</v>
       </c>
       <c r="AA20" s="1">
-        <v>73.97</v>
+        <v>71.08</v>
       </c>
       <c r="AB20" s="1">
-        <v>10.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="AC20" s="1">
-        <v>6.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD20" s="1">
-        <v>4.4000000000000004</v>
+        <v>9.4</v>
       </c>
       <c r="AE20" s="1">
-        <v>2.7</v>
+        <v>6.7</v>
       </c>
       <c r="AF20" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AG20" s="1">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="AH20" s="1">
-        <v>71.260000000000005</v>
+        <v>62.83</v>
       </c>
       <c r="AI20" s="1">
-        <v>84.16</v>
+        <v>75.56</v>
       </c>
       <c r="AJ20" s="1">
-        <v>0.06</v>
+        <v>0.2</v>
       </c>
       <c r="AK20" s="1">
-        <v>0.18</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AL20" s="1">
-        <v>19.8</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="AM20" s="1">
-        <v>35.799999999999997</v>
+        <v>29.1</v>
       </c>
       <c r="AN20" s="1">
-        <v>41.6</v>
+        <v>39.4</v>
       </c>
       <c r="AO20" s="1">
-        <v>72.900000000000006</v>
+        <v>51.1</v>
       </c>
       <c r="AP20" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.39</v>
       </c>
       <c r="AQ20" s="1">
-        <v>0.54</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21" s="1">
-        <v>53.1</v>
+        <v>51.8</v>
       </c>
       <c r="C21" s="1">
-        <v>60.7</v>
+        <v>68.7</v>
       </c>
       <c r="D21" s="1">
-        <v>50.3</v>
+        <v>51.3</v>
       </c>
       <c r="E21" s="1">
-        <v>52.8</v>
+        <v>68.2</v>
       </c>
       <c r="F21" s="1">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="G21" s="1">
-        <v>7.9</v>
+        <v>0.5</v>
       </c>
       <c r="H21" s="1">
-        <v>45.8</v>
+        <v>48.6</v>
       </c>
       <c r="I21" s="1">
-        <v>46.6</v>
+        <v>57.4</v>
       </c>
       <c r="J21" s="1">
         <v>0.1</v>
       </c>
       <c r="K21" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="1">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="M21" s="1">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="N21" s="1">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="O21" s="1">
-        <v>0.4</v>
+        <v>2.1</v>
       </c>
       <c r="P21" s="1">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="Q21" s="1">
-        <v>3.4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="R21" s="1">
         <v>0</v>
       </c>
       <c r="S21" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T21" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="U21" s="1">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="V21" s="1">
-        <v>78.59</v>
+        <v>83.14</v>
       </c>
       <c r="W21" s="1">
-        <v>80.86</v>
+        <v>91.3</v>
       </c>
       <c r="X21" s="1">
-        <v>89.47</v>
+        <v>91.71</v>
       </c>
       <c r="Y21" s="1">
-        <v>89.46</v>
+        <v>95.51</v>
       </c>
       <c r="Z21" s="1">
-        <v>34.65</v>
+        <v>30.23</v>
       </c>
       <c r="AA21" s="1">
-        <v>46.56</v>
+        <v>73.97</v>
       </c>
       <c r="AB21" s="1">
-        <v>13.7</v>
+        <v>10.4</v>
       </c>
       <c r="AC21" s="1">
-        <v>12.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD21" s="1">
-        <v>5.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AE21" s="1">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="AF21" s="1">
-        <v>8.3000000000000007</v>
+        <v>6</v>
       </c>
       <c r="AG21" s="1">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="AH21" s="1">
-        <v>86.74</v>
+        <v>71.260000000000005</v>
       </c>
       <c r="AI21" s="1">
-        <v>88.26</v>
+        <v>84.16</v>
       </c>
       <c r="AJ21" s="1">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="AK21" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="AL21" s="1">
-        <v>17</v>
+        <v>19.8</v>
       </c>
       <c r="AM21" s="1">
-        <v>15</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="AN21" s="1">
-        <v>55.6</v>
+        <v>41.6</v>
       </c>
       <c r="AO21" s="1">
-        <v>62.2</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="AP21" s="1">
-        <v>0.33</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="AQ21" s="1">
-        <v>0.35</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" s="1">
-        <v>66.599999999999994</v>
+        <v>53.1</v>
       </c>
       <c r="C22" s="1">
-        <v>51.3</v>
+        <v>60.7</v>
       </c>
       <c r="D22" s="1">
-        <v>64.7</v>
+        <v>50.3</v>
       </c>
       <c r="E22" s="1">
-        <v>48</v>
+        <v>52.8</v>
       </c>
       <c r="F22" s="1">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="G22" s="1">
-        <v>3.3</v>
+        <v>7.9</v>
       </c>
       <c r="H22" s="1">
-        <v>21.8</v>
+        <v>45.8</v>
       </c>
       <c r="I22" s="1">
-        <v>16.7</v>
+        <v>46.6</v>
       </c>
       <c r="J22" s="1">
         <v>0.1</v>
       </c>
       <c r="K22" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="M22" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="O22" s="1">
         <v>0.4</v>
       </c>
-      <c r="L22" s="1">
-        <v>30.1</v>
-      </c>
-      <c r="M22" s="1">
-        <v>7.9</v>
-      </c>
-      <c r="N22" s="1">
+      <c r="P22" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="Q22" s="1">
         <v>3.4</v>
       </c>
-      <c r="O22" s="1">
-        <v>6.6</v>
-      </c>
-      <c r="P22" s="1">
-        <v>7.4</v>
-      </c>
-      <c r="Q22" s="1">
-        <v>9</v>
-      </c>
       <c r="R22" s="1">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="S22" s="1">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="T22" s="1">
+        <v>0</v>
+      </c>
+      <c r="U22" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="V22" s="1">
+        <v>78.59</v>
+      </c>
+      <c r="W22" s="1">
+        <v>80.86</v>
+      </c>
+      <c r="X22" s="1">
+        <v>89.47</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>89.46</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>34.65</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>46.56</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>13.7</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="AE22" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AG22" s="1">
+        <v>7</v>
+      </c>
+      <c r="AH22" s="1">
+        <v>86.74</v>
+      </c>
+      <c r="AI22" s="1">
+        <v>88.26</v>
+      </c>
+      <c r="AJ22" s="1">
         <v>0.1</v>
       </c>
-      <c r="U22" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="V22" s="1">
-        <v>87.08</v>
-      </c>
-      <c r="W22" s="1">
-        <v>85.87</v>
-      </c>
-      <c r="X22" s="1">
-        <v>85.55</v>
-      </c>
-      <c r="Y22" s="1">
-        <v>81.430000000000007</v>
-      </c>
-      <c r="Z22" s="1">
-        <v>87.89</v>
-      </c>
-      <c r="AA22" s="1">
-        <v>88.54</v>
-      </c>
-      <c r="AB22" s="1">
-        <v>9.6</v>
-      </c>
-      <c r="AC22" s="1">
-        <v>7.9</v>
-      </c>
-      <c r="AD22" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="AE22" s="1">
-        <v>3.9</v>
-      </c>
-      <c r="AF22" s="1">
-        <v>5.9</v>
-      </c>
-      <c r="AG22" s="1">
-        <v>4</v>
-      </c>
-      <c r="AH22" s="1">
-        <v>62.71</v>
-      </c>
-      <c r="AI22" s="1">
-        <v>34.79</v>
-      </c>
-      <c r="AJ22" s="1">
-        <v>0.51</v>
-      </c>
       <c r="AK22" s="1">
-        <v>0.7</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>8.8000000000000007</v>
+        <v>17</v>
       </c>
       <c r="AM22" s="1">
-        <v>12.2</v>
+        <v>15</v>
       </c>
       <c r="AN22" s="1">
-        <v>28.1</v>
+        <v>55.6</v>
       </c>
       <c r="AO22" s="1">
-        <v>59.4</v>
+        <v>62.2</v>
       </c>
       <c r="AP22" s="1">
-        <v>0.72</v>
+        <v>0.33</v>
       </c>
       <c r="AQ22" s="1">
-        <v>0.77</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23" s="1">
-        <v>29.7</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="C23" s="1">
-        <v>52.6</v>
+        <v>51.3</v>
       </c>
       <c r="D23" s="1">
-        <v>15.7</v>
+        <v>64.7</v>
       </c>
       <c r="E23" s="1">
+        <v>48</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="G23" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="H23" s="1">
+        <v>21.8</v>
+      </c>
+      <c r="I23" s="1">
+        <v>16.7</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="L23" s="1">
         <v>30.1</v>
       </c>
-      <c r="F23" s="1">
-        <v>14</v>
-      </c>
-      <c r="G23" s="1">
-        <v>22.5</v>
-      </c>
-      <c r="H23" s="1">
-        <v>10.7</v>
-      </c>
-      <c r="I23" s="1">
-        <v>20.7</v>
-      </c>
-      <c r="J23" s="1">
-        <v>0</v>
-      </c>
-      <c r="K23" s="1">
-        <v>0</v>
-      </c>
-      <c r="L23" s="1">
-        <v>0.7</v>
-      </c>
       <c r="M23" s="1">
-        <v>1</v>
+        <v>7.9</v>
       </c>
       <c r="N23" s="1">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="O23" s="1">
-        <v>1.2</v>
+        <v>6.6</v>
       </c>
       <c r="P23" s="1">
-        <v>4.0999999999999996</v>
+        <v>7.4</v>
       </c>
       <c r="Q23" s="1">
-        <v>4.0999999999999996</v>
+        <v>9</v>
       </c>
       <c r="R23" s="1">
-        <v>0.1</v>
+        <v>1.8</v>
       </c>
       <c r="S23" s="1">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="T23" s="1">
         <v>0.1</v>
       </c>
       <c r="U23" s="1">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="V23" s="1">
-        <v>48.16</v>
+        <v>87.08</v>
       </c>
       <c r="W23" s="1">
-        <v>70.989999999999995</v>
+        <v>85.87</v>
       </c>
       <c r="X23" s="1">
-        <v>71.81</v>
+        <v>85.55</v>
       </c>
       <c r="Y23" s="1">
-        <v>82.8</v>
+        <v>81.430000000000007</v>
       </c>
       <c r="Z23" s="1">
-        <v>28.25</v>
+        <v>87.89</v>
       </c>
       <c r="AA23" s="1">
-        <v>54.02</v>
+        <v>88.54</v>
       </c>
       <c r="AB23" s="1">
-        <v>16.899999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AC23" s="1">
-        <v>12.3</v>
+        <v>7.9</v>
       </c>
       <c r="AD23" s="1">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="AE23" s="1">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="AF23" s="1">
-        <v>12.7</v>
+        <v>5.9</v>
       </c>
       <c r="AG23" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AH23" s="1">
-        <v>35.549999999999997</v>
+        <v>62.71</v>
       </c>
       <c r="AI23" s="1">
-        <v>68.77</v>
+        <v>34.79</v>
       </c>
       <c r="AJ23" s="1">
-        <v>0.32</v>
+        <v>0.51</v>
       </c>
       <c r="AK23" s="1">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
       <c r="AL23" s="1">
-        <v>23.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AM23" s="1">
-        <v>14.8</v>
-      </c>
-      <c r="AN23" s="1"/>
+        <v>12.2</v>
+      </c>
+      <c r="AN23" s="1">
+        <v>28.1</v>
+      </c>
       <c r="AO23" s="1">
-        <v>85</v>
+        <v>59.4</v>
       </c>
       <c r="AP23" s="1">
-        <v>0.35</v>
+        <v>0.72</v>
       </c>
       <c r="AQ23" s="1">
-        <v>0.42</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24" s="1">
-        <v>51.4</v>
+        <v>29.7</v>
       </c>
       <c r="C24" s="1">
-        <v>71.7</v>
+        <v>52.6</v>
       </c>
       <c r="D24" s="1">
-        <v>49.6</v>
+        <v>15.7</v>
       </c>
       <c r="E24" s="1">
-        <v>65.5</v>
+        <v>30.1</v>
       </c>
       <c r="F24" s="1">
-        <v>1.8</v>
+        <v>14</v>
       </c>
       <c r="G24" s="1">
-        <v>6.2</v>
+        <v>22.5</v>
       </c>
       <c r="H24" s="1">
-        <v>42.2</v>
+        <v>10.7</v>
       </c>
       <c r="I24" s="1">
-        <v>51.9</v>
+        <v>20.7</v>
       </c>
       <c r="J24" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
         <v>0.7</v>
       </c>
-      <c r="L24" s="1">
-        <v>0.5</v>
-      </c>
       <c r="M24" s="1">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="N24" s="1">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="O24" s="1">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="P24" s="1">
-        <v>4.9000000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="Q24" s="1">
-        <v>8.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="R24" s="1">
         <v>0.1</v>
       </c>
       <c r="S24" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="T24" s="1">
         <v>0.1</v>
       </c>
       <c r="U24" s="1">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="V24" s="1">
-        <v>80.39</v>
+        <v>48.16</v>
       </c>
       <c r="W24" s="1">
-        <v>89.48</v>
+        <v>70.989999999999995</v>
       </c>
       <c r="X24" s="1">
-        <v>86.97</v>
+        <v>71.81</v>
       </c>
       <c r="Y24" s="1">
-        <v>93.26</v>
+        <v>82.8</v>
       </c>
       <c r="Z24" s="1">
-        <v>54.76</v>
+        <v>28.25</v>
       </c>
       <c r="AA24" s="1">
-        <v>76.790000000000006</v>
+        <v>54.02</v>
       </c>
       <c r="AB24" s="1">
-        <v>12.1</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="AC24" s="1">
-        <v>7.7</v>
+        <v>12.3</v>
       </c>
       <c r="AD24" s="1">
-        <v>6.4</v>
+        <v>4.2</v>
       </c>
       <c r="AE24" s="1">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="AF24" s="1">
-        <v>5.7</v>
+        <v>12.7</v>
       </c>
       <c r="AG24" s="1">
-        <v>3.9</v>
+        <v>8</v>
       </c>
       <c r="AH24" s="1">
-        <v>64.430000000000007</v>
+        <v>35.549999999999997</v>
       </c>
       <c r="AI24" s="1">
-        <v>79.239999999999995</v>
+        <v>68.77</v>
       </c>
       <c r="AJ24" s="1">
-        <v>0.17</v>
+        <v>0.32</v>
       </c>
       <c r="AK24" s="1">
-        <v>0.23</v>
+        <v>0.35</v>
       </c>
       <c r="AL24" s="1">
-        <v>20.399999999999999</v>
+        <v>23.8</v>
       </c>
       <c r="AM24" s="1">
-        <v>28.2</v>
-      </c>
-      <c r="AN24" s="1">
-        <v>39.299999999999997</v>
-      </c>
+        <v>14.8</v>
+      </c>
+      <c r="AN24" s="1"/>
       <c r="AO24" s="1">
-        <v>69.900000000000006</v>
+        <v>85</v>
       </c>
       <c r="AP24" s="1">
-        <v>0.44</v>
+        <v>0.35</v>
       </c>
       <c r="AQ24" s="1">
-        <v>0.52</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25" s="1">
-        <v>64.8</v>
+        <v>51.4</v>
       </c>
       <c r="C25" s="1">
-        <v>66.2</v>
+        <v>71.7</v>
       </c>
       <c r="D25" s="1">
-        <v>62.6</v>
+        <v>49.6</v>
       </c>
       <c r="E25" s="1">
-        <v>63.8</v>
+        <v>65.5</v>
       </c>
       <c r="F25" s="1">
-        <v>2.2000000000000002</v>
+        <v>1.8</v>
       </c>
       <c r="G25" s="1">
-        <v>2.4</v>
+        <v>6.2</v>
       </c>
       <c r="H25" s="1">
-        <v>50.7</v>
+        <v>42.2</v>
       </c>
       <c r="I25" s="1">
-        <v>49.1</v>
+        <v>51.9</v>
       </c>
       <c r="J25" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M25" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N25" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="O25" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="P25" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="R25" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="S25" s="1">
         <v>0.4</v>
       </c>
-      <c r="K25" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="L25" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="M25" s="1">
-        <v>1.9</v>
-      </c>
-      <c r="N25" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="O25" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="P25" s="1">
-        <v>7.1</v>
-      </c>
-      <c r="Q25" s="1">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="R25" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="S25" s="1">
-        <v>0.2</v>
-      </c>
       <c r="T25" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="U25" s="1">
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
       <c r="V25" s="1">
-        <v>86.58</v>
+        <v>80.39</v>
       </c>
       <c r="W25" s="1">
-        <v>86.92</v>
+        <v>89.48</v>
       </c>
       <c r="X25" s="1">
-        <v>90.44</v>
+        <v>86.97</v>
       </c>
       <c r="Y25" s="1">
-        <v>89.67</v>
+        <v>93.26</v>
       </c>
       <c r="Z25" s="1">
-        <v>72.78</v>
+        <v>54.76</v>
       </c>
       <c r="AA25" s="1">
-        <v>78.569999999999993</v>
+        <v>76.790000000000006</v>
       </c>
       <c r="AB25" s="1">
-        <v>9.6999999999999993</v>
+        <v>12.1</v>
       </c>
       <c r="AC25" s="1">
-        <v>9.6</v>
+        <v>7.7</v>
       </c>
       <c r="AD25" s="1">
-        <v>5.4</v>
+        <v>6.4</v>
       </c>
       <c r="AE25" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="AF25" s="1">
         <v>5.7</v>
-      </c>
-      <c r="AF25" s="1">
-        <v>4.3</v>
       </c>
       <c r="AG25" s="1">
         <v>3.9</v>
       </c>
       <c r="AH25" s="1">
-        <v>79.47</v>
+        <v>64.430000000000007</v>
       </c>
       <c r="AI25" s="1">
-        <v>76.959999999999994</v>
+        <v>79.239999999999995</v>
       </c>
       <c r="AJ25" s="1">
-        <v>0.22</v>
+        <v>0.17</v>
       </c>
       <c r="AK25" s="1">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AL25" s="1">
-        <v>18.5</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="AM25" s="1">
-        <v>21.9</v>
+        <v>28.2</v>
       </c>
       <c r="AN25" s="1">
-        <v>36.299999999999997</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="AO25" s="1">
-        <v>52.1</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="AP25" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="AQ25" s="1">
         <v>0.52</v>
-      </c>
-      <c r="AQ25" s="1">
-        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B26" s="1">
-        <v>23.6</v>
+        <v>64.8</v>
       </c>
       <c r="C26" s="1">
-        <v>61.3</v>
+        <v>66.2</v>
       </c>
       <c r="D26" s="1">
-        <v>12.7</v>
+        <v>62.6</v>
       </c>
       <c r="E26" s="1">
-        <v>18.2</v>
+        <v>63.8</v>
       </c>
       <c r="F26" s="1">
-        <v>10.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G26" s="1">
-        <v>43.1</v>
+        <v>2.4</v>
       </c>
       <c r="H26" s="1">
-        <v>3.1</v>
+        <v>50.7</v>
       </c>
       <c r="I26" s="1">
-        <v>3.7</v>
+        <v>49.1</v>
       </c>
       <c r="J26" s="1">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="K26" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="L26" s="1">
-        <v>3.7</v>
+        <v>1.6</v>
       </c>
       <c r="M26" s="1">
-        <v>4.9000000000000004</v>
+        <v>1.9</v>
       </c>
       <c r="N26" s="1">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="O26" s="1">
-        <v>4.4000000000000004</v>
+        <v>1.8</v>
       </c>
       <c r="P26" s="1">
-        <v>1.3</v>
+        <v>7.1</v>
       </c>
       <c r="Q26" s="1">
-        <v>4.8</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="S26" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="T26" s="1">
         <v>0.2</v>
       </c>
       <c r="U26" s="1">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="V26" s="1">
-        <v>29.67</v>
+        <v>86.58</v>
       </c>
       <c r="W26" s="1">
-        <v>59.87</v>
+        <v>86.92</v>
       </c>
       <c r="X26" s="1">
-        <v>15.53</v>
+        <v>90.44</v>
       </c>
       <c r="Y26" s="1">
-        <v>33.04</v>
+        <v>89.67</v>
       </c>
       <c r="Z26" s="1">
-        <v>42.79</v>
+        <v>72.78</v>
       </c>
       <c r="AA26" s="1">
-        <v>75.52</v>
+        <v>78.569999999999993</v>
       </c>
       <c r="AB26" s="1">
-        <v>30.1</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="AC26" s="1">
-        <v>12.2</v>
+        <v>9.6</v>
       </c>
       <c r="AD26" s="1">
-        <v>17.399999999999999</v>
+        <v>5.4</v>
       </c>
       <c r="AE26" s="1">
-        <v>7.5</v>
+        <v>5.7</v>
       </c>
       <c r="AF26" s="1">
-        <v>12.7</v>
+        <v>4.3</v>
       </c>
       <c r="AG26" s="1">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="AH26" s="1">
-        <v>23.08</v>
+        <v>79.47</v>
       </c>
       <c r="AI26" s="1">
-        <v>26.92</v>
+        <v>76.959999999999994</v>
       </c>
       <c r="AJ26" s="1">
-        <v>0.62</v>
+        <v>0.22</v>
       </c>
       <c r="AK26" s="1">
-        <v>0.66</v>
+        <v>0.25</v>
       </c>
       <c r="AL26" s="1">
-        <v>8.6999999999999993</v>
+        <v>18.5</v>
       </c>
       <c r="AM26" s="1">
-        <v>6</v>
+        <v>21.9</v>
       </c>
       <c r="AN26" s="1">
-        <v>46.7</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="AO26" s="1">
-        <v>45.4</v>
+        <v>52.1</v>
       </c>
       <c r="AP26" s="1">
-        <v>0.32</v>
+        <v>0.52</v>
       </c>
       <c r="AQ26" s="1">
-        <v>0.38</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B27" s="1">
-        <v>24.3</v>
+        <v>23.6</v>
       </c>
       <c r="C27" s="1">
-        <v>27.4</v>
+        <v>61.3</v>
       </c>
       <c r="D27" s="1">
-        <v>21.9</v>
+        <v>12.7</v>
       </c>
       <c r="E27" s="1">
-        <v>22.5</v>
+        <v>18.2</v>
       </c>
       <c r="F27" s="1">
-        <v>2.4</v>
+        <v>10.9</v>
       </c>
       <c r="G27" s="1">
-        <v>4.9000000000000004</v>
+        <v>43.1</v>
       </c>
       <c r="H27" s="1">
-        <v>6.2</v>
+        <v>3.1</v>
       </c>
       <c r="I27" s="1">
-        <v>5.6</v>
+        <v>3.7</v>
       </c>
       <c r="J27" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K27" s="1">
         <v>0</v>
       </c>
       <c r="L27" s="1">
-        <v>2.1</v>
+        <v>3.7</v>
       </c>
       <c r="M27" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="N27" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="O27" s="1">
         <v>4.4000000000000004</v>
-      </c>
-      <c r="N27" s="1">
-        <v>11.7</v>
-      </c>
-      <c r="O27" s="1">
-        <v>8.3000000000000007</v>
       </c>
       <c r="P27" s="1">
         <v>1.3</v>
       </c>
       <c r="Q27" s="1">
-        <v>2.7</v>
+        <v>4.8</v>
       </c>
       <c r="R27" s="1">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="S27" s="1">
-        <v>1.1000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="T27" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="U27" s="1">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="V27" s="1">
-        <v>50.81</v>
+        <v>29.67</v>
       </c>
       <c r="W27" s="1">
-        <v>45.55</v>
+        <v>59.87</v>
       </c>
       <c r="X27" s="1">
-        <v>51.24</v>
+        <v>15.53</v>
       </c>
       <c r="Y27" s="1">
-        <v>39.44</v>
+        <v>33.04</v>
       </c>
       <c r="Z27" s="1">
-        <v>50.65</v>
+        <v>42.79</v>
       </c>
       <c r="AA27" s="1">
-        <v>48.01</v>
+        <v>75.52</v>
       </c>
       <c r="AB27" s="1">
-        <v>21.2</v>
+        <v>30.1</v>
       </c>
       <c r="AC27" s="1">
-        <v>26.9</v>
+        <v>12.2</v>
       </c>
       <c r="AD27" s="1">
-        <v>5.9</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="AE27" s="1">
-        <v>8.6</v>
+        <v>7.5</v>
       </c>
       <c r="AF27" s="1">
-        <v>15.3</v>
+        <v>12.7</v>
       </c>
       <c r="AG27" s="1">
-        <v>18.3</v>
+        <v>4.7</v>
       </c>
       <c r="AH27" s="1">
-        <v>52</v>
+        <v>23.08</v>
       </c>
       <c r="AI27" s="1">
-        <v>36.89</v>
+        <v>26.92</v>
       </c>
       <c r="AJ27" s="1">
-        <v>0.48</v>
+        <v>0.62</v>
       </c>
       <c r="AK27" s="1">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
       <c r="AL27" s="1">
-        <v>24.2</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="AM27" s="1">
-        <v>27.4</v>
+        <v>6</v>
       </c>
       <c r="AN27" s="1">
-        <v>61.3</v>
+        <v>46.7</v>
       </c>
       <c r="AO27" s="1">
-        <v>67.2</v>
+        <v>45.4</v>
       </c>
       <c r="AP27" s="1">
-        <v>0.49</v>
+        <v>0.32</v>
       </c>
       <c r="AQ27" s="1">
-        <v>0.48</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B28" s="1">
-        <v>35.299999999999997</v>
+        <v>24.3</v>
       </c>
       <c r="C28" s="1">
-        <v>31.2</v>
+        <v>27.4</v>
       </c>
       <c r="D28" s="1">
-        <v>35.200000000000003</v>
+        <v>21.9</v>
       </c>
       <c r="E28" s="1">
-        <v>30.8</v>
+        <v>22.5</v>
       </c>
       <c r="F28" s="1">
-        <v>0.1</v>
+        <v>2.4</v>
       </c>
       <c r="G28" s="1">
-        <v>0.4</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H28" s="1">
-        <v>17.399999999999999</v>
+        <v>6.2</v>
       </c>
       <c r="I28" s="1">
-        <v>13</v>
+        <v>5.6</v>
       </c>
       <c r="J28" s="1">
         <v>0</v>
@@ -4063,129 +3994,129 @@
         <v>0</v>
       </c>
       <c r="L28" s="1">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="M28" s="1">
-        <v>2.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="N28" s="1">
-        <v>13.2</v>
+        <v>11.7</v>
       </c>
       <c r="O28" s="1">
-        <v>12.9</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="P28" s="1">
         <v>1.3</v>
       </c>
       <c r="Q28" s="1">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="R28" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="S28" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="T28" s="1">
         <v>0</v>
       </c>
-      <c r="S28" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="T28" s="1">
-        <v>-0.1</v>
-      </c>
       <c r="U28" s="1">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="V28" s="1">
-        <v>63.77</v>
+        <v>50.81</v>
       </c>
       <c r="W28" s="1">
-        <v>61.97</v>
+        <v>45.55</v>
       </c>
       <c r="X28" s="1">
-        <v>69.599999999999994</v>
+        <v>51.24</v>
       </c>
       <c r="Y28" s="1">
-        <v>68.06</v>
+        <v>39.44</v>
       </c>
       <c r="Z28" s="1">
-        <v>58.94</v>
+        <v>50.65</v>
       </c>
       <c r="AA28" s="1">
-        <v>58.17</v>
+        <v>48.01</v>
       </c>
       <c r="AB28" s="1">
-        <v>20</v>
+        <v>21.2</v>
       </c>
       <c r="AC28" s="1">
-        <v>18.899999999999999</v>
+        <v>26.9</v>
       </c>
       <c r="AD28" s="1">
-        <v>7.6</v>
+        <v>5.9</v>
       </c>
       <c r="AE28" s="1">
-        <v>6.1</v>
+        <v>8.6</v>
       </c>
       <c r="AF28" s="1">
-        <v>12.4</v>
+        <v>15.3</v>
       </c>
       <c r="AG28" s="1">
-        <v>12.8</v>
+        <v>18.3</v>
       </c>
       <c r="AH28" s="1">
-        <v>56.49</v>
+        <v>52</v>
       </c>
       <c r="AI28" s="1">
-        <v>42.21</v>
+        <v>36.89</v>
       </c>
       <c r="AJ28" s="1">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
       <c r="AK28" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="AL28" s="1">
+        <v>24.2</v>
+      </c>
+      <c r="AM28" s="1">
+        <v>27.4</v>
+      </c>
+      <c r="AN28" s="1">
+        <v>61.3</v>
+      </c>
+      <c r="AO28" s="1">
+        <v>67.2</v>
+      </c>
+      <c r="AP28" s="1">
         <v>0.49</v>
       </c>
-      <c r="AL28" s="1">
-        <v>14.2</v>
-      </c>
-      <c r="AM28" s="1">
-        <v>14.5</v>
-      </c>
-      <c r="AN28" s="1">
-        <v>52.8</v>
-      </c>
-      <c r="AO28" s="1">
-        <v>58.4</v>
-      </c>
-      <c r="AP28" s="1">
-        <v>0.56999999999999995</v>
-      </c>
       <c r="AQ28" s="1">
-        <v>0.57999999999999996</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B29" s="1">
-        <v>26.5</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="C29" s="1">
-        <v>57.4</v>
+        <v>31.2</v>
       </c>
       <c r="D29" s="1">
-        <v>21.3</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="E29" s="1">
-        <v>45.3</v>
+        <v>30.8</v>
       </c>
       <c r="F29" s="1">
-        <v>5.2</v>
+        <v>0.1</v>
       </c>
       <c r="G29" s="1">
-        <v>12.1</v>
+        <v>0.4</v>
       </c>
       <c r="H29" s="1">
-        <v>9.1</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="I29" s="1">
-        <v>14.4</v>
+        <v>13</v>
       </c>
       <c r="J29" s="1">
         <v>0</v>
@@ -4194,1574 +4125,1707 @@
         <v>0</v>
       </c>
       <c r="L29" s="1">
-        <v>6.7</v>
+        <v>3.4</v>
       </c>
       <c r="M29" s="1">
-        <v>19.8</v>
+        <v>2.8</v>
       </c>
       <c r="N29" s="1">
-        <v>4</v>
+        <v>13.2</v>
       </c>
       <c r="O29" s="1">
-        <v>6.4</v>
+        <v>12.9</v>
       </c>
       <c r="P29" s="1">
         <v>1.3</v>
       </c>
       <c r="Q29" s="1">
-        <v>3.3</v>
+        <v>1.9</v>
       </c>
       <c r="R29" s="1">
+        <v>0</v>
+      </c>
+      <c r="S29" s="1">
         <v>0.1</v>
       </c>
-      <c r="S29" s="1">
-        <v>0.3</v>
-      </c>
       <c r="T29" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="U29" s="1">
         <v>0.1</v>
       </c>
-      <c r="U29" s="1">
-        <v>1.1000000000000001</v>
-      </c>
       <c r="V29" s="1">
-        <v>48.85</v>
+        <v>63.77</v>
       </c>
       <c r="W29" s="1">
-        <v>83.27</v>
+        <v>61.97</v>
       </c>
       <c r="X29" s="1">
-        <v>45.27</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="Y29" s="1">
-        <v>75.790000000000006</v>
+        <v>68.06</v>
       </c>
       <c r="Z29" s="1">
-        <v>51.91</v>
+        <v>58.94</v>
       </c>
       <c r="AA29" s="1">
-        <v>87.29</v>
+        <v>58.17</v>
       </c>
       <c r="AB29" s="1">
-        <v>22.3</v>
+        <v>20</v>
       </c>
       <c r="AC29" s="1">
-        <v>9.1</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="AD29" s="1">
-        <v>11</v>
+        <v>7.6</v>
       </c>
       <c r="AE29" s="1">
-        <v>4.5999999999999996</v>
+        <v>6.1</v>
       </c>
       <c r="AF29" s="1">
-        <v>11.3</v>
+        <v>12.4</v>
       </c>
       <c r="AG29" s="1">
-        <v>4.5</v>
+        <v>12.8</v>
       </c>
       <c r="AH29" s="1">
-        <v>20.09</v>
+        <v>56.49</v>
       </c>
       <c r="AI29" s="1">
-        <v>43.71</v>
+        <v>42.21</v>
       </c>
       <c r="AJ29" s="1">
-        <v>0.54</v>
+        <v>0.46</v>
       </c>
       <c r="AK29" s="1">
-        <v>0.55000000000000004</v>
+        <v>0.49</v>
       </c>
       <c r="AL29" s="1">
-        <v>6.4</v>
+        <v>14.2</v>
       </c>
       <c r="AM29" s="1">
-        <v>9.6999999999999993</v>
+        <v>14.5</v>
       </c>
       <c r="AN29" s="1">
-        <v>32</v>
+        <v>52.8</v>
       </c>
       <c r="AO29" s="1">
-        <v>60.2</v>
+        <v>58.4</v>
       </c>
       <c r="AP29" s="1">
-        <v>0.47</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="AQ29" s="1">
-        <v>0.65</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B30" s="1">
-        <v>57.3</v>
+        <v>26.5</v>
       </c>
       <c r="C30" s="1">
-        <v>74.099999999999994</v>
+        <v>57.4</v>
       </c>
       <c r="D30" s="1">
-        <v>45.4</v>
+        <v>21.3</v>
       </c>
       <c r="E30" s="1">
-        <v>48.8</v>
+        <v>45.3</v>
       </c>
       <c r="F30" s="1">
-        <v>11.9</v>
+        <v>5.2</v>
       </c>
       <c r="G30" s="1">
-        <v>25.3</v>
+        <v>12.1</v>
       </c>
       <c r="H30" s="1">
-        <v>28.2</v>
+        <v>9.1</v>
       </c>
       <c r="I30" s="1">
-        <v>28</v>
+        <v>14.4</v>
       </c>
       <c r="J30" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="M30" s="1">
+        <v>19.8</v>
+      </c>
+      <c r="N30" s="1">
+        <v>4</v>
+      </c>
+      <c r="O30" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="P30" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="R30" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="S30" s="1">
         <v>0.3</v>
       </c>
-      <c r="L30" s="1">
+      <c r="T30" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="U30" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M30" s="1">
-        <v>2.6</v>
-      </c>
-      <c r="N30" s="1">
-        <v>12</v>
-      </c>
-      <c r="O30" s="1">
-        <v>10.8</v>
-      </c>
-      <c r="P30" s="1">
-        <v>3.4</v>
-      </c>
-      <c r="Q30" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="R30" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="S30" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="T30" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="U30" s="1">
-        <v>1.4</v>
-      </c>
       <c r="V30" s="1">
-        <v>76.95</v>
+        <v>48.85</v>
       </c>
       <c r="W30" s="1">
-        <v>87.14</v>
+        <v>83.27</v>
       </c>
       <c r="X30" s="1">
-        <v>76.14</v>
+        <v>45.27</v>
       </c>
       <c r="Y30" s="1">
-        <v>85.76</v>
+        <v>75.790000000000006</v>
       </c>
       <c r="Z30" s="1">
-        <v>78.34</v>
+        <v>51.91</v>
       </c>
       <c r="AA30" s="1">
-        <v>89.13</v>
+        <v>87.29</v>
       </c>
       <c r="AB30" s="1">
-        <v>13.6</v>
+        <v>22.3</v>
       </c>
       <c r="AC30" s="1">
-        <v>7.2</v>
+        <v>9.1</v>
       </c>
       <c r="AD30" s="1">
-        <v>8.9</v>
+        <v>11</v>
       </c>
       <c r="AE30" s="1">
-        <v>4.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AF30" s="1">
-        <v>4.7</v>
+        <v>11.3</v>
       </c>
       <c r="AG30" s="1">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="AH30" s="1">
-        <v>57.79</v>
+        <v>20.09</v>
       </c>
       <c r="AI30" s="1">
-        <v>57.38</v>
+        <v>43.71</v>
       </c>
       <c r="AJ30" s="1">
-        <v>0.39</v>
+        <v>0.54</v>
       </c>
       <c r="AK30" s="1">
-        <v>0.46</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AL30" s="1">
-        <v>23</v>
+        <v>6.4</v>
       </c>
       <c r="AM30" s="1">
-        <v>25.5</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="AN30" s="1">
-        <v>61.6</v>
+        <v>32</v>
       </c>
       <c r="AO30" s="1">
-        <v>73.099999999999994</v>
+        <v>60.2</v>
       </c>
       <c r="AP30" s="1">
-        <v>0.54</v>
+        <v>0.47</v>
       </c>
       <c r="AQ30" s="1">
-        <v>0.56000000000000005</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B31" s="1">
-        <v>61.9</v>
+        <v>57.3</v>
       </c>
       <c r="C31" s="1">
-        <v>66</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="D31" s="1">
-        <v>61.2</v>
+        <v>45.4</v>
       </c>
       <c r="E31" s="1">
-        <v>62.1</v>
+        <v>48.8</v>
       </c>
       <c r="F31" s="1">
-        <v>0.7</v>
+        <v>11.9</v>
       </c>
       <c r="G31" s="1">
-        <v>3.9</v>
+        <v>25.3</v>
       </c>
       <c r="H31" s="1">
-        <v>57.4</v>
+        <v>28.2</v>
       </c>
       <c r="I31" s="1">
-        <v>53.8</v>
+        <v>28</v>
       </c>
       <c r="J31" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K31" s="1">
         <v>0.3</v>
       </c>
       <c r="L31" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M31" s="1">
         <v>2.6</v>
       </c>
-      <c r="M31" s="1">
-        <v>1.9</v>
-      </c>
       <c r="N31" s="1">
-        <v>0.4</v>
+        <v>12</v>
       </c>
       <c r="O31" s="1">
-        <v>0.5</v>
+        <v>10.8</v>
       </c>
       <c r="P31" s="1">
-        <v>0.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q31" s="1">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="R31" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="S31" s="1">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="T31" s="1">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="U31" s="1">
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
       <c r="V31" s="1">
-        <v>88.06</v>
+        <v>76.95</v>
       </c>
       <c r="W31" s="1">
-        <v>85.54</v>
+        <v>87.14</v>
       </c>
       <c r="X31" s="1">
-        <v>94.25</v>
+        <v>76.14</v>
       </c>
       <c r="Y31" s="1">
-        <v>88.11</v>
+        <v>85.76</v>
       </c>
       <c r="Z31" s="1">
-        <v>44.19</v>
+        <v>78.34</v>
       </c>
       <c r="AA31" s="1">
-        <v>71.430000000000007</v>
+        <v>89.13</v>
       </c>
       <c r="AB31" s="1">
-        <v>8.3000000000000007</v>
+        <v>13.6</v>
       </c>
       <c r="AC31" s="1">
-        <v>10.5</v>
+        <v>7.2</v>
       </c>
       <c r="AD31" s="1">
-        <v>3.5</v>
+        <v>8.9</v>
       </c>
       <c r="AE31" s="1">
-        <v>7.3</v>
+        <v>4.7</v>
       </c>
       <c r="AF31" s="1">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="AG31" s="1">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="AH31" s="1">
-        <v>92.43</v>
+        <v>57.79</v>
       </c>
       <c r="AI31" s="1">
-        <v>86.63</v>
+        <v>57.38</v>
       </c>
       <c r="AJ31" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.39</v>
       </c>
       <c r="AK31" s="1">
-        <v>0.15</v>
+        <v>0.46</v>
       </c>
       <c r="AL31" s="1">
-        <v>35.9</v>
+        <v>23</v>
       </c>
       <c r="AM31" s="1">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
       <c r="AN31" s="1">
-        <v>70.5</v>
+        <v>61.6</v>
       </c>
       <c r="AO31" s="1">
-        <v>63</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="AP31" s="1">
-        <v>0.35</v>
+        <v>0.54</v>
       </c>
       <c r="AQ31" s="1">
-        <v>0.44</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B32" s="1">
-        <v>75.8</v>
+        <v>61.9</v>
       </c>
       <c r="C32" s="1">
-        <v>66.599999999999994</v>
+        <v>66</v>
       </c>
       <c r="D32" s="1">
-        <v>66.3</v>
+        <v>61.2</v>
       </c>
       <c r="E32" s="1">
-        <v>50.5</v>
+        <v>62.1</v>
       </c>
       <c r="F32" s="1">
-        <v>9.5</v>
+        <v>0.7</v>
       </c>
       <c r="G32" s="1">
-        <v>16.100000000000001</v>
+        <v>3.9</v>
       </c>
       <c r="H32" s="1">
-        <v>37.5</v>
+        <v>57.4</v>
       </c>
       <c r="I32" s="1">
-        <v>22.8</v>
+        <v>53.8</v>
       </c>
       <c r="J32" s="1">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="K32" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="L32" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="M32" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="O32" s="1">
         <v>0.5</v>
       </c>
-      <c r="L32" s="1">
-        <v>6.8</v>
-      </c>
-      <c r="M32" s="1">
-        <v>3.1</v>
-      </c>
-      <c r="N32" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="O32" s="1">
-        <v>1.5</v>
-      </c>
       <c r="P32" s="1">
-        <v>18.899999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="Q32" s="1">
-        <v>22.2</v>
+        <v>5</v>
       </c>
       <c r="R32" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="S32" s="1">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="T32" s="1">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="U32" s="1">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="V32" s="1">
-        <v>91.45</v>
+        <v>88.06</v>
       </c>
       <c r="W32" s="1">
-        <v>83.61</v>
+        <v>85.54</v>
       </c>
       <c r="X32" s="1">
-        <v>90.93</v>
+        <v>94.25</v>
       </c>
       <c r="Y32" s="1">
-        <v>78.98</v>
+        <v>88.11</v>
       </c>
       <c r="Z32" s="1">
-        <v>92.16</v>
+        <v>44.19</v>
       </c>
       <c r="AA32" s="1">
-        <v>88.03</v>
+        <v>71.430000000000007</v>
       </c>
       <c r="AB32" s="1">
-        <v>6.2</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="AC32" s="1">
-        <v>9.9</v>
+        <v>10.5</v>
       </c>
       <c r="AD32" s="1">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="AE32" s="1">
-        <v>6.2</v>
+        <v>7.3</v>
       </c>
       <c r="AF32" s="1">
-        <v>2.4</v>
+        <v>4.8</v>
       </c>
       <c r="AG32" s="1">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="AH32" s="1">
-        <v>74.260000000000005</v>
+        <v>92.43</v>
       </c>
       <c r="AI32" s="1">
-        <v>45.15</v>
+        <v>86.63</v>
       </c>
       <c r="AJ32" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AK32" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="AL32" s="1">
+        <v>35.9</v>
+      </c>
+      <c r="AM32" s="1">
+        <v>25.7</v>
+      </c>
+      <c r="AN32" s="1">
+        <v>70.5</v>
+      </c>
+      <c r="AO32" s="1">
+        <v>63</v>
+      </c>
+      <c r="AP32" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="AQ32" s="1">
         <v>0.44</v>
-      </c>
-      <c r="AK32" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="AL32" s="1">
-        <v>29.4</v>
-      </c>
-      <c r="AM32" s="1">
-        <v>21.7</v>
-      </c>
-      <c r="AN32" s="1">
-        <v>79.2</v>
-      </c>
-      <c r="AO32" s="1">
-        <v>78.2</v>
-      </c>
-      <c r="AP32" s="1">
-        <v>0.66</v>
-      </c>
-      <c r="AQ32" s="1">
-        <v>0.59</v>
       </c>
     </row>
     <row r="33" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B33" s="1">
-        <v>59.7</v>
+        <v>75.8</v>
       </c>
       <c r="C33" s="1">
-        <v>72.3</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="D33" s="1">
-        <v>53.5</v>
+        <v>66.3</v>
       </c>
       <c r="E33" s="1">
-        <v>62.1</v>
+        <v>50.5</v>
       </c>
       <c r="F33" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="G33" s="1">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="H33" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="I33" s="1">
+        <v>22.8</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L33" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="M33" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="N33" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="O33" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="P33" s="1">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>22.2</v>
+      </c>
+      <c r="R33" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="S33" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="T33" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="U33" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="V33" s="1">
+        <v>91.45</v>
+      </c>
+      <c r="W33" s="1">
+        <v>83.61</v>
+      </c>
+      <c r="X33" s="1">
+        <v>90.93</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>78.98</v>
+      </c>
+      <c r="Z33" s="1">
+        <v>92.16</v>
+      </c>
+      <c r="AA33" s="1">
+        <v>88.03</v>
+      </c>
+      <c r="AB33" s="1">
         <v>6.2</v>
       </c>
-      <c r="G33" s="1">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="H33" s="1">
-        <v>40.700000000000003</v>
-      </c>
-      <c r="I33" s="1">
-        <v>42.4</v>
-      </c>
-      <c r="J33" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="K33" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="L33" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="M33" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="N33" s="1">
+      <c r="AC33" s="1">
+        <v>9.9</v>
+      </c>
+      <c r="AD33" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="AE33" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="AF33" s="1">
         <v>2.4</v>
-      </c>
-      <c r="O33" s="1">
-        <v>3.1</v>
-      </c>
-      <c r="P33" s="1">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="Q33" s="1">
-        <v>13.7</v>
-      </c>
-      <c r="R33" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="S33" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="T33" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="U33" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="V33" s="1">
-        <v>81.31</v>
-      </c>
-      <c r="W33" s="1">
-        <v>89.1</v>
-      </c>
-      <c r="X33" s="1">
-        <v>86.11</v>
-      </c>
-      <c r="Y33" s="1">
-        <v>91.63</v>
-      </c>
-      <c r="Z33" s="1">
-        <v>68.849999999999994</v>
-      </c>
-      <c r="AA33" s="1">
-        <v>83.98</v>
-      </c>
-      <c r="AB33" s="1">
-        <v>12.3</v>
-      </c>
-      <c r="AC33" s="1">
-        <v>7.6</v>
-      </c>
-      <c r="AD33" s="1">
-        <v>6.6</v>
-      </c>
-      <c r="AE33" s="1">
-        <v>3.9</v>
-      </c>
-      <c r="AF33" s="1">
-        <v>5.7</v>
       </c>
       <c r="AG33" s="1">
         <v>3.7</v>
       </c>
       <c r="AH33" s="1">
-        <v>65.540000000000006</v>
+        <v>74.260000000000005</v>
       </c>
       <c r="AI33" s="1">
-        <v>68.28</v>
+        <v>45.15</v>
       </c>
       <c r="AJ33" s="1">
-        <v>0.26</v>
+        <v>0.44</v>
       </c>
       <c r="AK33" s="1">
-        <v>0.34</v>
+        <v>0.45</v>
       </c>
       <c r="AL33" s="1">
-        <v>17.5</v>
+        <v>29.4</v>
       </c>
       <c r="AM33" s="1">
-        <v>24.1</v>
+        <v>21.7</v>
       </c>
       <c r="AN33" s="1">
-        <v>43.5</v>
+        <v>79.2</v>
       </c>
       <c r="AO33" s="1">
-        <v>61</v>
+        <v>78.2</v>
       </c>
       <c r="AP33" s="1">
-        <v>0.5</v>
+        <v>0.66</v>
       </c>
       <c r="AQ33" s="1">
-        <v>0.57999999999999996</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="34" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B34" s="1">
-        <v>46.7</v>
+        <v>59.7</v>
       </c>
       <c r="C34" s="1">
-        <v>69.099999999999994</v>
+        <v>72.3</v>
       </c>
       <c r="D34" s="1">
-        <v>45.9</v>
+        <v>53.5</v>
       </c>
       <c r="E34" s="1">
-        <v>54.9</v>
+        <v>62.1</v>
       </c>
       <c r="F34" s="1">
-        <v>0.8</v>
+        <v>6.2</v>
       </c>
       <c r="G34" s="1">
-        <v>14.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="H34" s="1">
-        <v>17.600000000000001</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="I34" s="1">
-        <v>14.5</v>
+        <v>42.4</v>
       </c>
       <c r="J34" s="1">
-        <v>3.4</v>
+        <v>0.2</v>
       </c>
       <c r="K34" s="1">
-        <v>1.7</v>
+        <v>0.3</v>
       </c>
       <c r="L34" s="1">
-        <v>6.3</v>
+        <v>1.2</v>
       </c>
       <c r="M34" s="1">
-        <v>6.2</v>
+        <v>1.4</v>
       </c>
       <c r="N34" s="1">
-        <v>11.6</v>
+        <v>2.4</v>
       </c>
       <c r="O34" s="1">
-        <v>18.2</v>
+        <v>3.1</v>
       </c>
       <c r="P34" s="1">
-        <v>5.2</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="Q34" s="1">
-        <v>9.3000000000000007</v>
+        <v>13.7</v>
       </c>
       <c r="R34" s="1">
-        <v>1.9</v>
+        <v>0.2</v>
       </c>
       <c r="S34" s="1">
-        <v>3.5</v>
+        <v>0.6</v>
       </c>
       <c r="T34" s="1">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="U34" s="1">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="V34" s="1">
-        <v>67.900000000000006</v>
+        <v>81.31</v>
       </c>
       <c r="W34" s="1">
-        <v>82.19</v>
+        <v>89.1</v>
       </c>
       <c r="X34" s="1">
-        <v>62.13</v>
+        <v>86.11</v>
       </c>
       <c r="Y34" s="1">
-        <v>69.83</v>
+        <v>91.63</v>
       </c>
       <c r="Z34" s="1">
-        <v>73.67</v>
+        <v>68.849999999999994</v>
       </c>
       <c r="AA34" s="1">
-        <v>88.76</v>
+        <v>83.98</v>
       </c>
       <c r="AB34" s="1">
-        <v>21.7</v>
+        <v>12.3</v>
       </c>
       <c r="AC34" s="1">
-        <v>11.9</v>
+        <v>7.6</v>
       </c>
       <c r="AD34" s="1">
-        <v>12.8</v>
+        <v>6.6</v>
       </c>
       <c r="AE34" s="1">
-        <v>7</v>
+        <v>3.9</v>
       </c>
       <c r="AF34" s="1">
-        <v>8.9</v>
+        <v>5.7</v>
       </c>
       <c r="AG34" s="1">
-        <v>4.9000000000000004</v>
+        <v>3.7</v>
       </c>
       <c r="AH34" s="1">
-        <v>32.06</v>
+        <v>65.540000000000006</v>
       </c>
       <c r="AI34" s="1">
-        <v>33.15</v>
+        <v>68.28</v>
       </c>
       <c r="AJ34" s="1">
-        <v>0.65</v>
+        <v>0.26</v>
       </c>
       <c r="AK34" s="1">
-        <v>0.69</v>
+        <v>0.34</v>
       </c>
       <c r="AL34" s="1">
-        <v>19.600000000000001</v>
+        <v>17.5</v>
       </c>
       <c r="AM34" s="1">
-        <v>18.899999999999999</v>
+        <v>24.1</v>
       </c>
       <c r="AN34" s="1">
-        <v>57.9</v>
+        <v>43.5</v>
       </c>
       <c r="AO34" s="1">
-        <v>60.8</v>
+        <v>61</v>
       </c>
       <c r="AP34" s="1">
-        <v>0.66</v>
+        <v>0.5</v>
       </c>
       <c r="AQ34" s="1">
-        <v>0.68</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B35" s="1">
-        <v>53.2</v>
+        <v>46.7</v>
       </c>
       <c r="C35" s="1">
-        <v>68.599999999999994</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="D35" s="1">
-        <v>52.6</v>
+        <v>45.9</v>
       </c>
       <c r="E35" s="1">
-        <v>65.5</v>
+        <v>54.9</v>
       </c>
       <c r="F35" s="1">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G35" s="1">
-        <v>3.1</v>
+        <v>14.2</v>
       </c>
       <c r="H35" s="1">
-        <v>49.4</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="I35" s="1">
-        <v>57.8</v>
+        <v>14.5</v>
       </c>
       <c r="J35" s="1">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="K35" s="1">
-        <v>0.1</v>
+        <v>1.7</v>
       </c>
       <c r="L35" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="M35" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="N35" s="1">
+        <v>11.6</v>
+      </c>
+      <c r="O35" s="1">
+        <v>18.2</v>
+      </c>
+      <c r="P35" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="R35" s="1">
         <v>1.9</v>
       </c>
-      <c r="M35" s="1">
-        <v>4.8</v>
-      </c>
-      <c r="N35" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="O35" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="P35" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="Q35" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="R35" s="1">
-        <v>0.1</v>
-      </c>
       <c r="S35" s="1">
-        <v>0.2</v>
+        <v>3.5</v>
       </c>
       <c r="T35" s="1">
-        <v>0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="U35" s="1">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="V35" s="1">
-        <v>83.89</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="W35" s="1">
-        <v>89.73</v>
+        <v>82.19</v>
       </c>
       <c r="X35" s="1">
-        <v>90.31</v>
+        <v>62.13</v>
       </c>
       <c r="Y35" s="1">
-        <v>92.79</v>
+        <v>69.83</v>
       </c>
       <c r="Z35" s="1">
-        <v>40</v>
+        <v>73.67</v>
       </c>
       <c r="AA35" s="1">
-        <v>71.7</v>
+        <v>88.76</v>
       </c>
       <c r="AB35" s="1">
-        <v>10.1</v>
+        <v>21.7</v>
       </c>
       <c r="AC35" s="1">
-        <v>7.5</v>
+        <v>11.9</v>
       </c>
       <c r="AD35" s="1">
-        <v>5.3</v>
+        <v>12.8</v>
       </c>
       <c r="AE35" s="1">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="AF35" s="1">
-        <v>4.8</v>
+        <v>8.9</v>
       </c>
       <c r="AG35" s="1">
-        <v>3</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AH35" s="1">
-        <v>75.42</v>
+        <v>32.06</v>
       </c>
       <c r="AI35" s="1">
-        <v>88.24</v>
+        <v>33.15</v>
       </c>
       <c r="AJ35" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.65</v>
       </c>
       <c r="AK35" s="1">
-        <v>0.13</v>
+        <v>0.69</v>
       </c>
       <c r="AL35" s="1">
-        <v>30.2</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="AM35" s="1">
-        <v>28.5</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="AN35" s="1">
-        <v>76.599999999999994</v>
+        <v>57.9</v>
       </c>
       <c r="AO35" s="1">
-        <v>82.6</v>
+        <v>60.8</v>
       </c>
       <c r="AP35" s="1">
-        <v>0.33</v>
+        <v>0.66</v>
       </c>
       <c r="AQ35" s="1">
-        <v>0.45</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="36" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B36" s="1">
-        <v>57.2</v>
+        <v>53.2</v>
       </c>
       <c r="C36" s="1">
-        <v>68.099999999999994</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="D36" s="1">
-        <v>57</v>
+        <v>52.6</v>
       </c>
       <c r="E36" s="1">
-        <v>66.7</v>
+        <v>65.5</v>
       </c>
       <c r="F36" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="G36" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="H36" s="1">
+        <v>49.4</v>
+      </c>
+      <c r="I36" s="1">
+        <v>57.8</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L36" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="M36" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="N36" s="1">
         <v>0.2</v>
       </c>
-      <c r="G36" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="H36" s="1">
-        <v>54.2</v>
-      </c>
-      <c r="I36" s="1">
-        <v>61.9</v>
-      </c>
-      <c r="J36" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="K36" s="1">
-        <v>2</v>
-      </c>
-      <c r="L36" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="M36" s="1">
+      <c r="O36" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="P36" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="R36" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="S36" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="T36" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="U36" s="1">
         <v>0.5</v>
       </c>
-      <c r="N36" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="O36" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="P36" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Q36" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="R36" s="1">
-        <v>0</v>
-      </c>
-      <c r="S36" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="T36" s="1">
-        <v>0</v>
-      </c>
-      <c r="U36" s="1">
-        <v>0.6</v>
-      </c>
       <c r="V36" s="1">
-        <v>88.51</v>
+        <v>83.89</v>
       </c>
       <c r="W36" s="1">
-        <v>91.24</v>
+        <v>89.73</v>
       </c>
       <c r="X36" s="1">
-        <v>93.94</v>
+        <v>90.31</v>
       </c>
       <c r="Y36" s="1">
-        <v>94.67</v>
+        <v>92.79</v>
       </c>
       <c r="Z36" s="1">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="AA36" s="1">
-        <v>50</v>
+        <v>71.7</v>
       </c>
       <c r="AB36" s="1">
-        <v>7.4</v>
+        <v>10.1</v>
       </c>
       <c r="AC36" s="1">
-        <v>6.4</v>
+        <v>7.5</v>
       </c>
       <c r="AD36" s="1">
-        <v>3.6</v>
+        <v>5.3</v>
       </c>
       <c r="AE36" s="1">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="AF36" s="1">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="AG36" s="1">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AH36" s="1">
-        <v>81.260000000000005</v>
+        <v>75.42</v>
       </c>
       <c r="AI36" s="1">
-        <v>92.8</v>
+        <v>88.24</v>
       </c>
       <c r="AJ36" s="1">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AK36" s="1">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="AL36" s="1">
-        <v>9.6</v>
+        <v>30.2</v>
       </c>
       <c r="AM36" s="1">
-        <v>17</v>
+        <v>28.5</v>
       </c>
       <c r="AN36" s="1">
-        <v>25.1</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="AO36" s="1">
-        <v>49.2</v>
+        <v>82.6</v>
       </c>
       <c r="AP36" s="1">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="AQ36" s="1">
-        <v>0.36</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="37" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B37" s="1">
-        <v>64.099999999999994</v>
+        <v>57.2</v>
       </c>
       <c r="C37" s="1">
-        <v>71.2</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="D37" s="1">
-        <v>42.8</v>
+        <v>57</v>
       </c>
       <c r="E37" s="1">
-        <v>49.1</v>
+        <v>66.7</v>
       </c>
       <c r="F37" s="1">
-        <v>21.3</v>
+        <v>0.2</v>
       </c>
       <c r="G37" s="1">
-        <v>22.1</v>
+        <v>1.4</v>
       </c>
       <c r="H37" s="1">
-        <v>13.9</v>
+        <v>54.2</v>
       </c>
       <c r="I37" s="1">
-        <v>10.5</v>
+        <v>61.9</v>
       </c>
       <c r="J37" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="K37" s="1">
+        <v>2</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="O37" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="P37" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="R37" s="1">
         <v>0</v>
       </c>
-      <c r="K37" s="1">
-        <v>0</v>
-      </c>
-      <c r="L37" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="M37" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="N37" s="1">
-        <v>26.3</v>
-      </c>
-      <c r="O37" s="1">
-        <v>32.799999999999997</v>
-      </c>
-      <c r="P37" s="1">
-        <v>1.9</v>
-      </c>
-      <c r="Q37" s="1">
-        <v>3.3</v>
-      </c>
-      <c r="R37" s="1">
+      <c r="S37" s="1">
         <v>0.1</v>
-      </c>
-      <c r="S37" s="1">
-        <v>0.3</v>
       </c>
       <c r="T37" s="1">
         <v>0</v>
       </c>
       <c r="U37" s="1">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="V37" s="1">
-        <v>80</v>
+        <v>88.51</v>
       </c>
       <c r="W37" s="1">
-        <v>85.69</v>
+        <v>91.24</v>
       </c>
       <c r="X37" s="1">
-        <v>67.8</v>
+        <v>93.94</v>
       </c>
       <c r="Y37" s="1">
-        <v>64.81</v>
+        <v>94.67</v>
       </c>
       <c r="Z37" s="1">
-        <v>87.58</v>
+        <v>24</v>
       </c>
       <c r="AA37" s="1">
-        <v>93.92</v>
+        <v>50</v>
       </c>
       <c r="AB37" s="1">
-        <v>10.7</v>
+        <v>7.4</v>
       </c>
       <c r="AC37" s="1">
-        <v>8.1999999999999993</v>
+        <v>6.4</v>
       </c>
       <c r="AD37" s="1">
-        <v>6.6</v>
+        <v>3.6</v>
       </c>
       <c r="AE37" s="1">
-        <v>5.7</v>
+        <v>3.6</v>
       </c>
       <c r="AF37" s="1">
-        <v>4.0999999999999996</v>
+        <v>3.8</v>
       </c>
       <c r="AG37" s="1">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="AH37" s="1">
-        <v>53.56</v>
+        <v>81.260000000000005</v>
       </c>
       <c r="AI37" s="1">
-        <v>66.8</v>
+        <v>92.8</v>
       </c>
       <c r="AJ37" s="1">
-        <v>0.37</v>
+        <v>0.06</v>
       </c>
       <c r="AK37" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="AL37" s="1">
+        <v>9.6</v>
+      </c>
+      <c r="AM37" s="1">
+        <v>17</v>
+      </c>
+      <c r="AN37" s="1">
+        <v>25.1</v>
+      </c>
+      <c r="AO37" s="1">
+        <v>49.2</v>
+      </c>
+      <c r="AP37" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="AQ37" s="1">
         <v>0.36</v>
-      </c>
-      <c r="AL37" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="AM37" s="1">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="AN37" s="1">
-        <v>39.5</v>
-      </c>
-      <c r="AO37" s="1">
-        <v>41.9</v>
-      </c>
-      <c r="AP37" s="1">
-        <v>0.51</v>
-      </c>
-      <c r="AQ37" s="1">
-        <v>0.53</v>
       </c>
     </row>
     <row r="38" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B38" s="1">
-        <v>45.5</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="C38" s="1">
-        <v>62.4</v>
+        <v>71.2</v>
       </c>
       <c r="D38" s="1">
-        <v>31.7</v>
+        <v>42.8</v>
       </c>
       <c r="E38" s="1">
-        <v>44.5</v>
+        <v>49.1</v>
       </c>
       <c r="F38" s="1">
-        <v>13.8</v>
+        <v>21.3</v>
       </c>
       <c r="G38" s="1">
-        <v>17.899999999999999</v>
+        <v>22.1</v>
       </c>
       <c r="H38" s="1">
-        <v>17.3</v>
+        <v>13.9</v>
       </c>
       <c r="I38" s="1">
-        <v>16.899999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="J38" s="1">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="N38" s="1">
+        <v>26.3</v>
+      </c>
+      <c r="O38" s="1">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="P38" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="R38" s="1">
         <v>0.1</v>
       </c>
-      <c r="K38" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="L38" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="M38" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="N38" s="1">
-        <v>1.9</v>
-      </c>
-      <c r="O38" s="1">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="P38" s="1">
-        <v>10.8</v>
-      </c>
-      <c r="Q38" s="1">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="R38" s="1">
-        <v>0.4</v>
-      </c>
       <c r="S38" s="1">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="T38" s="1">
         <v>0</v>
       </c>
       <c r="U38" s="1">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="V38" s="1">
-        <v>63.65</v>
+        <v>80</v>
       </c>
       <c r="W38" s="1">
-        <v>77.53</v>
+        <v>85.69</v>
       </c>
       <c r="X38" s="1">
-        <v>60.63</v>
+        <v>67.8</v>
       </c>
       <c r="Y38" s="1">
-        <v>67.73</v>
+        <v>64.81</v>
       </c>
       <c r="Z38" s="1">
-        <v>67.77</v>
+        <v>87.58</v>
       </c>
       <c r="AA38" s="1">
-        <v>85.14</v>
+        <v>93.92</v>
       </c>
       <c r="AB38" s="1">
-        <v>18.100000000000001</v>
+        <v>10.7</v>
       </c>
       <c r="AC38" s="1">
-        <v>12.9</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AD38" s="1">
-        <v>11.3</v>
+        <v>6.6</v>
       </c>
       <c r="AE38" s="1">
-        <v>8.1</v>
+        <v>5.7</v>
       </c>
       <c r="AF38" s="1">
-        <v>6.8</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AG38" s="1">
-        <v>4.8</v>
+        <v>2.5</v>
       </c>
       <c r="AH38" s="1">
-        <v>38.880000000000003</v>
+        <v>53.56</v>
       </c>
       <c r="AI38" s="1">
-        <v>42.92</v>
+        <v>66.8</v>
       </c>
       <c r="AJ38" s="1">
-        <v>0.43</v>
+        <v>0.37</v>
       </c>
       <c r="AK38" s="1">
-        <v>0.52</v>
+        <v>0.36</v>
       </c>
       <c r="AL38" s="1">
-        <v>12.8</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AM38" s="1">
-        <v>25.1</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AN38" s="1">
-        <v>47.5</v>
+        <v>39.5</v>
       </c>
       <c r="AO38" s="1">
-        <v>70.599999999999994</v>
+        <v>41.9</v>
       </c>
       <c r="AP38" s="1">
-        <v>0.48</v>
+        <v>0.51</v>
       </c>
       <c r="AQ38" s="1">
-        <v>0.57999999999999996</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="39" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B39" s="1">
-        <v>53.4</v>
+        <v>45.5</v>
       </c>
       <c r="C39" s="1">
-        <v>70.8</v>
+        <v>62.4</v>
       </c>
       <c r="D39" s="1">
-        <v>49.3</v>
+        <v>31.7</v>
       </c>
       <c r="E39" s="1">
-        <v>57.8</v>
+        <v>44.5</v>
       </c>
       <c r="F39" s="1">
-        <v>4.0999999999999996</v>
+        <v>13.8</v>
       </c>
       <c r="G39" s="1">
-        <v>13</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="H39" s="1">
-        <v>27.4</v>
+        <v>17.3</v>
       </c>
       <c r="I39" s="1">
-        <v>26</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="J39" s="1">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="K39" s="1">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="L39" s="1">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="M39" s="1">
         <v>1.5</v>
       </c>
       <c r="N39" s="1">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="O39" s="1">
-        <v>2.7</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="P39" s="1">
-        <v>16.100000000000001</v>
+        <v>10.8</v>
       </c>
       <c r="Q39" s="1">
-        <v>25.6</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="R39" s="1">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="S39" s="1">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="T39" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="U39" s="1">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="V39" s="1">
-        <v>76.08</v>
+        <v>63.65</v>
       </c>
       <c r="W39" s="1">
-        <v>86.79</v>
+        <v>77.53</v>
       </c>
       <c r="X39" s="1">
-        <v>73.180000000000007</v>
+        <v>60.63</v>
       </c>
       <c r="Y39" s="1">
-        <v>82.66</v>
+        <v>67.73</v>
       </c>
       <c r="Z39" s="1">
-        <v>80.3</v>
+        <v>67.77</v>
       </c>
       <c r="AA39" s="1">
-        <v>90.67</v>
+        <v>85.14</v>
       </c>
       <c r="AB39" s="1">
-        <v>15.5</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="AC39" s="1">
-        <v>8.8000000000000007</v>
+        <v>12.9</v>
       </c>
       <c r="AD39" s="1">
-        <v>10.3</v>
+        <v>11.3</v>
       </c>
       <c r="AE39" s="1">
-        <v>5.6</v>
+        <v>8.1</v>
       </c>
       <c r="AF39" s="1">
-        <v>5.2</v>
+        <v>6.8</v>
       </c>
       <c r="AG39" s="1">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="AH39" s="1">
-        <v>47.4</v>
+        <v>38.880000000000003</v>
       </c>
       <c r="AI39" s="1">
-        <v>44.98</v>
+        <v>42.92</v>
       </c>
       <c r="AJ39" s="1">
         <v>0.43</v>
       </c>
       <c r="AK39" s="1">
-        <v>0.45</v>
+        <v>0.52</v>
       </c>
       <c r="AL39" s="1">
-        <v>15.2</v>
+        <v>12.8</v>
       </c>
       <c r="AM39" s="1">
-        <v>20.2</v>
+        <v>25.1</v>
       </c>
       <c r="AN39" s="1">
-        <v>45.4</v>
+        <v>47.5</v>
       </c>
       <c r="AO39" s="1">
-        <v>60.7</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="AP39" s="1">
-        <v>0.61</v>
+        <v>0.48</v>
       </c>
       <c r="AQ39" s="1">
-        <v>0.63</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="40" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B40" s="1">
-        <v>70.900000000000006</v>
+        <v>53.4</v>
       </c>
       <c r="C40" s="1">
-        <v>74.400000000000006</v>
+        <v>70.8</v>
       </c>
       <c r="D40" s="1">
-        <v>57</v>
+        <v>49.3</v>
       </c>
       <c r="E40" s="1">
-        <v>60.7</v>
+        <v>57.8</v>
       </c>
       <c r="F40" s="1">
-        <v>13.9</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G40" s="1">
-        <v>13.7</v>
+        <v>13</v>
       </c>
       <c r="H40" s="1">
-        <v>29.3</v>
+        <v>27.4</v>
       </c>
       <c r="I40" s="1">
-        <v>29.4</v>
+        <v>26</v>
       </c>
       <c r="J40" s="1">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="K40" s="1">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="L40" s="1">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="M40" s="1">
-        <v>2.2000000000000002</v>
+        <v>1.5</v>
       </c>
       <c r="N40" s="1">
-        <v>20</v>
+        <v>3.2</v>
       </c>
       <c r="O40" s="1">
-        <v>20.3</v>
+        <v>2.7</v>
       </c>
       <c r="P40" s="1">
-        <v>5.9</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="Q40" s="1">
-        <v>7</v>
+        <v>25.6</v>
       </c>
       <c r="R40" s="1">
         <v>0.2</v>
       </c>
       <c r="S40" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="T40" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="U40" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="V40" s="1">
+        <v>76.08</v>
+      </c>
+      <c r="W40" s="1">
+        <v>86.79</v>
+      </c>
+      <c r="X40" s="1">
+        <v>73.180000000000007</v>
+      </c>
+      <c r="Y40" s="1">
+        <v>82.66</v>
+      </c>
+      <c r="Z40" s="1">
+        <v>80.3</v>
+      </c>
+      <c r="AA40" s="1">
+        <v>90.67</v>
+      </c>
+      <c r="AB40" s="1">
+        <v>15.5</v>
+      </c>
+      <c r="AC40" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AD40" s="1">
+        <v>10.3</v>
+      </c>
+      <c r="AE40" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="AF40" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="AG40" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="AH40" s="1">
+        <v>47.4</v>
+      </c>
+      <c r="AI40" s="1">
+        <v>44.98</v>
+      </c>
+      <c r="AJ40" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="AK40" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="AL40" s="1">
+        <v>15.2</v>
+      </c>
+      <c r="AM40" s="1">
+        <v>20.2</v>
+      </c>
+      <c r="AN40" s="1">
+        <v>45.4</v>
+      </c>
+      <c r="AO40" s="1">
+        <v>60.7</v>
+      </c>
+      <c r="AP40" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="AQ40" s="1">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="1">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="C41" s="1">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="D41" s="1">
+        <v>57</v>
+      </c>
+      <c r="E41" s="1">
+        <v>60.7</v>
+      </c>
+      <c r="F41" s="1">
+        <v>13.9</v>
+      </c>
+      <c r="G41" s="1">
+        <v>13.7</v>
+      </c>
+      <c r="H41" s="1">
+        <v>29.3</v>
+      </c>
+      <c r="I41" s="1">
+        <v>29.4</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L41" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="M41" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N41" s="1">
+        <v>20</v>
+      </c>
+      <c r="O41" s="1">
+        <v>20.3</v>
+      </c>
+      <c r="P41" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>7</v>
+      </c>
+      <c r="R41" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="S41" s="1">
         <v>0.7</v>
       </c>
-      <c r="T40" s="1">
+      <c r="T41" s="1">
         <v>0.3</v>
       </c>
-      <c r="U40" s="1">
+      <c r="U41" s="1">
         <v>1</v>
       </c>
-      <c r="V40" s="1">
+      <c r="V41" s="1">
         <v>88.37</v>
       </c>
-      <c r="W40" s="1">
+      <c r="W41" s="1">
         <v>89.66</v>
       </c>
-      <c r="X40" s="1">
+      <c r="X41" s="1">
         <v>86.73</v>
       </c>
-      <c r="Y40" s="1">
+      <c r="Y41" s="1">
         <v>88.06</v>
       </c>
-      <c r="Z40" s="1">
+      <c r="Z41" s="1">
         <v>90.2</v>
       </c>
-      <c r="AA40" s="1">
+      <c r="AA41" s="1">
         <v>91.23</v>
       </c>
-      <c r="AB40" s="1">
+      <c r="AB41" s="1">
         <v>7.5</v>
       </c>
-      <c r="AC40" s="1">
+      <c r="AC41" s="1">
         <v>7</v>
       </c>
-      <c r="AD40" s="1">
+      <c r="AD41" s="1">
         <v>4.5</v>
       </c>
-      <c r="AE40" s="1">
+      <c r="AE41" s="1">
         <v>4</v>
       </c>
-      <c r="AF40" s="1">
+      <c r="AF41" s="1">
         <v>3</v>
       </c>
-      <c r="AG40" s="1">
+      <c r="AG41" s="1">
         <v>3</v>
       </c>
-      <c r="AH40" s="1">
+      <c r="AH41" s="1">
         <v>48.27</v>
       </c>
-      <c r="AI40" s="1">
+      <c r="AI41" s="1">
         <v>48.43</v>
       </c>
-      <c r="AJ40" s="1">
+      <c r="AJ41" s="1">
         <v>0.45</v>
       </c>
-      <c r="AK40" s="1">
+      <c r="AK41" s="1">
         <v>0.49</v>
       </c>
-      <c r="AL40" s="1">
+      <c r="AL41" s="1">
         <v>12.3</v>
       </c>
-      <c r="AM40" s="1">
+      <c r="AM41" s="1">
         <v>17.5</v>
       </c>
-      <c r="AN40" s="1">
+      <c r="AN41" s="1">
         <v>49.6</v>
       </c>
-      <c r="AO40" s="1">
+      <c r="AO41" s="1">
         <v>53.6</v>
       </c>
-      <c r="AP40" s="1">
+      <c r="AP41" s="1">
         <v>0.63</v>
       </c>
-      <c r="AQ40" s="1">
+      <c r="AQ41" s="1">
         <v>0.66</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AN2:AO2"/>
+  <mergeCells count="28">
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="AP3:AQ3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="B1:AQ1"/>
     <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="B1:U1"/>
-    <mergeCell ref="V1:AA1"/>
-    <mergeCell ref="AB1:AG1"/>
-    <mergeCell ref="AH1:AK1"/>
-    <mergeCell ref="AL1:AO1"/>
+    <mergeCell ref="B2:U2"/>
+    <mergeCell ref="V2:AA2"/>
+    <mergeCell ref="AB2:AG2"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="AL2:AO2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/data/fppe_data_combined.xlsx
+++ b/data/fppe_data_combined.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akshay/Workspace/MLC/FPPE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D6BBEC-10C3-4C4D-B23D-6829181E95F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D8B137-466A-DE4A-B964-DD91E3EAFB3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{259E7114-D380-BD40-B813-EE9B97F880CA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{259E7114-D380-BD40-B813-EE9B97F880CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -125,9 +125,6 @@
     <t>Combined</t>
   </si>
   <si>
-    <t>Andaman &amp; Nicobar Islands</t>
-  </si>
-  <si>
     <t>Andhra Pradesh</t>
   </si>
   <si>
@@ -149,9 +146,6 @@
     <t>Delhi</t>
   </si>
   <si>
-    <t>Dadra &amp; Nagar Haveli and Daman &amp; Diu</t>
-  </si>
-  <si>
     <t>Goa</t>
   </si>
   <si>
@@ -161,9 +155,6 @@
     <t>Himachal Pradesh</t>
   </si>
   <si>
-    <t>Jammu &amp; Kashmir</t>
-  </si>
-  <si>
     <t>Jharkhand</t>
   </si>
   <si>
@@ -234,6 +225,15 @@
   </si>
   <si>
     <t>Haryana</t>
+  </si>
+  <si>
+    <t>Andaman &amp; Nicobar</t>
+  </si>
+  <si>
+    <t>Jammu and Kashmir</t>
+  </si>
+  <si>
+    <t>Dadra &amp; Nagar Haveli &amp; Daman &amp; Diu</t>
   </si>
 </sst>
 </file>
@@ -299,14 +299,14 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -631,193 +631,193 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="3"/>
-      <c r="AL1" s="3"/>
-      <c r="AM1" s="3"/>
-      <c r="AN1" s="3"/>
-      <c r="AO1" s="3"/>
-      <c r="AP1" s="3"/>
-      <c r="AQ1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="4"/>
+      <c r="AM1" s="4"/>
+      <c r="AN1" s="4"/>
+      <c r="AO1" s="4"/>
+      <c r="AP1" s="4"/>
+      <c r="AQ1" s="4"/>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4" t="s">
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="4" t="s">
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="4"/>
-      <c r="AK2" s="4"/>
-      <c r="AL2" s="4" t="s">
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AM2" s="4"/>
-      <c r="AN2" s="4"/>
-      <c r="AO2" s="4"/>
-      <c r="AP2" s="4" t="s">
+      <c r="AM2" s="5"/>
+      <c r="AN2" s="5"/>
+      <c r="AO2" s="5"/>
+      <c r="AP2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="AQ2" s="4"/>
+      <c r="AQ2" s="5"/>
     </row>
     <row r="3" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5" t="s">
+      <c r="I3" s="3"/>
+      <c r="J3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5" t="s">
+      <c r="K3" s="3"/>
+      <c r="L3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5" t="s">
+      <c r="M3" s="3"/>
+      <c r="N3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5" t="s">
+      <c r="O3" s="3"/>
+      <c r="P3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5" t="s">
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5" t="s">
+      <c r="S3" s="3"/>
+      <c r="T3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5" t="s">
+      <c r="U3" s="3"/>
+      <c r="V3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5" t="s">
+      <c r="W3" s="3"/>
+      <c r="X3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5" t="s">
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5" t="s">
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5" t="s">
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="5" t="s">
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AG3" s="5"/>
-      <c r="AH3" s="5" t="s">
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="5" t="s">
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AK3" s="5"/>
-      <c r="AL3" s="5" t="s">
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AM3" s="5"/>
-      <c r="AN3" s="5" t="s">
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AO3" s="5"/>
-      <c r="AP3" s="5" t="s">
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AQ3" s="5"/>
+      <c r="AQ3" s="3"/>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
@@ -950,7 +950,7 @@
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1">
         <v>53.5</v>
@@ -1081,7 +1081,7 @@
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="B6" s="1">
         <v>50.8</v>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1">
         <v>69.5</v>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1">
         <v>31.7</v>
@@ -1474,7 +1474,7 @@
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1">
         <v>52.4</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1">
         <v>24.1</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1">
         <v>74</v>
@@ -1867,7 +1867,7 @@
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1">
         <v>57.7</v>
@@ -1998,7 +1998,7 @@
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1">
         <v>54.9</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="B14" s="1">
         <v>36.200000000000003</v>
@@ -2260,7 +2260,7 @@
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B15" s="1">
         <v>26.3</v>
@@ -2391,7 +2391,7 @@
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B16" s="1">
         <v>46.9</v>
@@ -2522,7 +2522,7 @@
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B17" s="1">
         <v>63.7</v>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B18" s="1">
         <v>57</v>
@@ -2784,7 +2784,7 @@
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="B19" s="1">
         <v>57.1</v>
@@ -2915,7 +2915,7 @@
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B20" s="1">
         <v>40.4</v>
@@ -3046,7 +3046,7 @@
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B21" s="1">
         <v>51.8</v>
@@ -3177,7 +3177,7 @@
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B22" s="1">
         <v>53.1</v>
@@ -3308,7 +3308,7 @@
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B23" s="1">
         <v>66.599999999999994</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B24" s="1">
         <v>29.7</v>
@@ -3568,7 +3568,7 @@
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B25" s="1">
         <v>51.4</v>
@@ -3699,7 +3699,7 @@
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B26" s="1">
         <v>64.8</v>
@@ -3830,7 +3830,7 @@
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B27" s="1">
         <v>23.6</v>
@@ -3961,7 +3961,7 @@
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B28" s="1">
         <v>24.3</v>
@@ -4092,7 +4092,7 @@
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B29" s="1">
         <v>35.299999999999997</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B30" s="1">
         <v>26.5</v>
@@ -4354,7 +4354,7 @@
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B31" s="1">
         <v>57.3</v>
@@ -4485,7 +4485,7 @@
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B32" s="1">
         <v>61.9</v>
@@ -4616,7 +4616,7 @@
     </row>
     <row r="33" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B33" s="1">
         <v>75.8</v>
@@ -4747,7 +4747,7 @@
     </row>
     <row r="34" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B34" s="1">
         <v>59.7</v>
@@ -4878,7 +4878,7 @@
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B35" s="1">
         <v>46.7</v>
@@ -5009,7 +5009,7 @@
     </row>
     <row r="36" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B36" s="1">
         <v>53.2</v>
@@ -5140,7 +5140,7 @@
     </row>
     <row r="37" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B37" s="1">
         <v>57.2</v>
@@ -5271,7 +5271,7 @@
     </row>
     <row r="38" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B38" s="1">
         <v>64.099999999999994</v>
@@ -5402,7 +5402,7 @@
     </row>
     <row r="39" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B39" s="1">
         <v>45.5</v>
@@ -5533,7 +5533,7 @@
     </row>
     <row r="40" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B40" s="1">
         <v>53.4</v>
@@ -5664,7 +5664,7 @@
     </row>
     <row r="41" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B41" s="1">
         <v>70.900000000000006</v>
@@ -5795,16 +5795,13 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="AN3:AO3"/>
-    <mergeCell ref="AP3:AQ3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="B1:AQ1"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="B2:U2"/>
+    <mergeCell ref="V2:AA2"/>
+    <mergeCell ref="AB2:AG2"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="V3:W3"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
@@ -5816,13 +5813,16 @@
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="T3:U3"/>
-    <mergeCell ref="B1:AQ1"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="B2:U2"/>
-    <mergeCell ref="V2:AA2"/>
-    <mergeCell ref="AB2:AG2"/>
-    <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="AL2:AO2"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="AP3:AQ3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AI3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
